--- a/BackTest/2020-01-23 BackTest ABT.xlsx
+++ b/BackTest/2020-01-23 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>157.2</v>
+        <v>159.9</v>
       </c>
       <c r="C2" t="n">
-        <v>157.2</v>
+        <v>158</v>
       </c>
       <c r="D2" t="n">
-        <v>157.2</v>
+        <v>159.9</v>
       </c>
       <c r="E2" t="n">
-        <v>157.2</v>
+        <v>158</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>20.208</v>
       </c>
       <c r="G2" t="n">
-        <v>161.2133333333335</v>
+        <v>161.1933333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>160.4</v>
+        <v>157.2</v>
       </c>
       <c r="C3" t="n">
         <v>157.2</v>
       </c>
       <c r="D3" t="n">
-        <v>160.4</v>
+        <v>157.2</v>
       </c>
       <c r="E3" t="n">
         <v>157.2</v>
       </c>
       <c r="F3" t="n">
-        <v>6591.9064</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>161.2333333333335</v>
+        <v>161.2133333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>157.2</v>
+        <v>160.4</v>
       </c>
       <c r="C4" t="n">
         <v>157.2</v>
       </c>
       <c r="D4" t="n">
-        <v>157.2</v>
+        <v>160.4</v>
       </c>
       <c r="E4" t="n">
         <v>157.2</v>
       </c>
       <c r="F4" t="n">
-        <v>2087.8834</v>
+        <v>6591.9064</v>
       </c>
       <c r="G4" t="n">
-        <v>161.2366666666668</v>
+        <v>161.2333333333335</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>156.1</v>
+        <v>157.2</v>
       </c>
       <c r="C5" t="n">
-        <v>156.1</v>
+        <v>157.2</v>
       </c>
       <c r="D5" t="n">
-        <v>156.1</v>
+        <v>157.2</v>
       </c>
       <c r="E5" t="n">
-        <v>156.1</v>
+        <v>157.2</v>
       </c>
       <c r="F5" t="n">
-        <v>1500</v>
+        <v>2087.8834</v>
       </c>
       <c r="G5" t="n">
-        <v>161.1716666666668</v>
+        <v>161.2366666666668</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>1500</v>
       </c>
       <c r="G6" t="n">
-        <v>161.1233333333335</v>
+        <v>161.1716666666668</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>156.1</v>
       </c>
       <c r="E7" t="n">
-        <v>156</v>
+        <v>156.1</v>
       </c>
       <c r="F7" t="n">
-        <v>3490.8102</v>
+        <v>1500</v>
       </c>
       <c r="G7" t="n">
-        <v>161.0083333333335</v>
+        <v>161.1233333333335</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>156.2</v>
+        <v>156.1</v>
       </c>
       <c r="C8" t="n">
-        <v>158</v>
+        <v>156.1</v>
       </c>
       <c r="D8" t="n">
-        <v>158</v>
+        <v>156.1</v>
       </c>
       <c r="E8" t="n">
-        <v>156.2</v>
+        <v>156</v>
       </c>
       <c r="F8" t="n">
-        <v>1489.6043</v>
+        <v>3490.8102</v>
       </c>
       <c r="G8" t="n">
-        <v>160.8883333333335</v>
+        <v>161.0083333333335</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>156</v>
+        <v>156.2</v>
       </c>
       <c r="C9" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D9" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E9" t="n">
-        <v>154.6</v>
+        <v>156.2</v>
       </c>
       <c r="F9" t="n">
-        <v>4830.8326</v>
+        <v>1489.6043</v>
       </c>
       <c r="G9" t="n">
-        <v>160.7533333333335</v>
+        <v>160.8883333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>156.9</v>
+        <v>156</v>
       </c>
       <c r="C10" t="n">
-        <v>156.9</v>
+        <v>157</v>
       </c>
       <c r="D10" t="n">
-        <v>156.9</v>
+        <v>157</v>
       </c>
       <c r="E10" t="n">
-        <v>156.9</v>
+        <v>154.6</v>
       </c>
       <c r="F10" t="n">
-        <v>1627.4248</v>
+        <v>4830.8326</v>
       </c>
       <c r="G10" t="n">
-        <v>160.6583333333334</v>
+        <v>160.7533333333335</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>151.1</v>
+        <v>156.9</v>
       </c>
       <c r="C11" t="n">
-        <v>151.1</v>
+        <v>156.9</v>
       </c>
       <c r="D11" t="n">
-        <v>151.1</v>
+        <v>156.9</v>
       </c>
       <c r="E11" t="n">
-        <v>151.1</v>
+        <v>156.9</v>
       </c>
       <c r="F11" t="n">
-        <v>3.4</v>
+        <v>1627.4248</v>
       </c>
       <c r="G11" t="n">
-        <v>160.4600000000001</v>
+        <v>160.6583333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>153</v>
+        <v>151.1</v>
       </c>
       <c r="C12" t="n">
-        <v>153</v>
+        <v>151.1</v>
       </c>
       <c r="D12" t="n">
-        <v>154</v>
+        <v>151.1</v>
       </c>
       <c r="E12" t="n">
-        <v>153</v>
+        <v>151.1</v>
       </c>
       <c r="F12" t="n">
-        <v>5057.494</v>
+        <v>3.4</v>
       </c>
       <c r="G12" t="n">
-        <v>160.2733333333335</v>
+        <v>160.4600000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" t="n">
         <v>154</v>
       </c>
       <c r="E13" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F13" t="n">
-        <v>5098.904</v>
+        <v>5057.494</v>
       </c>
       <c r="G13" t="n">
-        <v>160.0866666666668</v>
+        <v>160.2733333333335</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>153.3</v>
+        <v>154</v>
       </c>
       <c r="C14" t="n">
-        <v>153.3</v>
+        <v>154</v>
       </c>
       <c r="D14" t="n">
-        <v>153.3</v>
+        <v>154</v>
       </c>
       <c r="E14" t="n">
-        <v>153.3</v>
+        <v>154</v>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>5098.904</v>
       </c>
       <c r="G14" t="n">
-        <v>159.8566666666667</v>
+        <v>160.0866666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>154.8</v>
+        <v>153.3</v>
       </c>
       <c r="C15" t="n">
-        <v>154.8</v>
+        <v>153.3</v>
       </c>
       <c r="D15" t="n">
-        <v>154.8</v>
+        <v>153.3</v>
       </c>
       <c r="E15" t="n">
-        <v>154.8</v>
+        <v>153.3</v>
       </c>
       <c r="F15" t="n">
-        <v>3.259</v>
+        <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>159.6733333333334</v>
+        <v>159.8566666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>154.8</v>
       </c>
       <c r="F16" t="n">
-        <v>105.2242</v>
+        <v>3.259</v>
       </c>
       <c r="G16" t="n">
-        <v>159.4850000000001</v>
+        <v>159.6733333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>153.3</v>
+        <v>154.8</v>
       </c>
       <c r="C17" t="n">
-        <v>153.3</v>
+        <v>154.8</v>
       </c>
       <c r="D17" t="n">
-        <v>153.3</v>
+        <v>154.8</v>
       </c>
       <c r="E17" t="n">
-        <v>153.3</v>
+        <v>154.8</v>
       </c>
       <c r="F17" t="n">
-        <v>3.3</v>
+        <v>105.2242</v>
       </c>
       <c r="G17" t="n">
-        <v>159.2666666666667</v>
+        <v>159.4850000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>153.3</v>
       </c>
       <c r="F18" t="n">
-        <v>1500</v>
+        <v>3.3</v>
       </c>
       <c r="G18" t="n">
-        <v>159.0266666666667</v>
+        <v>159.2666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>153.3</v>
       </c>
       <c r="C19" t="n">
-        <v>154</v>
+        <v>153.3</v>
       </c>
       <c r="D19" t="n">
-        <v>154</v>
+        <v>153.3</v>
       </c>
       <c r="E19" t="n">
-        <v>153.2</v>
+        <v>153.3</v>
       </c>
       <c r="F19" t="n">
-        <v>2479.6202</v>
+        <v>1500</v>
       </c>
       <c r="G19" t="n">
-        <v>158.825</v>
+        <v>159.0266666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>154</v>
+        <v>153.3</v>
       </c>
       <c r="C20" t="n">
         <v>154</v>
@@ -1072,13 +1072,13 @@
         <v>154</v>
       </c>
       <c r="E20" t="n">
-        <v>153</v>
+        <v>153.2</v>
       </c>
       <c r="F20" t="n">
-        <v>4347.6101</v>
+        <v>2479.6202</v>
       </c>
       <c r="G20" t="n">
-        <v>158.5666666666667</v>
+        <v>158.825</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D21" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E21" t="n">
         <v>153</v>
       </c>
       <c r="F21" t="n">
-        <v>105.2242</v>
+        <v>4347.6101</v>
       </c>
       <c r="G21" t="n">
-        <v>158.3683333333334</v>
+        <v>158.5666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>154.9</v>
+        <v>153</v>
       </c>
       <c r="C22" t="n">
-        <v>154.9</v>
+        <v>153</v>
       </c>
       <c r="D22" t="n">
-        <v>154.9</v>
+        <v>153</v>
       </c>
       <c r="E22" t="n">
-        <v>154.9</v>
+        <v>153</v>
       </c>
       <c r="F22" t="n">
-        <v>224.4445</v>
+        <v>105.2242</v>
       </c>
       <c r="G22" t="n">
-        <v>158.1333333333334</v>
+        <v>158.3683333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>154.9</v>
       </c>
       <c r="F23" t="n">
-        <v>2970.2376</v>
+        <v>224.4445</v>
       </c>
       <c r="G23" t="n">
-        <v>157.8983333333334</v>
+        <v>158.1333333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>154</v>
+        <v>154.9</v>
       </c>
       <c r="C24" t="n">
-        <v>155.9</v>
+        <v>154.9</v>
       </c>
       <c r="D24" t="n">
-        <v>155.9</v>
+        <v>154.9</v>
       </c>
       <c r="E24" t="n">
-        <v>153.1</v>
+        <v>154.9</v>
       </c>
       <c r="F24" t="n">
-        <v>3450</v>
+        <v>2970.2376</v>
       </c>
       <c r="G24" t="n">
-        <v>157.7616666666667</v>
+        <v>157.8983333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>154</v>
       </c>
       <c r="C25" t="n">
-        <v>154</v>
+        <v>155.9</v>
       </c>
       <c r="D25" t="n">
-        <v>154</v>
+        <v>155.9</v>
       </c>
       <c r="E25" t="n">
-        <v>154</v>
+        <v>153.1</v>
       </c>
       <c r="F25" t="n">
-        <v>535.1581</v>
+        <v>3450</v>
       </c>
       <c r="G25" t="n">
-        <v>157.6383333333333</v>
+        <v>157.7616666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>153.1</v>
+        <v>154</v>
       </c>
       <c r="C26" t="n">
-        <v>153.1</v>
+        <v>154</v>
       </c>
       <c r="D26" t="n">
-        <v>153.1</v>
+        <v>154</v>
       </c>
       <c r="E26" t="n">
-        <v>153.1</v>
+        <v>154</v>
       </c>
       <c r="F26" t="n">
-        <v>1500</v>
+        <v>535.1581</v>
       </c>
       <c r="G26" t="n">
-        <v>157.4583333333334</v>
+        <v>157.6383333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>153</v>
+        <v>153.1</v>
       </c>
       <c r="C27" t="n">
-        <v>153</v>
+        <v>153.1</v>
       </c>
       <c r="D27" t="n">
-        <v>153</v>
+        <v>153.1</v>
       </c>
       <c r="E27" t="n">
-        <v>153</v>
+        <v>153.1</v>
       </c>
       <c r="F27" t="n">
-        <v>998.921</v>
+        <v>1500</v>
       </c>
       <c r="G27" t="n">
-        <v>157.375</v>
+        <v>157.4583333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>152.2</v>
+        <v>153</v>
       </c>
       <c r="C28" t="n">
-        <v>152.2</v>
+        <v>153</v>
       </c>
       <c r="D28" t="n">
-        <v>152.2</v>
+        <v>153</v>
       </c>
       <c r="E28" t="n">
-        <v>152.2</v>
+        <v>153</v>
       </c>
       <c r="F28" t="n">
-        <v>1500</v>
+        <v>998.921</v>
       </c>
       <c r="G28" t="n">
-        <v>157.26</v>
+        <v>157.375</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>156</v>
+        <v>152.2</v>
       </c>
       <c r="C29" t="n">
-        <v>156</v>
+        <v>152.2</v>
       </c>
       <c r="D29" t="n">
-        <v>156</v>
+        <v>152.2</v>
       </c>
       <c r="E29" t="n">
-        <v>156</v>
+        <v>152.2</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G29" t="n">
-        <v>157.1950000000001</v>
+        <v>157.26</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>152.3</v>
+        <v>156</v>
       </c>
       <c r="C30" t="n">
-        <v>152.3</v>
+        <v>156</v>
       </c>
       <c r="D30" t="n">
-        <v>152.3</v>
+        <v>156</v>
       </c>
       <c r="E30" t="n">
-        <v>152.3</v>
+        <v>156</v>
       </c>
       <c r="F30" t="n">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>157.05</v>
+        <v>157.1950000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>153.1</v>
+        <v>152.3</v>
       </c>
       <c r="C31" t="n">
-        <v>153.1</v>
+        <v>152.3</v>
       </c>
       <c r="D31" t="n">
-        <v>153.1</v>
+        <v>152.3</v>
       </c>
       <c r="E31" t="n">
-        <v>153.1</v>
+        <v>152.3</v>
       </c>
       <c r="F31" t="n">
-        <v>1370.1263</v>
+        <v>1500</v>
       </c>
       <c r="G31" t="n">
-        <v>156.935</v>
+        <v>157.05</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>154</v>
+        <v>153.1</v>
       </c>
       <c r="C32" t="n">
-        <v>155.9</v>
+        <v>153.1</v>
       </c>
       <c r="D32" t="n">
-        <v>155.9</v>
+        <v>153.1</v>
       </c>
       <c r="E32" t="n">
-        <v>154</v>
+        <v>153.1</v>
       </c>
       <c r="F32" t="n">
-        <v>702.558</v>
+        <v>1370.1263</v>
       </c>
       <c r="G32" t="n">
-        <v>156.8833333333334</v>
+        <v>156.935</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>155.9</v>
+        <v>154</v>
       </c>
       <c r="C33" t="n">
         <v>155.9</v>
@@ -1530,10 +1530,10 @@
         <v>154</v>
       </c>
       <c r="F33" t="n">
-        <v>1524.08</v>
+        <v>702.558</v>
       </c>
       <c r="G33" t="n">
-        <v>156.7983333333333</v>
+        <v>156.8833333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>156</v>
+        <v>155.9</v>
       </c>
       <c r="C34" t="n">
-        <v>156</v>
+        <v>155.9</v>
       </c>
       <c r="D34" t="n">
-        <v>156</v>
+        <v>155.9</v>
       </c>
       <c r="E34" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F34" t="n">
-        <v>38.46153846153846</v>
+        <v>1524.08</v>
       </c>
       <c r="G34" t="n">
-        <v>156.73</v>
+        <v>156.7983333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>154.1</v>
+        <v>156</v>
       </c>
       <c r="C35" t="n">
-        <v>154.1</v>
+        <v>156</v>
       </c>
       <c r="D35" t="n">
-        <v>154.1</v>
+        <v>156</v>
       </c>
       <c r="E35" t="n">
-        <v>154.1</v>
+        <v>156</v>
       </c>
       <c r="F35" t="n">
-        <v>505.332</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="G35" t="n">
-        <v>156.6133333333333</v>
+        <v>156.73</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>154.1</v>
       </c>
       <c r="C36" t="n">
-        <v>155</v>
+        <v>154.1</v>
       </c>
       <c r="D36" t="n">
-        <v>155</v>
+        <v>154.1</v>
       </c>
       <c r="E36" t="n">
-        <v>151</v>
+        <v>154.1</v>
       </c>
       <c r="F36" t="n">
-        <v>8453.808800000001</v>
+        <v>505.332</v>
       </c>
       <c r="G36" t="n">
-        <v>156.4933333333333</v>
+        <v>156.6133333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>155</v>
+        <v>154.1</v>
       </c>
       <c r="C37" t="n">
         <v>155</v>
@@ -1667,13 +1667,13 @@
         <v>155</v>
       </c>
       <c r="E37" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F37" t="n">
-        <v>1663</v>
+        <v>8453.808800000001</v>
       </c>
       <c r="G37" t="n">
-        <v>156.375</v>
+        <v>156.4933333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C38" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D38" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E38" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F38" t="n">
-        <v>1575.4606</v>
+        <v>1663</v>
       </c>
       <c r="G38" t="n">
-        <v>156.2233333333333</v>
+        <v>156.375</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>151.1</v>
+        <v>153</v>
       </c>
       <c r="C39" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D39" t="n">
-        <v>151.1</v>
+        <v>153</v>
       </c>
       <c r="E39" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F39" t="n">
-        <v>2970.2376</v>
+        <v>1575.4606</v>
       </c>
       <c r="G39" t="n">
-        <v>155.9883333333333</v>
+        <v>156.2233333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>152</v>
+        <v>151.1</v>
       </c>
       <c r="C40" t="n">
         <v>147</v>
       </c>
       <c r="D40" t="n">
-        <v>152</v>
+        <v>151.1</v>
       </c>
       <c r="E40" t="n">
         <v>147</v>
       </c>
       <c r="F40" t="n">
-        <v>5337.1564</v>
+        <v>2970.2376</v>
       </c>
       <c r="G40" t="n">
-        <v>155.7683333333333</v>
+        <v>155.9883333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>148.1</v>
+        <v>152</v>
       </c>
       <c r="C41" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="D41" t="n">
-        <v>148.1</v>
+        <v>152</v>
       </c>
       <c r="E41" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="F41" t="n">
-        <v>1083.9945</v>
+        <v>5337.1564</v>
       </c>
       <c r="G41" t="n">
-        <v>155.5816666666666</v>
+        <v>155.7683333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>148.1</v>
       </c>
       <c r="F42" t="n">
-        <v>576.6618999999999</v>
+        <v>1083.9945</v>
       </c>
       <c r="G42" t="n">
-        <v>155.3833333333333</v>
+        <v>155.5816666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>148.1</v>
       </c>
       <c r="C43" t="n">
-        <v>148</v>
+        <v>148.1</v>
       </c>
       <c r="D43" t="n">
         <v>148.1</v>
       </c>
       <c r="E43" t="n">
-        <v>148</v>
+        <v>148.1</v>
       </c>
       <c r="F43" t="n">
-        <v>3026.8479</v>
+        <v>576.6618999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>155.1833333333333</v>
+        <v>155.3833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>152</v>
+        <v>148.1</v>
       </c>
       <c r="C44" t="n">
-        <v>153.4</v>
+        <v>148</v>
       </c>
       <c r="D44" t="n">
-        <v>153.4</v>
+        <v>148.1</v>
       </c>
       <c r="E44" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F44" t="n">
-        <v>1978.207</v>
+        <v>3026.8479</v>
       </c>
       <c r="G44" t="n">
-        <v>155.0733333333333</v>
+        <v>155.1833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>153.4</v>
+        <v>152</v>
       </c>
       <c r="C45" t="n">
         <v>153.4</v>
@@ -1947,13 +1947,13 @@
         <v>153.4</v>
       </c>
       <c r="E45" t="n">
-        <v>153.4</v>
+        <v>152</v>
       </c>
       <c r="F45" t="n">
-        <v>511.1113</v>
+        <v>1978.207</v>
       </c>
       <c r="G45" t="n">
-        <v>154.9633333333333</v>
+        <v>155.0733333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>153.4</v>
       </c>
       <c r="F46" t="n">
-        <v>4082.2381</v>
+        <v>511.1113</v>
       </c>
       <c r="G46" t="n">
-        <v>154.8666666666666</v>
+        <v>154.9633333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>155</v>
+        <v>153.4</v>
       </c>
       <c r="C47" t="n">
-        <v>155</v>
+        <v>153.4</v>
       </c>
       <c r="D47" t="n">
-        <v>155</v>
+        <v>153.4</v>
       </c>
       <c r="E47" t="n">
-        <v>155</v>
+        <v>153.4</v>
       </c>
       <c r="F47" t="n">
-        <v>3.252</v>
+        <v>4082.2381</v>
       </c>
       <c r="G47" t="n">
-        <v>154.8</v>
+        <v>154.8666666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>152.1</v>
+        <v>155</v>
       </c>
       <c r="C48" t="n">
-        <v>156.8</v>
+        <v>155</v>
       </c>
       <c r="D48" t="n">
-        <v>156.8</v>
+        <v>155</v>
       </c>
       <c r="E48" t="n">
-        <v>151.3</v>
+        <v>155</v>
       </c>
       <c r="F48" t="n">
-        <v>28170.2101</v>
+        <v>3.252</v>
       </c>
       <c r="G48" t="n">
-        <v>154.765</v>
+        <v>154.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="C49" t="n">
         <v>156.8</v>
       </c>
-      <c r="C49" t="n">
-        <v>158</v>
-      </c>
       <c r="D49" t="n">
-        <v>158</v>
+        <v>156.8</v>
       </c>
       <c r="E49" t="n">
-        <v>156.8</v>
+        <v>151.3</v>
       </c>
       <c r="F49" t="n">
-        <v>2615</v>
+        <v>28170.2101</v>
       </c>
       <c r="G49" t="n">
-        <v>154.8966666666666</v>
+        <v>154.765</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>153.3</v>
+        <v>156.8</v>
       </c>
       <c r="C50" t="n">
-        <v>153.3</v>
+        <v>158</v>
       </c>
       <c r="D50" t="n">
-        <v>153.3</v>
+        <v>158</v>
       </c>
       <c r="E50" t="n">
-        <v>153.3</v>
+        <v>156.8</v>
       </c>
       <c r="F50" t="n">
-        <v>179.228</v>
+        <v>2615</v>
       </c>
       <c r="G50" t="n">
-        <v>154.83</v>
+        <v>154.8966666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>154</v>
+        <v>153.3</v>
       </c>
       <c r="C51" t="n">
-        <v>154</v>
+        <v>153.3</v>
       </c>
       <c r="D51" t="n">
-        <v>154</v>
+        <v>153.3</v>
       </c>
       <c r="E51" t="n">
-        <v>154</v>
+        <v>153.3</v>
       </c>
       <c r="F51" t="n">
-        <v>468.2404</v>
+        <v>179.228</v>
       </c>
       <c r="G51" t="n">
-        <v>154.79</v>
+        <v>154.83</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>154.1</v>
+        <v>154</v>
       </c>
       <c r="C52" t="n">
-        <v>154.1</v>
+        <v>154</v>
       </c>
       <c r="D52" t="n">
-        <v>154.1</v>
+        <v>154</v>
       </c>
       <c r="E52" t="n">
-        <v>154.1</v>
+        <v>154</v>
       </c>
       <c r="F52" t="n">
-        <v>517</v>
+        <v>468.2404</v>
       </c>
       <c r="G52" t="n">
-        <v>154.825</v>
+        <v>154.79</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>153</v>
+        <v>154.1</v>
       </c>
       <c r="C53" t="n">
-        <v>153</v>
+        <v>154.1</v>
       </c>
       <c r="D53" t="n">
-        <v>153</v>
+        <v>154.1</v>
       </c>
       <c r="E53" t="n">
-        <v>153</v>
+        <v>154.1</v>
       </c>
       <c r="F53" t="n">
-        <v>468.24</v>
+        <v>517</v>
       </c>
       <c r="G53" t="n">
-        <v>154.73</v>
+        <v>154.825</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" t="n">
-        <v>153.5</v>
+        <v>153</v>
       </c>
       <c r="D54" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E54" t="n">
-        <v>153.5</v>
+        <v>153</v>
       </c>
       <c r="F54" t="n">
-        <v>2492.3185</v>
+        <v>468.24</v>
       </c>
       <c r="G54" t="n">
-        <v>154.665</v>
+        <v>154.73</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>153.3</v>
+        <v>154</v>
       </c>
       <c r="C55" t="n">
-        <v>153.1</v>
+        <v>153.5</v>
       </c>
       <c r="D55" t="n">
-        <v>153.3</v>
+        <v>155</v>
       </c>
       <c r="E55" t="n">
-        <v>153.1</v>
+        <v>153.5</v>
       </c>
       <c r="F55" t="n">
-        <v>517</v>
+        <v>2492.3185</v>
       </c>
       <c r="G55" t="n">
-        <v>154.575</v>
+        <v>154.665</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>147.1</v>
+        <v>153.3</v>
       </c>
       <c r="C56" t="n">
-        <v>147.1</v>
+        <v>153.1</v>
       </c>
       <c r="D56" t="n">
-        <v>147.1</v>
+        <v>153.3</v>
       </c>
       <c r="E56" t="n">
-        <v>147.1</v>
+        <v>153.1</v>
       </c>
       <c r="F56" t="n">
-        <v>19.7842</v>
+        <v>517</v>
       </c>
       <c r="G56" t="n">
-        <v>154.3483333333333</v>
+        <v>154.575</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>155.9</v>
+        <v>147.1</v>
       </c>
       <c r="C57" t="n">
-        <v>155.9</v>
+        <v>147.1</v>
       </c>
       <c r="D57" t="n">
-        <v>155.9</v>
+        <v>147.1</v>
       </c>
       <c r="E57" t="n">
-        <v>155.9</v>
+        <v>147.1</v>
       </c>
       <c r="F57" t="n">
-        <v>13979.9393</v>
+        <v>19.7842</v>
       </c>
       <c r="G57" t="n">
-        <v>154.165</v>
+        <v>154.3483333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>154.9</v>
+        <v>155.9</v>
       </c>
       <c r="C58" t="n">
-        <v>155</v>
+        <v>155.9</v>
       </c>
       <c r="D58" t="n">
-        <v>155</v>
+        <v>155.9</v>
       </c>
       <c r="E58" t="n">
-        <v>154.9</v>
+        <v>155.9</v>
       </c>
       <c r="F58" t="n">
-        <v>2000</v>
+        <v>13979.9393</v>
       </c>
       <c r="G58" t="n">
-        <v>154.0983333333333</v>
+        <v>154.165</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>155</v>
+        <v>154.9</v>
       </c>
       <c r="C59" t="n">
         <v>155</v>
@@ -2437,13 +2437,13 @@
         <v>155</v>
       </c>
       <c r="E59" t="n">
-        <v>155</v>
+        <v>154.9</v>
       </c>
       <c r="F59" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="n">
-        <v>154.0483333333333</v>
+        <v>154.0983333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>155.1</v>
+        <v>155</v>
       </c>
       <c r="C60" t="n">
-        <v>155.1</v>
+        <v>155</v>
       </c>
       <c r="D60" t="n">
-        <v>155.1</v>
+        <v>155</v>
       </c>
       <c r="E60" t="n">
-        <v>155.1</v>
+        <v>155</v>
       </c>
       <c r="F60" t="n">
-        <v>154.1648</v>
+        <v>500</v>
       </c>
       <c r="G60" t="n">
-        <v>154</v>
+        <v>154.0483333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>157</v>
+        <v>155.1</v>
       </c>
       <c r="C61" t="n">
-        <v>157</v>
+        <v>155.1</v>
       </c>
       <c r="D61" t="n">
-        <v>157</v>
+        <v>155.1</v>
       </c>
       <c r="E61" t="n">
-        <v>157</v>
+        <v>155.1</v>
       </c>
       <c r="F61" t="n">
-        <v>3.321</v>
+        <v>154.1648</v>
       </c>
       <c r="G61" t="n">
-        <v>153.9833333333333</v>
+        <v>154</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>157</v>
       </c>
       <c r="F62" t="n">
-        <v>4.152</v>
+        <v>3.321</v>
       </c>
       <c r="G62" t="n">
-        <v>153.98</v>
+        <v>153.9833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>156.8</v>
+        <v>157</v>
       </c>
       <c r="C63" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F63" t="n">
-        <v>750</v>
+        <v>4.152</v>
       </c>
       <c r="G63" t="n">
-        <v>153.9933333333333</v>
+        <v>153.98</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>158</v>
+        <v>156.8</v>
       </c>
       <c r="C64" t="n">
         <v>158</v>
@@ -2612,13 +2612,13 @@
         <v>158</v>
       </c>
       <c r="E64" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F64" t="n">
-        <v>1019.0541</v>
+        <v>750</v>
       </c>
       <c r="G64" t="n">
-        <v>154.0066666666666</v>
+        <v>153.9933333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>158</v>
       </c>
       <c r="F65" t="n">
-        <v>1028.0174</v>
+        <v>1019.0541</v>
       </c>
       <c r="G65" t="n">
-        <v>154.0383333333333</v>
+        <v>154.0066666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>158</v>
       </c>
       <c r="E66" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F66" t="n">
-        <v>1303.0596</v>
+        <v>1028.0174</v>
       </c>
       <c r="G66" t="n">
-        <v>154.0699999999999</v>
+        <v>154.0383333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>158</v>
       </c>
       <c r="C67" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D67" t="n">
         <v>158</v>
@@ -2720,10 +2720,10 @@
         <v>157</v>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>1303.0596</v>
       </c>
       <c r="G67" t="n">
-        <v>154.0849999999999</v>
+        <v>154.0699999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C68" t="n">
         <v>157</v>
       </c>
       <c r="D68" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E68" t="n">
         <v>157</v>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G68" t="n">
-        <v>154.0683333333332</v>
+        <v>154.0849999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C69" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D69" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E69" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F69" t="n">
-        <v>328.239</v>
+        <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>154.0849999999999</v>
+        <v>154.0683333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,10 +2813,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>159</v>
+      </c>
+      <c r="C70" t="n">
         <v>158</v>
-      </c>
-      <c r="C70" t="n">
-        <v>159</v>
       </c>
       <c r="D70" t="n">
         <v>159</v>
@@ -2825,10 +2825,10 @@
         <v>158</v>
       </c>
       <c r="F70" t="n">
-        <v>513.8171</v>
+        <v>328.239</v>
       </c>
       <c r="G70" t="n">
-        <v>154.1199999999999</v>
+        <v>154.0849999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C71" t="n">
-        <v>159.1</v>
+        <v>159</v>
       </c>
       <c r="D71" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E71" t="n">
-        <v>159.1</v>
+        <v>158</v>
       </c>
       <c r="F71" t="n">
-        <v>750</v>
+        <v>513.8171</v>
       </c>
       <c r="G71" t="n">
-        <v>154.2533333333332</v>
+        <v>154.1199999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>162.9</v>
+        <v>160</v>
       </c>
       <c r="C72" t="n">
-        <v>159</v>
+        <v>159.1</v>
       </c>
       <c r="D72" t="n">
-        <v>162.9</v>
+        <v>160</v>
       </c>
       <c r="E72" t="n">
-        <v>159</v>
+        <v>159.1</v>
       </c>
       <c r="F72" t="n">
-        <v>16045.773</v>
+        <v>750</v>
       </c>
       <c r="G72" t="n">
-        <v>154.3533333333333</v>
+        <v>154.2533333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>162.9</v>
       </c>
       <c r="C73" t="n">
-        <v>162.9</v>
+        <v>159</v>
       </c>
       <c r="D73" t="n">
         <v>162.9</v>
       </c>
       <c r="E73" t="n">
-        <v>162.9</v>
+        <v>159</v>
       </c>
       <c r="F73" t="n">
-        <v>181.345</v>
+        <v>16045.773</v>
       </c>
       <c r="G73" t="n">
-        <v>154.5016666666666</v>
+        <v>154.3533333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>160</v>
+        <v>162.9</v>
       </c>
       <c r="C74" t="n">
-        <v>162</v>
+        <v>162.9</v>
       </c>
       <c r="D74" t="n">
-        <v>162</v>
+        <v>162.9</v>
       </c>
       <c r="E74" t="n">
-        <v>160</v>
+        <v>162.9</v>
       </c>
       <c r="F74" t="n">
-        <v>2300.9392</v>
+        <v>181.345</v>
       </c>
       <c r="G74" t="n">
-        <v>154.6466666666666</v>
+        <v>154.5016666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,28 +2988,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>160</v>
+      </c>
+      <c r="C75" t="n">
         <v>162</v>
       </c>
-      <c r="C75" t="n">
-        <v>162.9</v>
-      </c>
       <c r="D75" t="n">
-        <v>162.9</v>
+        <v>162</v>
       </c>
       <c r="E75" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F75" t="n">
-        <v>1344.0238</v>
+        <v>2300.9392</v>
       </c>
       <c r="G75" t="n">
-        <v>154.7816666666666</v>
+        <v>154.6466666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3026,19 +3026,19 @@
         <v>162</v>
       </c>
       <c r="C76" t="n">
-        <v>159</v>
+        <v>162.9</v>
       </c>
       <c r="D76" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="E76" t="n">
         <v>162</v>
       </c>
-      <c r="E76" t="n">
-        <v>159</v>
-      </c>
       <c r="F76" t="n">
-        <v>4262.5119</v>
+        <v>1344.0238</v>
       </c>
       <c r="G76" t="n">
-        <v>154.8516666666666</v>
+        <v>154.7816666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C77" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E77" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F77" t="n">
-        <v>360.9067</v>
+        <v>4262.5119</v>
       </c>
       <c r="G77" t="n">
-        <v>154.9633333333333</v>
+        <v>154.8516666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,28 +3093,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" t="n">
-        <v>161.9</v>
+        <v>160</v>
       </c>
       <c r="D78" t="n">
-        <v>161.9</v>
+        <v>160</v>
       </c>
       <c r="E78" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F78" t="n">
-        <v>1718.3994</v>
+        <v>360.9067</v>
       </c>
       <c r="G78" t="n">
-        <v>155.1066666666666</v>
+        <v>154.9633333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" t="n">
-        <v>162</v>
+        <v>161.9</v>
       </c>
       <c r="D79" t="n">
-        <v>162</v>
+        <v>161.9</v>
       </c>
       <c r="E79" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F79" t="n">
-        <v>3.181</v>
+        <v>1718.3994</v>
       </c>
       <c r="G79" t="n">
-        <v>155.24</v>
+        <v>155.1066666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,16 +3175,16 @@
         <v>162</v>
       </c>
       <c r="F80" t="n">
-        <v>133.5313</v>
+        <v>3.181</v>
       </c>
       <c r="G80" t="n">
-        <v>155.3733333333333</v>
+        <v>155.24</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>163.9</v>
+        <v>162</v>
       </c>
       <c r="C81" t="n">
-        <v>163.1</v>
+        <v>162</v>
       </c>
       <c r="D81" t="n">
-        <v>163.9</v>
+        <v>162</v>
       </c>
       <c r="E81" t="n">
         <v>162</v>
       </c>
       <c r="F81" t="n">
-        <v>18223.9614</v>
+        <v>133.5313</v>
       </c>
       <c r="G81" t="n">
-        <v>155.5416666666666</v>
+        <v>155.3733333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>162.2</v>
+        <v>163.9</v>
       </c>
       <c r="C82" t="n">
-        <v>162.1</v>
+        <v>163.1</v>
       </c>
       <c r="D82" t="n">
-        <v>167.8</v>
+        <v>163.9</v>
       </c>
       <c r="E82" t="n">
-        <v>162.1</v>
+        <v>162</v>
       </c>
       <c r="F82" t="n">
-        <v>17686.54921515151</v>
+        <v>18223.9614</v>
       </c>
       <c r="G82" t="n">
-        <v>155.6616666666667</v>
+        <v>155.5416666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>164.9</v>
+        <v>162.2</v>
       </c>
       <c r="C83" t="n">
-        <v>163.1</v>
+        <v>162.1</v>
       </c>
       <c r="D83" t="n">
         <v>167.8</v>
       </c>
       <c r="E83" t="n">
-        <v>163.1</v>
+        <v>162.1</v>
       </c>
       <c r="F83" t="n">
-        <v>2568.077115256257</v>
+        <v>17686.54921515151</v>
       </c>
       <c r="G83" t="n">
-        <v>155.7983333333333</v>
+        <v>155.6616666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,28 +3303,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>163.1</v>
+        <v>164.9</v>
       </c>
       <c r="C84" t="n">
         <v>163.1</v>
       </c>
       <c r="D84" t="n">
-        <v>163.1</v>
+        <v>167.8</v>
       </c>
       <c r="E84" t="n">
         <v>163.1</v>
       </c>
       <c r="F84" t="n">
-        <v>154.4332</v>
+        <v>2568.077115256257</v>
       </c>
       <c r="G84" t="n">
-        <v>155.9183333333334</v>
+        <v>155.7983333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>165.6</v>
+        <v>163.1</v>
       </c>
       <c r="C85" t="n">
-        <v>164.6</v>
+        <v>163.1</v>
       </c>
       <c r="D85" t="n">
-        <v>165.6</v>
+        <v>163.1</v>
       </c>
       <c r="E85" t="n">
-        <v>164.6</v>
+        <v>163.1</v>
       </c>
       <c r="F85" t="n">
-        <v>580.8295000000001</v>
+        <v>154.4332</v>
       </c>
       <c r="G85" t="n">
-        <v>156.095</v>
+        <v>155.9183333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,28 +3373,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>164.5</v>
+        <v>165.6</v>
       </c>
       <c r="C86" t="n">
-        <v>163.1</v>
+        <v>164.6</v>
       </c>
       <c r="D86" t="n">
-        <v>165</v>
+        <v>165.6</v>
       </c>
       <c r="E86" t="n">
-        <v>163.1</v>
+        <v>164.6</v>
       </c>
       <c r="F86" t="n">
-        <v>9759.2937</v>
+        <v>580.8295000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>156.2616666666667</v>
+        <v>156.095</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>164</v>
+        <v>164.5</v>
       </c>
       <c r="C87" t="n">
         <v>163.1</v>
       </c>
       <c r="D87" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E87" t="n">
         <v>163.1</v>
       </c>
       <c r="F87" t="n">
-        <v>302.8728</v>
+        <v>9759.2937</v>
       </c>
       <c r="G87" t="n">
-        <v>156.43</v>
+        <v>156.2616666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>162.3</v>
+        <v>164</v>
       </c>
       <c r="C88" t="n">
-        <v>162.3</v>
+        <v>163.1</v>
       </c>
       <c r="D88" t="n">
-        <v>162.3</v>
+        <v>164</v>
       </c>
       <c r="E88" t="n">
-        <v>162.3</v>
+        <v>163.1</v>
       </c>
       <c r="F88" t="n">
-        <v>283.0708</v>
+        <v>302.8728</v>
       </c>
       <c r="G88" t="n">
-        <v>156.5983333333333</v>
+        <v>156.43</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3481,19 @@
         <v>162.3</v>
       </c>
       <c r="C89" t="n">
-        <v>162</v>
+        <v>162.3</v>
       </c>
       <c r="D89" t="n">
         <v>162.3</v>
       </c>
       <c r="E89" t="n">
-        <v>162</v>
+        <v>162.3</v>
       </c>
       <c r="F89" t="n">
-        <v>24836.4732</v>
+        <v>283.0708</v>
       </c>
       <c r="G89" t="n">
-        <v>156.6983333333333</v>
+        <v>156.5983333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>163.9</v>
+        <v>162.3</v>
       </c>
       <c r="C90" t="n">
-        <v>163.9</v>
+        <v>162</v>
       </c>
       <c r="D90" t="n">
-        <v>163.9</v>
+        <v>162.3</v>
       </c>
       <c r="E90" t="n">
-        <v>163.9</v>
+        <v>162</v>
       </c>
       <c r="F90" t="n">
-        <v>183.6997</v>
+        <v>24836.4732</v>
       </c>
       <c r="G90" t="n">
-        <v>156.8916666666667</v>
+        <v>156.6983333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>163.9</v>
       </c>
       <c r="C91" t="n">
-        <v>162</v>
+        <v>163.9</v>
       </c>
       <c r="D91" t="n">
-        <v>164</v>
+        <v>163.9</v>
       </c>
       <c r="E91" t="n">
-        <v>162</v>
+        <v>163.9</v>
       </c>
       <c r="F91" t="n">
-        <v>3462.5554</v>
+        <v>183.6997</v>
       </c>
       <c r="G91" t="n">
-        <v>157.04</v>
+        <v>156.8916666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="C92" t="n">
         <v>162</v>
       </c>
-      <c r="C92" t="n">
-        <v>161</v>
-      </c>
       <c r="D92" t="n">
+        <v>164</v>
+      </c>
+      <c r="E92" t="n">
         <v>162</v>
       </c>
-      <c r="E92" t="n">
-        <v>161</v>
-      </c>
       <c r="F92" t="n">
-        <v>1515.1515</v>
+        <v>3462.5554</v>
       </c>
       <c r="G92" t="n">
-        <v>157.125</v>
+        <v>157.04</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,28 +3618,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>161.8</v>
+        <v>162</v>
       </c>
       <c r="C93" t="n">
-        <v>161.8</v>
+        <v>161</v>
       </c>
       <c r="D93" t="n">
-        <v>161.8</v>
+        <v>162</v>
       </c>
       <c r="E93" t="n">
-        <v>161.8</v>
+        <v>161</v>
       </c>
       <c r="F93" t="n">
-        <v>3.129</v>
+        <v>1515.1515</v>
       </c>
       <c r="G93" t="n">
-        <v>157.2233333333333</v>
+        <v>157.125</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3665,10 +3665,10 @@
         <v>161.8</v>
       </c>
       <c r="F94" t="n">
-        <v>1585.1925</v>
+        <v>3.129</v>
       </c>
       <c r="G94" t="n">
-        <v>157.32</v>
+        <v>157.2233333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>161.8</v>
       </c>
       <c r="C95" t="n">
-        <v>161.2</v>
+        <v>161.8</v>
       </c>
       <c r="D95" t="n">
         <v>161.8</v>
       </c>
       <c r="E95" t="n">
-        <v>161.2</v>
+        <v>161.8</v>
       </c>
       <c r="F95" t="n">
-        <v>7913.7639</v>
+        <v>1585.1925</v>
       </c>
       <c r="G95" t="n">
-        <v>157.4383333333333</v>
+        <v>157.32</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>163</v>
+        <v>161.8</v>
       </c>
       <c r="C96" t="n">
-        <v>163</v>
+        <v>161.2</v>
       </c>
       <c r="D96" t="n">
-        <v>163</v>
+        <v>161.8</v>
       </c>
       <c r="E96" t="n">
-        <v>163</v>
+        <v>161.2</v>
       </c>
       <c r="F96" t="n">
-        <v>1713.5026</v>
+        <v>7913.7639</v>
       </c>
       <c r="G96" t="n">
-        <v>157.5716666666667</v>
+        <v>157.4383333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C97" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D97" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E97" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F97" t="n">
-        <v>495.8653</v>
+        <v>1713.5026</v>
       </c>
       <c r="G97" t="n">
-        <v>157.6883333333333</v>
+        <v>157.5716666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C98" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D98" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E98" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F98" t="n">
-        <v>5706.0917</v>
+        <v>495.8653</v>
       </c>
       <c r="G98" t="n">
-        <v>157.8216666666667</v>
+        <v>157.6883333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>150.8</v>
+        <v>161</v>
       </c>
       <c r="C99" t="n">
-        <v>150.8</v>
+        <v>161</v>
       </c>
       <c r="D99" t="n">
-        <v>150.8</v>
+        <v>161</v>
       </c>
       <c r="E99" t="n">
-        <v>150.8</v>
+        <v>161</v>
       </c>
       <c r="F99" t="n">
-        <v>206.7203</v>
+        <v>5706.0917</v>
       </c>
       <c r="G99" t="n">
-        <v>157.885</v>
+        <v>157.8216666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>161</v>
+        <v>150.8</v>
       </c>
       <c r="C100" t="n">
-        <v>161</v>
+        <v>150.8</v>
       </c>
       <c r="D100" t="n">
-        <v>161</v>
+        <v>150.8</v>
       </c>
       <c r="E100" t="n">
-        <v>161</v>
+        <v>150.8</v>
       </c>
       <c r="F100" t="n">
-        <v>489.817</v>
+        <v>206.7203</v>
       </c>
       <c r="G100" t="n">
-        <v>158.1183333333333</v>
+        <v>157.885</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>156.8</v>
+        <v>161</v>
       </c>
       <c r="C101" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D101" t="n">
-        <v>167.3</v>
+        <v>161</v>
       </c>
       <c r="E101" t="n">
-        <v>156.7</v>
+        <v>161</v>
       </c>
       <c r="F101" t="n">
-        <v>35781.7314</v>
+        <v>489.817</v>
       </c>
       <c r="G101" t="n">
-        <v>158.2666666666666</v>
+        <v>158.1183333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>158.2</v>
+        <v>156.8</v>
       </c>
       <c r="C102" t="n">
-        <v>158.9</v>
+        <v>157</v>
       </c>
       <c r="D102" t="n">
-        <v>161</v>
+        <v>167.3</v>
       </c>
       <c r="E102" t="n">
-        <v>155.6</v>
+        <v>156.7</v>
       </c>
       <c r="F102" t="n">
-        <v>5485.2874</v>
+        <v>35781.7314</v>
       </c>
       <c r="G102" t="n">
-        <v>158.4466666666666</v>
+        <v>158.2666666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>158</v>
+        <v>158.2</v>
       </c>
       <c r="C103" t="n">
-        <v>158</v>
+        <v>158.9</v>
       </c>
       <c r="D103" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E103" t="n">
-        <v>158</v>
+        <v>155.6</v>
       </c>
       <c r="F103" t="n">
-        <v>444</v>
+        <v>5485.2874</v>
       </c>
       <c r="G103" t="n">
-        <v>158.6133333333333</v>
+        <v>158.4466666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>158.9</v>
+        <v>158</v>
       </c>
       <c r="C104" t="n">
-        <v>156.8</v>
+        <v>158</v>
       </c>
       <c r="D104" t="n">
-        <v>159.2</v>
+        <v>158</v>
       </c>
       <c r="E104" t="n">
-        <v>156.8</v>
+        <v>158</v>
       </c>
       <c r="F104" t="n">
-        <v>4371.0897</v>
+        <v>444</v>
       </c>
       <c r="G104" t="n">
-        <v>158.67</v>
+        <v>158.6133333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>157.2</v>
+        <v>158.9</v>
       </c>
       <c r="C105" t="n">
-        <v>157.2</v>
+        <v>156.8</v>
       </c>
       <c r="D105" t="n">
-        <v>157.2</v>
+        <v>159.2</v>
       </c>
       <c r="E105" t="n">
-        <v>157.2</v>
+        <v>156.8</v>
       </c>
       <c r="F105" t="n">
-        <v>1713.5026</v>
+        <v>4371.0897</v>
       </c>
       <c r="G105" t="n">
-        <v>158.7333333333333</v>
+        <v>158.67</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>158</v>
+        <v>157.2</v>
       </c>
       <c r="C106" t="n">
-        <v>158</v>
+        <v>157.2</v>
       </c>
       <c r="D106" t="n">
-        <v>158</v>
+        <v>157.2</v>
       </c>
       <c r="E106" t="n">
-        <v>158</v>
+        <v>157.2</v>
       </c>
       <c r="F106" t="n">
-        <v>2131</v>
+        <v>1713.5026</v>
       </c>
       <c r="G106" t="n">
-        <v>158.81</v>
+        <v>158.7333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>157.2</v>
+        <v>158</v>
       </c>
       <c r="C107" t="n">
         <v>158</v>
@@ -4117,13 +4117,13 @@
         <v>158</v>
       </c>
       <c r="E107" t="n">
-        <v>157.2</v>
+        <v>158</v>
       </c>
       <c r="F107" t="n">
-        <v>748.2258</v>
+        <v>2131</v>
       </c>
       <c r="G107" t="n">
-        <v>158.86</v>
+        <v>158.81</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>157</v>
+        <v>157.2</v>
       </c>
       <c r="C108" t="n">
-        <v>157.9</v>
+        <v>158</v>
       </c>
       <c r="D108" t="n">
-        <v>157.9</v>
+        <v>158</v>
       </c>
       <c r="E108" t="n">
-        <v>157</v>
+        <v>157.2</v>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>748.2258</v>
       </c>
       <c r="G108" t="n">
-        <v>158.8783333333333</v>
+        <v>158.86</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>156.5</v>
+        <v>157</v>
       </c>
       <c r="C109" t="n">
-        <v>156.5</v>
+        <v>157.9</v>
       </c>
       <c r="D109" t="n">
-        <v>156.5</v>
+        <v>157.9</v>
       </c>
       <c r="E109" t="n">
-        <v>156.5</v>
+        <v>157</v>
       </c>
       <c r="F109" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="G109" t="n">
-        <v>158.8533333333333</v>
+        <v>158.8783333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>155.5</v>
+        <v>156.5</v>
       </c>
       <c r="C110" t="n">
-        <v>156.4</v>
+        <v>156.5</v>
       </c>
       <c r="D110" t="n">
-        <v>156.4</v>
+        <v>156.5</v>
       </c>
       <c r="E110" t="n">
-        <v>155.5</v>
+        <v>156.5</v>
       </c>
       <c r="F110" t="n">
-        <v>2815.713</v>
+        <v>260</v>
       </c>
       <c r="G110" t="n">
-        <v>158.905</v>
+        <v>158.8533333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>156.2</v>
+        <v>155.5</v>
       </c>
       <c r="C111" t="n">
-        <v>156.2</v>
+        <v>156.4</v>
       </c>
       <c r="D111" t="n">
-        <v>156.2</v>
+        <v>156.4</v>
       </c>
       <c r="E111" t="n">
-        <v>156.2</v>
+        <v>155.5</v>
       </c>
       <c r="F111" t="n">
-        <v>269.0983</v>
+        <v>2815.713</v>
       </c>
       <c r="G111" t="n">
-        <v>158.9416666666667</v>
+        <v>158.905</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>156.2</v>
       </c>
       <c r="F112" t="n">
-        <v>537.921</v>
+        <v>269.0983</v>
       </c>
       <c r="G112" t="n">
-        <v>158.9766666666667</v>
+        <v>158.9416666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4321,19 +4321,19 @@
         <v>156.2</v>
       </c>
       <c r="C113" t="n">
-        <v>156.3</v>
+        <v>156.2</v>
       </c>
       <c r="D113" t="n">
-        <v>156.3</v>
+        <v>156.2</v>
       </c>
       <c r="E113" t="n">
-        <v>155.1</v>
+        <v>156.2</v>
       </c>
       <c r="F113" t="n">
-        <v>9389.397300000001</v>
+        <v>537.921</v>
       </c>
       <c r="G113" t="n">
-        <v>159.0316666666667</v>
+        <v>158.9766666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>154.4</v>
+        <v>156.2</v>
       </c>
       <c r="C114" t="n">
-        <v>154.4</v>
+        <v>156.3</v>
       </c>
       <c r="D114" t="n">
-        <v>154.4</v>
+        <v>156.3</v>
       </c>
       <c r="E114" t="n">
-        <v>154.4</v>
+        <v>155.1</v>
       </c>
       <c r="F114" t="n">
-        <v>4</v>
+        <v>9389.397300000001</v>
       </c>
       <c r="G114" t="n">
-        <v>159.0466666666667</v>
+        <v>159.0316666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,31 +4388,35 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>154.1</v>
+        <v>154.4</v>
       </c>
       <c r="C115" t="n">
-        <v>154.1</v>
+        <v>154.4</v>
       </c>
       <c r="D115" t="n">
-        <v>154.1</v>
+        <v>154.4</v>
       </c>
       <c r="E115" t="n">
-        <v>154.1</v>
+        <v>154.4</v>
       </c>
       <c r="F115" t="n">
-        <v>2035.4724</v>
+        <v>4</v>
       </c>
       <c r="G115" t="n">
-        <v>159.0633333333333</v>
+        <v>159.0466666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="K115" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
@@ -4423,32 +4427,40 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2035.4724</v>
+      </c>
+      <c r="G116" t="n">
+        <v>159.0633333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
         <v>154.4</v>
       </c>
-      <c r="C116" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="D116" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="E116" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1233.9504</v>
-      </c>
-      <c r="G116" t="n">
-        <v>159.1816666666667</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,32 +4470,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>154</v>
+        <v>154.4</v>
       </c>
       <c r="C117" t="n">
-        <v>154</v>
+        <v>154.2</v>
       </c>
       <c r="D117" t="n">
-        <v>154</v>
+        <v>154.4</v>
       </c>
       <c r="E117" t="n">
-        <v>154</v>
+        <v>154.2</v>
       </c>
       <c r="F117" t="n">
-        <v>131.8913</v>
+        <v>1233.9504</v>
       </c>
       <c r="G117" t="n">
-        <v>159.15</v>
+        <v>159.1816666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,32 +4513,40 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>153.9</v>
+        <v>154</v>
       </c>
       <c r="C118" t="n">
-        <v>153.9</v>
+        <v>154</v>
       </c>
       <c r="D118" t="n">
-        <v>153.9</v>
+        <v>154</v>
       </c>
       <c r="E118" t="n">
-        <v>153.9</v>
+        <v>154</v>
       </c>
       <c r="F118" t="n">
-        <v>750</v>
+        <v>131.8913</v>
       </c>
       <c r="G118" t="n">
-        <v>159.1316666666667</v>
+        <v>159.15</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="K118" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +4556,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>154</v>
+        <v>153.9</v>
       </c>
       <c r="C119" t="n">
-        <v>154</v>
+        <v>153.9</v>
       </c>
       <c r="D119" t="n">
-        <v>154</v>
+        <v>153.9</v>
       </c>
       <c r="E119" t="n">
-        <v>152.5</v>
+        <v>153.9</v>
       </c>
       <c r="F119" t="n">
-        <v>260</v>
+        <v>750</v>
       </c>
       <c r="G119" t="n">
-        <v>159.115</v>
+        <v>159.1316666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,8 +4580,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,32 +4597,40 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>152.5</v>
+        <v>154</v>
       </c>
       <c r="C120" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D120" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E120" t="n">
         <v>152.5</v>
       </c>
       <c r="F120" t="n">
-        <v>519.0983</v>
+        <v>260</v>
       </c>
       <c r="G120" t="n">
-        <v>159.08</v>
+        <v>159.115</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="K120" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +4640,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>155.9</v>
+        <v>152.5</v>
       </c>
       <c r="C121" t="n">
-        <v>155.9</v>
+        <v>153</v>
       </c>
       <c r="D121" t="n">
-        <v>155.9</v>
+        <v>153</v>
       </c>
       <c r="E121" t="n">
-        <v>155.9</v>
+        <v>152.5</v>
       </c>
       <c r="F121" t="n">
-        <v>3.218</v>
+        <v>519.0983</v>
       </c>
       <c r="G121" t="n">
-        <v>159.0616666666666</v>
+        <v>159.08</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,8 +4664,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4633,22 +4681,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>153</v>
+        <v>155.9</v>
       </c>
       <c r="C122" t="n">
-        <v>154</v>
+        <v>155.9</v>
       </c>
       <c r="D122" t="n">
-        <v>155.4</v>
+        <v>155.9</v>
       </c>
       <c r="E122" t="n">
-        <v>152</v>
+        <v>155.9</v>
       </c>
       <c r="F122" t="n">
-        <v>19842.3413</v>
+        <v>3.218</v>
       </c>
       <c r="G122" t="n">
-        <v>159.0116666666667</v>
+        <v>159.0616666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,8 +4705,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +4722,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>152.4</v>
+        <v>153</v>
       </c>
       <c r="C123" t="n">
-        <v>156.4</v>
+        <v>154</v>
       </c>
       <c r="D123" t="n">
-        <v>156.4</v>
+        <v>155.4</v>
       </c>
       <c r="E123" t="n">
-        <v>152.3</v>
+        <v>152</v>
       </c>
       <c r="F123" t="n">
-        <v>3542</v>
+        <v>19842.3413</v>
       </c>
       <c r="G123" t="n">
-        <v>158.985</v>
+        <v>159.0116666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,8 +4746,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4763,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>151.5</v>
+        <v>152.4</v>
       </c>
       <c r="C124" t="n">
-        <v>153.4</v>
+        <v>156.4</v>
       </c>
       <c r="D124" t="n">
-        <v>165.6</v>
+        <v>156.4</v>
       </c>
       <c r="E124" t="n">
-        <v>151.2</v>
+        <v>152.3</v>
       </c>
       <c r="F124" t="n">
-        <v>13669.1312</v>
+        <v>3542</v>
       </c>
       <c r="G124" t="n">
-        <v>158.9083333333333</v>
+        <v>158.985</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,8 +4787,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +4804,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>153.4</v>
+        <v>151.5</v>
       </c>
       <c r="C125" t="n">
         <v>153.4</v>
       </c>
       <c r="D125" t="n">
-        <v>153.4</v>
+        <v>165.6</v>
       </c>
       <c r="E125" t="n">
-        <v>153.4</v>
+        <v>151.2</v>
       </c>
       <c r="F125" t="n">
-        <v>1961.9949</v>
+        <v>13669.1312</v>
       </c>
       <c r="G125" t="n">
-        <v>158.8316666666666</v>
+        <v>158.9083333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,8 +4828,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4773,22 +4845,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>151.5</v>
+        <v>153.4</v>
       </c>
       <c r="C126" t="n">
-        <v>151.5</v>
+        <v>153.4</v>
       </c>
       <c r="D126" t="n">
-        <v>151.5</v>
+        <v>153.4</v>
       </c>
       <c r="E126" t="n">
-        <v>151.5</v>
+        <v>153.4</v>
       </c>
       <c r="F126" t="n">
-        <v>191.0293</v>
+        <v>1961.9949</v>
       </c>
       <c r="G126" t="n">
-        <v>158.7233333333333</v>
+        <v>158.8316666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,8 +4869,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4808,22 +4886,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="C127" t="n">
-        <v>153.2</v>
+        <v>151.5</v>
       </c>
       <c r="D127" t="n">
-        <v>153.2</v>
+        <v>151.5</v>
       </c>
       <c r="E127" t="n">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="F127" t="n">
-        <v>1089.021</v>
+        <v>191.0293</v>
       </c>
       <c r="G127" t="n">
-        <v>158.66</v>
+        <v>158.7233333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,8 +4910,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4843,22 +4927,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>152.5</v>
+        <v>152</v>
       </c>
       <c r="C128" t="n">
-        <v>152.5</v>
+        <v>153.2</v>
       </c>
       <c r="D128" t="n">
-        <v>152.5</v>
+        <v>153.2</v>
       </c>
       <c r="E128" t="n">
-        <v>152.5</v>
+        <v>152</v>
       </c>
       <c r="F128" t="n">
-        <v>1500</v>
+        <v>1089.021</v>
       </c>
       <c r="G128" t="n">
-        <v>158.585</v>
+        <v>158.66</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,8 +4951,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4878,22 +4968,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>150</v>
+        <v>152.5</v>
       </c>
       <c r="C129" t="n">
-        <v>152.9</v>
+        <v>152.5</v>
       </c>
       <c r="D129" t="n">
-        <v>152.9</v>
+        <v>152.5</v>
       </c>
       <c r="E129" t="n">
-        <v>150</v>
+        <v>152.5</v>
       </c>
       <c r="F129" t="n">
-        <v>875.1136</v>
+        <v>1500</v>
       </c>
       <c r="G129" t="n">
-        <v>158.5</v>
+        <v>158.585</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,8 +4992,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4913,22 +5009,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>149.1</v>
+        <v>150</v>
       </c>
       <c r="C130" t="n">
-        <v>153</v>
+        <v>152.9</v>
       </c>
       <c r="D130" t="n">
-        <v>153</v>
+        <v>152.9</v>
       </c>
       <c r="E130" t="n">
-        <v>149.1</v>
+        <v>150</v>
       </c>
       <c r="F130" t="n">
-        <v>12126.875</v>
+        <v>875.1136</v>
       </c>
       <c r="G130" t="n">
-        <v>158.4</v>
+        <v>158.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,8 +5033,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4948,36 +5050,36 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C131" t="n">
         <v>153</v>
       </c>
-      <c r="C131" t="n">
-        <v>153.2</v>
-      </c>
       <c r="D131" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E131" t="n">
-        <v>153</v>
+        <v>149.1</v>
       </c>
       <c r="F131" t="n">
-        <v>1600.5061</v>
+        <v>12126.875</v>
       </c>
       <c r="G131" t="n">
-        <v>158.3016666666666</v>
+        <v>158.4</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>153</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -4989,33 +5091,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>155.9</v>
+        <v>153</v>
       </c>
       <c r="C132" t="n">
-        <v>152.4</v>
+        <v>153.2</v>
       </c>
       <c r="D132" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E132" t="n">
-        <v>152.4</v>
+        <v>153</v>
       </c>
       <c r="F132" t="n">
-        <v>3835.5666</v>
+        <v>1600.5061</v>
       </c>
       <c r="G132" t="n">
-        <v>158.1916666666666</v>
+        <v>158.3016666666666</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>153.2</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5030,22 +5132,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>150.4</v>
+        <v>155.9</v>
       </c>
       <c r="C133" t="n">
-        <v>153.9</v>
+        <v>152.4</v>
       </c>
       <c r="D133" t="n">
-        <v>153.9</v>
+        <v>156</v>
       </c>
       <c r="E133" t="n">
-        <v>150.4</v>
+        <v>152.4</v>
       </c>
       <c r="F133" t="n">
-        <v>2217.42</v>
+        <v>3835.5666</v>
       </c>
       <c r="G133" t="n">
-        <v>158.0416666666666</v>
+        <v>158.1916666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5054,7 +5156,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5069,22 +5173,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>153</v>
+        <v>150.4</v>
       </c>
       <c r="C134" t="n">
-        <v>153</v>
+        <v>153.9</v>
       </c>
       <c r="D134" t="n">
-        <v>153</v>
+        <v>153.9</v>
       </c>
       <c r="E134" t="n">
-        <v>153</v>
+        <v>150.4</v>
       </c>
       <c r="F134" t="n">
-        <v>500</v>
+        <v>2217.42</v>
       </c>
       <c r="G134" t="n">
-        <v>157.8916666666666</v>
+        <v>158.0416666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5093,7 +5197,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5108,22 +5214,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>152.8</v>
+        <v>153</v>
       </c>
       <c r="C135" t="n">
-        <v>152.8</v>
+        <v>153</v>
       </c>
       <c r="D135" t="n">
-        <v>152.8</v>
+        <v>153</v>
       </c>
       <c r="E135" t="n">
-        <v>152.8</v>
+        <v>153</v>
       </c>
       <c r="F135" t="n">
-        <v>1830.0024</v>
+        <v>500</v>
       </c>
       <c r="G135" t="n">
-        <v>157.7233333333333</v>
+        <v>157.8916666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5132,7 +5238,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5147,22 +5255,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>152.6</v>
+        <v>152.8</v>
       </c>
       <c r="C136" t="n">
-        <v>152.6</v>
+        <v>152.8</v>
       </c>
       <c r="D136" t="n">
-        <v>152.6</v>
+        <v>152.8</v>
       </c>
       <c r="E136" t="n">
-        <v>152.6</v>
+        <v>152.8</v>
       </c>
       <c r="F136" t="n">
-        <v>100</v>
+        <v>1830.0024</v>
       </c>
       <c r="G136" t="n">
-        <v>157.6166666666666</v>
+        <v>157.7233333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5171,7 +5279,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5186,22 +5296,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>151.8</v>
+        <v>152.6</v>
       </c>
       <c r="C137" t="n">
-        <v>151.8</v>
+        <v>152.6</v>
       </c>
       <c r="D137" t="n">
-        <v>151.8</v>
+        <v>152.6</v>
       </c>
       <c r="E137" t="n">
-        <v>151.8</v>
+        <v>152.6</v>
       </c>
       <c r="F137" t="n">
-        <v>86.16370000000001</v>
+        <v>100</v>
       </c>
       <c r="G137" t="n">
-        <v>157.48</v>
+        <v>157.6166666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5210,7 +5320,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,19 +5340,19 @@
         <v>151.8</v>
       </c>
       <c r="C138" t="n">
-        <v>152.6</v>
+        <v>151.8</v>
       </c>
       <c r="D138" t="n">
-        <v>152.6</v>
+        <v>151.8</v>
       </c>
       <c r="E138" t="n">
-        <v>151.4</v>
+        <v>151.8</v>
       </c>
       <c r="F138" t="n">
-        <v>86.2319</v>
+        <v>86.16370000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>157.325</v>
+        <v>157.48</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5249,7 +5361,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5264,22 +5378,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>150.4</v>
+        <v>151.8</v>
       </c>
       <c r="C139" t="n">
-        <v>150.4</v>
+        <v>152.6</v>
       </c>
       <c r="D139" t="n">
-        <v>150.4</v>
+        <v>152.6</v>
       </c>
       <c r="E139" t="n">
-        <v>150.4</v>
+        <v>151.4</v>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>86.2319</v>
       </c>
       <c r="G139" t="n">
-        <v>157.1316666666666</v>
+        <v>157.325</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5288,7 +5402,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5303,22 +5419,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>152.7</v>
+        <v>150.4</v>
       </c>
       <c r="C140" t="n">
-        <v>152.7</v>
+        <v>150.4</v>
       </c>
       <c r="D140" t="n">
-        <v>152.7</v>
+        <v>150.4</v>
       </c>
       <c r="E140" t="n">
-        <v>152.7</v>
+        <v>150.4</v>
       </c>
       <c r="F140" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>156.9766666666666</v>
+        <v>157.1316666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5327,7 +5443,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,30 +5463,30 @@
         <v>152.7</v>
       </c>
       <c r="C141" t="n">
-        <v>154.9</v>
+        <v>152.7</v>
       </c>
       <c r="D141" t="n">
-        <v>155</v>
+        <v>152.7</v>
       </c>
       <c r="E141" t="n">
-        <v>152.5</v>
+        <v>152.7</v>
       </c>
       <c r="F141" t="n">
-        <v>3502.5166</v>
+        <v>23</v>
       </c>
       <c r="G141" t="n">
-        <v>156.84</v>
+        <v>156.9766666666666</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5383,22 +5501,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="C142" t="n">
         <v>154.9</v>
       </c>
-      <c r="C142" t="n">
-        <v>138.5</v>
-      </c>
       <c r="D142" t="n">
-        <v>154.9</v>
+        <v>155</v>
       </c>
       <c r="E142" t="n">
-        <v>138.5</v>
+        <v>152.5</v>
       </c>
       <c r="F142" t="n">
-        <v>13629.2756</v>
+        <v>3502.5166</v>
       </c>
       <c r="G142" t="n">
-        <v>156.4466666666666</v>
+        <v>156.84</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5407,7 +5525,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5422,22 +5542,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>154</v>
+        <v>154.9</v>
       </c>
       <c r="C143" t="n">
-        <v>158.9</v>
+        <v>138.5</v>
       </c>
       <c r="D143" t="n">
-        <v>160</v>
+        <v>154.9</v>
       </c>
       <c r="E143" t="n">
-        <v>152</v>
+        <v>138.5</v>
       </c>
       <c r="F143" t="n">
-        <v>3882.7835</v>
+        <v>13629.2756</v>
       </c>
       <c r="G143" t="n">
-        <v>156.3766666666666</v>
+        <v>156.4466666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5446,7 +5566,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5461,22 +5583,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>156.3</v>
+        <v>154</v>
       </c>
       <c r="C144" t="n">
-        <v>156.3</v>
+        <v>158.9</v>
       </c>
       <c r="D144" t="n">
-        <v>156.3</v>
+        <v>160</v>
       </c>
       <c r="E144" t="n">
-        <v>156.3</v>
+        <v>152</v>
       </c>
       <c r="F144" t="n">
-        <v>501</v>
+        <v>3882.7835</v>
       </c>
       <c r="G144" t="n">
-        <v>156.2633333333333</v>
+        <v>156.3766666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5485,7 +5607,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5512,10 +5636,10 @@
         <v>156.3</v>
       </c>
       <c r="F145" t="n">
-        <v>638.4471</v>
+        <v>501</v>
       </c>
       <c r="G145" t="n">
-        <v>156.1249999999999</v>
+        <v>156.2633333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5524,7 +5648,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,19 +5668,19 @@
         <v>156.3</v>
       </c>
       <c r="C146" t="n">
-        <v>154.2</v>
+        <v>156.3</v>
       </c>
       <c r="D146" t="n">
         <v>156.3</v>
       </c>
       <c r="E146" t="n">
-        <v>154.2</v>
+        <v>156.3</v>
       </c>
       <c r="F146" t="n">
-        <v>8</v>
+        <v>638.4471</v>
       </c>
       <c r="G146" t="n">
-        <v>155.9766666666666</v>
+        <v>156.1249999999999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5563,7 +5689,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,22 +5706,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>154.3</v>
+        <v>156.3</v>
       </c>
       <c r="C147" t="n">
-        <v>153.3</v>
+        <v>154.2</v>
       </c>
       <c r="D147" t="n">
-        <v>154.3</v>
+        <v>156.3</v>
       </c>
       <c r="E147" t="n">
-        <v>153.3</v>
+        <v>154.2</v>
       </c>
       <c r="F147" t="n">
-        <v>2108.8986</v>
+        <v>8</v>
       </c>
       <c r="G147" t="n">
-        <v>155.8133333333332</v>
+        <v>155.9766666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5602,7 +5730,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,22 +5747,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>152.8</v>
+        <v>154.3</v>
       </c>
       <c r="C148" t="n">
-        <v>156.3</v>
+        <v>153.3</v>
       </c>
       <c r="D148" t="n">
-        <v>156.3</v>
+        <v>154.3</v>
       </c>
       <c r="E148" t="n">
-        <v>152.8</v>
+        <v>153.3</v>
       </c>
       <c r="F148" t="n">
-        <v>4476.7002</v>
+        <v>2108.8986</v>
       </c>
       <c r="G148" t="n">
-        <v>155.7133333333332</v>
+        <v>155.8133333333332</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5641,7 +5771,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5656,22 +5788,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>158.5</v>
+        <v>152.8</v>
       </c>
       <c r="C149" t="n">
-        <v>158.5</v>
+        <v>156.3</v>
       </c>
       <c r="D149" t="n">
-        <v>158.5</v>
+        <v>156.3</v>
       </c>
       <c r="E149" t="n">
-        <v>158.5</v>
+        <v>152.8</v>
       </c>
       <c r="F149" t="n">
-        <v>5</v>
+        <v>4476.7002</v>
       </c>
       <c r="G149" t="n">
-        <v>155.6549999999999</v>
+        <v>155.7133333333332</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5680,7 +5812,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5695,22 +5829,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>154.2</v>
+        <v>158.5</v>
       </c>
       <c r="C150" t="n">
-        <v>154.2</v>
+        <v>158.5</v>
       </c>
       <c r="D150" t="n">
-        <v>154.2</v>
+        <v>158.5</v>
       </c>
       <c r="E150" t="n">
-        <v>154.2</v>
+        <v>158.5</v>
       </c>
       <c r="F150" t="n">
-        <v>106.5785</v>
+        <v>5</v>
       </c>
       <c r="G150" t="n">
-        <v>155.4933333333333</v>
+        <v>155.6549999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5719,7 +5853,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5734,22 +5870,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>155</v>
+        <v>154.2</v>
       </c>
       <c r="C151" t="n">
-        <v>154.5</v>
+        <v>154.2</v>
       </c>
       <c r="D151" t="n">
-        <v>155</v>
+        <v>154.2</v>
       </c>
       <c r="E151" t="n">
-        <v>154.5</v>
+        <v>154.2</v>
       </c>
       <c r="F151" t="n">
-        <v>2021.886</v>
+        <v>106.5785</v>
       </c>
       <c r="G151" t="n">
-        <v>155.3683333333333</v>
+        <v>155.4933333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5758,7 +5894,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5773,22 +5911,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>154.1</v>
+        <v>155</v>
       </c>
       <c r="C152" t="n">
-        <v>152.5</v>
+        <v>154.5</v>
       </c>
       <c r="D152" t="n">
-        <v>154.2</v>
+        <v>155</v>
       </c>
       <c r="E152" t="n">
-        <v>152.5</v>
+        <v>154.5</v>
       </c>
       <c r="F152" t="n">
-        <v>16700.6396</v>
+        <v>2021.886</v>
       </c>
       <c r="G152" t="n">
-        <v>155.2266666666666</v>
+        <v>155.3683333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5797,7 +5935,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,22 +5952,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>153.1</v>
+        <v>154.1</v>
       </c>
       <c r="C153" t="n">
-        <v>154.1</v>
+        <v>152.5</v>
       </c>
       <c r="D153" t="n">
-        <v>154.1</v>
+        <v>154.2</v>
       </c>
       <c r="E153" t="n">
-        <v>153.1</v>
+        <v>152.5</v>
       </c>
       <c r="F153" t="n">
-        <v>1240.245</v>
+        <v>16700.6396</v>
       </c>
       <c r="G153" t="n">
-        <v>155.0983333333333</v>
+        <v>155.2266666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5836,7 +5976,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,22 +5993,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>154</v>
+        <v>153.1</v>
       </c>
       <c r="C154" t="n">
-        <v>154</v>
+        <v>154.1</v>
       </c>
       <c r="D154" t="n">
-        <v>154</v>
+        <v>154.1</v>
       </c>
       <c r="E154" t="n">
-        <v>154</v>
+        <v>153.1</v>
       </c>
       <c r="F154" t="n">
-        <v>639.5231</v>
+        <v>1240.245</v>
       </c>
       <c r="G154" t="n">
-        <v>154.9683333333333</v>
+        <v>155.0983333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5875,7 +6017,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5890,22 +6034,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C155" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D155" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E155" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F155" t="n">
-        <v>661.372</v>
+        <v>639.5231</v>
       </c>
       <c r="G155" t="n">
-        <v>154.7983333333333</v>
+        <v>154.9683333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5914,7 +6058,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5932,19 +6078,19 @@
         <v>151</v>
       </c>
       <c r="C156" t="n">
-        <v>152.4</v>
+        <v>151</v>
       </c>
       <c r="D156" t="n">
-        <v>152.4</v>
+        <v>151</v>
       </c>
       <c r="E156" t="n">
         <v>151</v>
       </c>
       <c r="F156" t="n">
-        <v>4652.181</v>
+        <v>661.372</v>
       </c>
       <c r="G156" t="n">
-        <v>154.6216666666666</v>
+        <v>154.7983333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5953,7 +6099,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,22 +6116,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>155.9</v>
+        <v>151</v>
       </c>
       <c r="C157" t="n">
-        <v>155.9</v>
+        <v>152.4</v>
       </c>
       <c r="D157" t="n">
-        <v>155.9</v>
+        <v>152.4</v>
       </c>
       <c r="E157" t="n">
-        <v>155.9</v>
+        <v>151</v>
       </c>
       <c r="F157" t="n">
-        <v>24</v>
+        <v>4652.181</v>
       </c>
       <c r="G157" t="n">
-        <v>154.5199999999999</v>
+        <v>154.6216666666666</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5992,7 +6140,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6010,19 +6160,19 @@
         <v>155.9</v>
       </c>
       <c r="C158" t="n">
-        <v>155.1</v>
+        <v>155.9</v>
       </c>
       <c r="D158" t="n">
         <v>155.9</v>
       </c>
       <c r="E158" t="n">
-        <v>155.1</v>
+        <v>155.9</v>
       </c>
       <c r="F158" t="n">
-        <v>999.8132000000001</v>
+        <v>24</v>
       </c>
       <c r="G158" t="n">
-        <v>154.4216666666666</v>
+        <v>154.5199999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6031,7 +6181,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,22 +6198,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="C159" t="n">
         <v>155.1</v>
-      </c>
-      <c r="C159" t="n">
-        <v>155.9</v>
       </c>
       <c r="D159" t="n">
         <v>155.9</v>
       </c>
       <c r="E159" t="n">
-        <v>153.1</v>
+        <v>155.1</v>
       </c>
       <c r="F159" t="n">
-        <v>1170.5341</v>
+        <v>999.8132000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>154.5066666666666</v>
+        <v>154.4216666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6070,7 +6222,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,22 +6239,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>163.9</v>
+        <v>155.1</v>
       </c>
       <c r="C160" t="n">
-        <v>158.8</v>
+        <v>155.9</v>
       </c>
       <c r="D160" t="n">
-        <v>163.9</v>
+        <v>155.9</v>
       </c>
       <c r="E160" t="n">
-        <v>158.7</v>
+        <v>153.1</v>
       </c>
       <c r="F160" t="n">
-        <v>4038.39057461867</v>
+        <v>1170.5341</v>
       </c>
       <c r="G160" t="n">
-        <v>154.4699999999999</v>
+        <v>154.5066666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6109,7 +6263,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6124,22 +6280,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>160</v>
+        <v>163.9</v>
       </c>
       <c r="C161" t="n">
-        <v>160</v>
+        <v>158.8</v>
       </c>
       <c r="D161" t="n">
-        <v>160</v>
+        <v>163.9</v>
       </c>
       <c r="E161" t="n">
-        <v>160</v>
+        <v>158.7</v>
       </c>
       <c r="F161" t="n">
-        <v>25.2079</v>
+        <v>4038.39057461867</v>
       </c>
       <c r="G161" t="n">
-        <v>154.5199999999999</v>
+        <v>154.4699999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6148,7 +6304,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6163,22 +6321,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>157.1</v>
+        <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D162" t="n">
-        <v>157.1</v>
+        <v>160</v>
       </c>
       <c r="E162" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F162" t="n">
-        <v>1995.5305</v>
+        <v>25.2079</v>
       </c>
       <c r="G162" t="n">
-        <v>154.4883333333333</v>
+        <v>154.5199999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6187,7 +6345,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,22 +6362,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>164</v>
+        <v>157.1</v>
       </c>
       <c r="C163" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D163" t="n">
-        <v>164</v>
+        <v>157.1</v>
       </c>
       <c r="E163" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F163" t="n">
-        <v>4</v>
+        <v>1995.5305</v>
       </c>
       <c r="G163" t="n">
-        <v>154.5883333333333</v>
+        <v>154.4883333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6226,7 +6386,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6244,19 +6406,19 @@
         <v>164</v>
       </c>
       <c r="C164" t="n">
-        <v>157.2</v>
+        <v>164</v>
       </c>
       <c r="D164" t="n">
         <v>164</v>
       </c>
       <c r="E164" t="n">
-        <v>157.2</v>
+        <v>164</v>
       </c>
       <c r="F164" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G164" t="n">
-        <v>154.5949999999999</v>
+        <v>154.5883333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6265,7 +6427,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6280,22 +6444,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C165" t="n">
-        <v>159</v>
+        <v>157.2</v>
       </c>
       <c r="D165" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E165" t="n">
-        <v>159</v>
+        <v>157.2</v>
       </c>
       <c r="F165" t="n">
-        <v>11.7382</v>
+        <v>8</v>
       </c>
       <c r="G165" t="n">
-        <v>154.6249999999999</v>
+        <v>154.5949999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6304,7 +6468,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6319,22 +6485,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C166" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D166" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E166" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F166" t="n">
-        <v>5.7287</v>
+        <v>11.7382</v>
       </c>
       <c r="G166" t="n">
-        <v>154.6749999999999</v>
+        <v>154.6249999999999</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6343,7 +6509,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>156.3</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6353,6 +6521,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>161</v>
+      </c>
+      <c r="C167" t="n">
+        <v>161</v>
+      </c>
+      <c r="D167" t="n">
+        <v>161</v>
+      </c>
+      <c r="E167" t="n">
+        <v>161</v>
+      </c>
+      <c r="F167" t="n">
+        <v>5.7287</v>
+      </c>
+      <c r="G167" t="n">
+        <v>154.6749999999999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1.025070377479207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-23 BackTest ABT.xlsx
+++ b/BackTest/2020-01-23 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>20.208</v>
       </c>
       <c r="G2" t="n">
+        <v>157.9266666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>161.1933333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>17</v>
       </c>
       <c r="G3" t="n">
+        <v>157.8066666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>161.2133333333335</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>6591.9064</v>
       </c>
       <c r="G4" t="n">
+        <v>157.6933333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>161.2333333333335</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2087.8834</v>
       </c>
       <c r="G5" t="n">
+        <v>158.1666666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>161.2366666666668</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1500</v>
       </c>
       <c r="G6" t="n">
+        <v>158.0866666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>161.1716666666668</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1500</v>
       </c>
       <c r="G7" t="n">
+        <v>158.0666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>161.1233333333335</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>3490.8102</v>
       </c>
       <c r="G8" t="n">
+        <v>158.3399999999999</v>
+      </c>
+      <c r="H8" t="n">
         <v>161.0083333333335</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1489.6043</v>
       </c>
       <c r="G9" t="n">
+        <v>158.2933333333332</v>
+      </c>
+      <c r="H9" t="n">
         <v>160.8883333333335</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>4830.8326</v>
       </c>
       <c r="G10" t="n">
+        <v>158.2666666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>160.7533333333335</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1627.4248</v>
       </c>
       <c r="G11" t="n">
+        <v>158.1599999999999</v>
+      </c>
+      <c r="H11" t="n">
         <v>160.6583333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>3.4</v>
       </c>
       <c r="G12" t="n">
+        <v>157.5199999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>160.4600000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>5057.494</v>
       </c>
       <c r="G13" t="n">
+        <v>156.5933333333332</v>
+      </c>
+      <c r="H13" t="n">
         <v>160.2733333333335</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>5098.904</v>
       </c>
       <c r="G14" t="n">
+        <v>156.2599999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>160.0866666666668</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>3.3</v>
       </c>
       <c r="G15" t="n">
+        <v>155.9466666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>159.8566666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>3.259</v>
       </c>
       <c r="G16" t="n">
+        <v>155.7333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>159.6733333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>105.2242</v>
       </c>
       <c r="G17" t="n">
+        <v>155.52</v>
+      </c>
+      <c r="H17" t="n">
         <v>159.4850000000001</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>3.3</v>
       </c>
       <c r="G18" t="n">
+        <v>155.26</v>
+      </c>
+      <c r="H18" t="n">
         <v>159.2666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1500</v>
       </c>
       <c r="G19" t="n">
+        <v>155</v>
+      </c>
+      <c r="H19" t="n">
         <v>159.0266666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2479.6202</v>
       </c>
       <c r="G20" t="n">
+        <v>154.7866666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>158.825</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>4347.6101</v>
       </c>
       <c r="G21" t="n">
+        <v>154.6466666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>158.5666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>105.2242</v>
       </c>
       <c r="G22" t="n">
+        <v>154.44</v>
+      </c>
+      <c r="H22" t="n">
         <v>158.3683333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>224.4445</v>
       </c>
       <c r="G23" t="n">
+        <v>154.36</v>
+      </c>
+      <c r="H23" t="n">
         <v>158.1333333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>2970.2376</v>
       </c>
       <c r="G24" t="n">
+        <v>154.1533333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>157.8983333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>3450</v>
       </c>
       <c r="G25" t="n">
+        <v>154.08</v>
+      </c>
+      <c r="H25" t="n">
         <v>157.7616666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>535.1581</v>
       </c>
       <c r="G26" t="n">
+        <v>153.8866666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>157.6383333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1500</v>
       </c>
       <c r="G27" t="n">
+        <v>154.02</v>
+      </c>
+      <c r="H27" t="n">
         <v>157.4583333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>998.921</v>
       </c>
       <c r="G28" t="n">
+        <v>154.02</v>
+      </c>
+      <c r="H28" t="n">
         <v>157.375</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>1500</v>
       </c>
       <c r="G29" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="H29" t="n">
         <v>157.26</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
+        <v>154.08</v>
+      </c>
+      <c r="H30" t="n">
         <v>157.1950000000001</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1500</v>
       </c>
       <c r="G31" t="n">
+        <v>153.9133333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>157.05</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1370.1263</v>
       </c>
       <c r="G32" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="H32" t="n">
         <v>156.935</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>702.558</v>
       </c>
       <c r="G33" t="n">
+        <v>153.9733333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>156.8833333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>1524.08</v>
       </c>
       <c r="G34" t="n">
+        <v>154.1466666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>156.7983333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>38.46153846153846</v>
       </c>
       <c r="G35" t="n">
+        <v>154.28</v>
+      </c>
+      <c r="H35" t="n">
         <v>156.73</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>505.332</v>
       </c>
       <c r="G36" t="n">
+        <v>154.2866666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>156.6133333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>8453.808800000001</v>
       </c>
       <c r="G37" t="n">
+        <v>154.42</v>
+      </c>
+      <c r="H37" t="n">
         <v>156.4933333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1663</v>
       </c>
       <c r="G38" t="n">
+        <v>154.4266666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>156.375</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1575.4606</v>
       </c>
       <c r="G39" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="H39" t="n">
         <v>156.2233333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>2970.2376</v>
       </c>
       <c r="G40" t="n">
+        <v>153.7066666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>155.9883333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>5337.1564</v>
       </c>
       <c r="G41" t="n">
+        <v>153.24</v>
+      </c>
+      <c r="H41" t="n">
         <v>155.7683333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1083.9945</v>
       </c>
       <c r="G42" t="n">
+        <v>152.9066666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>155.5816666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,25 @@
         <v>576.6618999999999</v>
       </c>
       <c r="G43" t="n">
+        <v>152.58</v>
+      </c>
+      <c r="H43" t="n">
         <v>155.3833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2053,29 @@
         <v>3026.8479</v>
       </c>
       <c r="G44" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="H44" t="n">
         <v>155.1833333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2099,29 @@
         <v>1978.207</v>
       </c>
       <c r="G45" t="n">
+        <v>152.1266666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>155.0733333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>148</v>
+      </c>
+      <c r="L45" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2145,29 @@
         <v>511.1113</v>
       </c>
       <c r="G46" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="H46" t="n">
         <v>154.9633333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2191,27 @@
         <v>4082.2381</v>
       </c>
       <c r="G47" t="n">
+        <v>152.22</v>
+      </c>
+      <c r="H47" t="n">
         <v>154.8666666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2235,27 @@
         <v>3.252</v>
       </c>
       <c r="G48" t="n">
+        <v>152.16</v>
+      </c>
+      <c r="H48" t="n">
         <v>154.8</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2279,27 @@
         <v>28170.2101</v>
       </c>
       <c r="G49" t="n">
+        <v>152.22</v>
+      </c>
+      <c r="H49" t="n">
         <v>154.765</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2323,27 @@
         <v>2615</v>
       </c>
       <c r="G50" t="n">
+        <v>152.3533333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>154.8966666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2367,27 @@
         <v>179.228</v>
       </c>
       <c r="G51" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="H51" t="n">
         <v>154.83</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2411,27 @@
         <v>468.2404</v>
       </c>
       <c r="G52" t="n">
+        <v>152.2333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>154.79</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2455,27 @@
         <v>517</v>
       </c>
       <c r="G53" t="n">
+        <v>152.1733333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>154.825</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2499,27 @@
         <v>468.24</v>
       </c>
       <c r="G54" t="n">
+        <v>152.1733333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>154.73</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2543,27 @@
         <v>2492.3185</v>
       </c>
       <c r="G55" t="n">
+        <v>152.6066666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>154.665</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2587,29 @@
         <v>517</v>
       </c>
       <c r="G56" t="n">
+        <v>153.0133333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>154.575</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2633,29 @@
         <v>19.7842</v>
       </c>
       <c r="G57" t="n">
+        <v>152.9466666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>154.3483333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2679,29 @@
         <v>13979.9393</v>
       </c>
       <c r="G58" t="n">
+        <v>153.4666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>154.165</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2725,29 @@
         <v>2000</v>
       </c>
       <c r="G59" t="n">
+        <v>153.9333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>154.0983333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="L59" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2771,27 @@
         <v>500</v>
       </c>
       <c r="G60" t="n">
+        <v>154.04</v>
+      </c>
+      <c r="H60" t="n">
         <v>154.0483333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2815,27 @@
         <v>154.1648</v>
       </c>
       <c r="G61" t="n">
+        <v>154.1533333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>154</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2859,27 @@
         <v>3.321</v>
       </c>
       <c r="G62" t="n">
+        <v>154.3933333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>153.9833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2903,27 @@
         <v>4.152</v>
       </c>
       <c r="G63" t="n">
+        <v>154.5266666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>153.98</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2947,27 @@
         <v>750</v>
       </c>
       <c r="G64" t="n">
+        <v>154.6066666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>153.9933333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2991,27 @@
         <v>1019.0541</v>
       </c>
       <c r="G65" t="n">
+        <v>154.6066666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>154.0066666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3035,27 @@
         <v>1028.0174</v>
       </c>
       <c r="G66" t="n">
+        <v>154.92</v>
+      </c>
+      <c r="H66" t="n">
         <v>154.0383333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3079,27 @@
         <v>1303.0596</v>
       </c>
       <c r="G67" t="n">
+        <v>155.1866666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>154.0699999999999</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3123,27 @@
         <v>250</v>
       </c>
       <c r="G68" t="n">
+        <v>155.38</v>
+      </c>
+      <c r="H68" t="n">
         <v>154.0849999999999</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3167,27 @@
         <v>100</v>
       </c>
       <c r="G69" t="n">
+        <v>155.6466666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>154.0683333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3211,27 @@
         <v>328.239</v>
       </c>
       <c r="G70" t="n">
+        <v>155.9466666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>154.0849999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3255,27 @@
         <v>513.8171</v>
       </c>
       <c r="G71" t="n">
+        <v>156.34</v>
+      </c>
+      <c r="H71" t="n">
         <v>154.1199999999999</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3299,27 @@
         <v>750</v>
       </c>
       <c r="G72" t="n">
+        <v>157.14</v>
+      </c>
+      <c r="H72" t="n">
         <v>154.2533333333332</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3343,27 @@
         <v>16045.773</v>
       </c>
       <c r="G73" t="n">
+        <v>157.3466666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>154.3533333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3387,27 @@
         <v>181.345</v>
       </c>
       <c r="G74" t="n">
+        <v>157.8733333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>154.5016666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3431,27 @@
         <v>2300.9392</v>
       </c>
       <c r="G75" t="n">
+        <v>158.34</v>
+      </c>
+      <c r="H75" t="n">
         <v>154.6466666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3475,27 @@
         <v>1344.0238</v>
       </c>
       <c r="G76" t="n">
+        <v>158.86</v>
+      </c>
+      <c r="H76" t="n">
         <v>154.7816666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3519,27 @@
         <v>4262.5119</v>
       </c>
       <c r="G77" t="n">
+        <v>158.9933333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>154.8516666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3563,27 @@
         <v>360.9067</v>
       </c>
       <c r="G78" t="n">
+        <v>159.1933333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>154.9633333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3607,27 @@
         <v>1718.3994</v>
       </c>
       <c r="G79" t="n">
+        <v>159.4533333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>155.1066666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3651,27 @@
         <v>3.181</v>
       </c>
       <c r="G80" t="n">
+        <v>159.72</v>
+      </c>
+      <c r="H80" t="n">
         <v>155.24</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3695,27 @@
         <v>133.5313</v>
       </c>
       <c r="G81" t="n">
+        <v>159.9866666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>155.3733333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3739,27 @@
         <v>18223.9614</v>
       </c>
       <c r="G82" t="n">
+        <v>160.3266666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>155.5416666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3783,27 @@
         <v>17686.54921515151</v>
       </c>
       <c r="G83" t="n">
+        <v>160.6666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>155.6616666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3827,27 @@
         <v>2568.077115256257</v>
       </c>
       <c r="G84" t="n">
+        <v>161.0733333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>155.7983333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3871,27 @@
         <v>154.4332</v>
       </c>
       <c r="G85" t="n">
+        <v>161.4133333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>155.9183333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3915,27 @@
         <v>580.8295000000001</v>
       </c>
       <c r="G86" t="n">
+        <v>161.7866666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>156.095</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3959,27 @@
         <v>9759.2937</v>
       </c>
       <c r="G87" t="n">
+        <v>162.0533333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>156.2616666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4003,27 @@
         <v>302.8728</v>
       </c>
       <c r="G88" t="n">
+        <v>162.3266666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>156.43</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4047,27 @@
         <v>283.0708</v>
       </c>
       <c r="G89" t="n">
+        <v>162.2866666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>156.5983333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4091,27 @@
         <v>24836.4732</v>
       </c>
       <c r="G90" t="n">
+        <v>162.2866666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>156.6983333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,19 +4135,28 @@
         <v>183.6997</v>
       </c>
       <c r="G91" t="n">
+        <v>162.3533333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>156.8916666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
+      <c r="L91" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>1.101684672518569</v>
       </c>
     </row>
     <row r="92">
@@ -3598,18 +4179,21 @@
         <v>3462.5554</v>
       </c>
       <c r="G92" t="n">
+        <v>162.5533333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>157.04</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4217,21 @@
         <v>1515.1515</v>
       </c>
       <c r="G93" t="n">
+        <v>162.6199999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>157.125</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4255,21 @@
         <v>3.129</v>
       </c>
       <c r="G94" t="n">
+        <v>162.6133333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>157.2233333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4293,21 @@
         <v>1585.1925</v>
       </c>
       <c r="G95" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="H95" t="n">
         <v>157.32</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4331,21 @@
         <v>7913.7639</v>
       </c>
       <c r="G96" t="n">
+        <v>162.5466666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>157.4383333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4369,21 @@
         <v>1713.5026</v>
       </c>
       <c r="G97" t="n">
+        <v>162.54</v>
+      </c>
+      <c r="H97" t="n">
         <v>157.5716666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4407,21 @@
         <v>495.8653</v>
       </c>
       <c r="G98" t="n">
+        <v>162.5333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>157.6883333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4445,21 @@
         <v>5706.0917</v>
       </c>
       <c r="G99" t="n">
+        <v>162.3933333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>157.8216666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4483,21 @@
         <v>206.7203</v>
       </c>
       <c r="G100" t="n">
+        <v>161.5733333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>157.885</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4521,21 @@
         <v>489.817</v>
       </c>
       <c r="G101" t="n">
+        <v>161.3333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>158.1183333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4559,21 @@
         <v>35781.7314</v>
       </c>
       <c r="G102" t="n">
+        <v>160.9266666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>158.2666666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4597,21 @@
         <v>5485.2874</v>
       </c>
       <c r="G103" t="n">
+        <v>160.6466666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>158.4466666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4635,21 @@
         <v>444</v>
       </c>
       <c r="G104" t="n">
+        <v>160.36</v>
+      </c>
+      <c r="H104" t="n">
         <v>158.6133333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4673,21 @@
         <v>4371.0897</v>
       </c>
       <c r="G105" t="n">
+        <v>160.0133333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>158.67</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4711,21 @@
         <v>1713.5026</v>
       </c>
       <c r="G106" t="n">
+        <v>159.5666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>158.7333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4749,21 @@
         <v>2131</v>
       </c>
       <c r="G107" t="n">
+        <v>159.3</v>
+      </c>
+      <c r="H107" t="n">
         <v>158.81</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4787,21 @@
         <v>748.2258</v>
       </c>
       <c r="G108" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="H108" t="n">
         <v>158.86</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4825,21 @@
         <v>500</v>
       </c>
       <c r="G109" t="n">
+        <v>158.84</v>
+      </c>
+      <c r="H109" t="n">
         <v>158.8783333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4863,21 @@
         <v>260</v>
       </c>
       <c r="G110" t="n">
+        <v>158.4866666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>158.8533333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4901,21 @@
         <v>2815.713</v>
       </c>
       <c r="G111" t="n">
+        <v>158.1666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>158.905</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4939,21 @@
         <v>269.0983</v>
       </c>
       <c r="G112" t="n">
+        <v>157.7133333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>158.9416666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4977,21 @@
         <v>537.921</v>
       </c>
       <c r="G113" t="n">
+        <v>157.3266666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>158.9766666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +5015,21 @@
         <v>9389.397300000001</v>
       </c>
       <c r="G114" t="n">
+        <v>157.0133333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>159.0316666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,22 +5053,21 @@
         <v>4</v>
       </c>
       <c r="G115" t="n">
+        <v>157.2533333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>159.0466666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="K115" t="n">
-        <v>156.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,26 +5091,21 @@
         <v>2035.4724</v>
       </c>
       <c r="G116" t="n">
+        <v>156.7933333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>159.0633333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="K116" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4485,26 +5129,21 @@
         <v>1233.9504</v>
       </c>
       <c r="G117" t="n">
+        <v>156.6066666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>159.1816666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>154.1</v>
-      </c>
-      <c r="K117" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,26 +5167,21 @@
         <v>131.8913</v>
       </c>
       <c r="G118" t="n">
+        <v>156.2799999999999</v>
+      </c>
+      <c r="H118" t="n">
         <v>159.15</v>
       </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="K118" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4571,24 +5205,21 @@
         <v>750</v>
       </c>
       <c r="G119" t="n">
+        <v>156.0066666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>159.1316666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,26 +5243,21 @@
         <v>260</v>
       </c>
       <c r="G120" t="n">
+        <v>155.82</v>
+      </c>
+      <c r="H120" t="n">
         <v>159.115</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="K120" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4655,24 +5281,21 @@
         <v>519.0983</v>
       </c>
       <c r="G121" t="n">
+        <v>155.54</v>
+      </c>
+      <c r="H121" t="n">
         <v>159.08</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,24 +5319,21 @@
         <v>3.218</v>
       </c>
       <c r="G122" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="H122" t="n">
         <v>159.0616666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,24 +5357,21 @@
         <v>19842.3413</v>
       </c>
       <c r="G123" t="n">
+        <v>155.1333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>159.0116666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,24 +5395,21 @@
         <v>3542</v>
       </c>
       <c r="G124" t="n">
+        <v>155.0333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>158.985</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4819,24 +5433,21 @@
         <v>13669.1312</v>
       </c>
       <c r="G125" t="n">
+        <v>154.8266666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>158.9083333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4860,24 +5471,21 @@
         <v>1961.9949</v>
       </c>
       <c r="G126" t="n">
+        <v>154.6266666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>158.8316666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4901,24 +5509,21 @@
         <v>191.0293</v>
       </c>
       <c r="G127" t="n">
+        <v>154.3133333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>158.7233333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4942,24 +5547,21 @@
         <v>1089.021</v>
       </c>
       <c r="G128" t="n">
+        <v>154.1133333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>158.66</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4983,24 +5585,21 @@
         <v>1500</v>
       </c>
       <c r="G129" t="n">
+        <v>153.86</v>
+      </c>
+      <c r="H129" t="n">
         <v>158.585</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5024,24 +5623,21 @@
         <v>875.1136</v>
       </c>
       <c r="G130" t="n">
+        <v>153.76</v>
+      </c>
+      <c r="H130" t="n">
         <v>158.5</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5065,24 +5661,21 @@
         <v>12126.875</v>
       </c>
       <c r="G131" t="n">
+        <v>153.6866666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>158.4</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,24 +5699,21 @@
         <v>1600.5061</v>
       </c>
       <c r="G132" t="n">
+        <v>153.62</v>
+      </c>
+      <c r="H132" t="n">
         <v>158.3016666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5147,24 +5737,21 @@
         <v>3835.5666</v>
       </c>
       <c r="G133" t="n">
+        <v>153.5133333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>158.1916666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,24 +5775,21 @@
         <v>2217.42</v>
       </c>
       <c r="G134" t="n">
+        <v>153.5133333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>158.0416666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5229,24 +5813,21 @@
         <v>500</v>
       </c>
       <c r="G135" t="n">
+        <v>153.4466666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>157.8916666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5270,24 +5851,21 @@
         <v>1830.0024</v>
       </c>
       <c r="G136" t="n">
+        <v>153.4333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>157.7233333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5311,24 +5889,21 @@
         <v>100</v>
       </c>
       <c r="G137" t="n">
+        <v>153.2133333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>157.6166666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5352,24 +5927,21 @@
         <v>86.16370000000001</v>
       </c>
       <c r="G138" t="n">
+        <v>153.0666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>157.48</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5393,24 +5965,21 @@
         <v>86.2319</v>
       </c>
       <c r="G139" t="n">
+        <v>152.8133333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>157.325</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,24 +6003,21 @@
         <v>10</v>
       </c>
       <c r="G140" t="n">
+        <v>152.6133333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>157.1316666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5475,24 +6041,21 @@
         <v>23</v>
       </c>
       <c r="G141" t="n">
+        <v>152.5666666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>156.9766666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5516,24 +6079,21 @@
         <v>3502.5166</v>
       </c>
       <c r="G142" t="n">
+        <v>152.7933333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>156.84</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,24 +6117,21 @@
         <v>13629.2756</v>
       </c>
       <c r="G143" t="n">
+        <v>151.8133333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>156.4466666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5598,24 +6155,21 @@
         <v>3882.7835</v>
       </c>
       <c r="G144" t="n">
+        <v>152.24</v>
+      </c>
+      <c r="H144" t="n">
         <v>156.3766666666666</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5639,24 +6193,21 @@
         <v>501</v>
       </c>
       <c r="G145" t="n">
+        <v>152.4666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>156.2633333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,24 +6231,21 @@
         <v>638.4471</v>
       </c>
       <c r="G146" t="n">
+        <v>152.6866666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>156.1249999999999</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5721,24 +6269,21 @@
         <v>8</v>
       </c>
       <c r="G147" t="n">
+        <v>152.7533333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>155.9766666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5762,24 +6307,21 @@
         <v>2108.8986</v>
       </c>
       <c r="G148" t="n">
+        <v>152.8133333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>155.8133333333332</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,24 +6345,21 @@
         <v>4476.7002</v>
       </c>
       <c r="G149" t="n">
+        <v>152.9733333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>155.7133333333332</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5844,24 +6383,21 @@
         <v>5</v>
       </c>
       <c r="G150" t="n">
+        <v>153.34</v>
+      </c>
+      <c r="H150" t="n">
         <v>155.6549999999999</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5885,24 +6421,21 @@
         <v>106.5785</v>
       </c>
       <c r="G151" t="n">
+        <v>153.4333333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>155.4933333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,24 +6459,21 @@
         <v>2021.886</v>
       </c>
       <c r="G152" t="n">
+        <v>153.56</v>
+      </c>
+      <c r="H152" t="n">
         <v>155.3683333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5967,24 +6497,21 @@
         <v>16700.6396</v>
       </c>
       <c r="G153" t="n">
+        <v>153.6066666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>155.2266666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6008,24 +6535,21 @@
         <v>1240.245</v>
       </c>
       <c r="G154" t="n">
+        <v>153.7066666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>155.0983333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6049,24 +6573,21 @@
         <v>639.5231</v>
       </c>
       <c r="G155" t="n">
+        <v>153.9466666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>154.9683333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6090,24 +6611,25 @@
         <v>661.372</v>
       </c>
       <c r="G156" t="n">
+        <v>153.8333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>154.7983333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+        <v>154</v>
+      </c>
+      <c r="L156" t="n">
+        <v>154</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6131,24 +6653,29 @@
         <v>4652.181</v>
       </c>
       <c r="G157" t="n">
+        <v>153.6666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>154.6216666666666</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+        <v>151</v>
+      </c>
+      <c r="L157" t="n">
+        <v>154</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6172,24 +6699,29 @@
         <v>24</v>
       </c>
       <c r="G158" t="n">
+        <v>154.8266666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>154.5199999999999</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L158" t="inlineStr">
+        <v>152.4</v>
+      </c>
+      <c r="L158" t="n">
+        <v>154</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6213,24 +6745,27 @@
         <v>999.8132000000001</v>
       </c>
       <c r="G159" t="n">
+        <v>154.5733333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>154.4216666666666</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>154</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6254,24 +6789,27 @@
         <v>1170.5341</v>
       </c>
       <c r="G160" t="n">
+        <v>154.5466666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>154.5066666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>154</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6295,24 +6833,27 @@
         <v>4038.39057461867</v>
       </c>
       <c r="G161" t="n">
+        <v>154.7133333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>154.4699999999999</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>154</v>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6336,24 +6877,27 @@
         <v>25.2079</v>
       </c>
       <c r="G162" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="H162" t="n">
         <v>154.5199999999999</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>154</v>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6377,24 +6921,27 @@
         <v>1995.5305</v>
       </c>
       <c r="G163" t="n">
+        <v>155.3466666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>154.4883333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>154</v>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6418,24 +6965,27 @@
         <v>4</v>
       </c>
       <c r="G164" t="n">
+        <v>155.86</v>
+      </c>
+      <c r="H164" t="n">
         <v>154.5883333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>154</v>
+      </c>
+      <c r="M164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6459,24 +7009,27 @@
         <v>8</v>
       </c>
       <c r="G165" t="n">
+        <v>155.7733333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>154.5949999999999</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>154</v>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6500,24 +7053,27 @@
         <v>11.7382</v>
       </c>
       <c r="G166" t="n">
+        <v>156.0933333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>154.6249999999999</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>154</v>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6541,25 +7097,468 @@
         <v>5.7287</v>
       </c>
       <c r="G167" t="n">
+        <v>156.5266666666666</v>
+      </c>
+      <c r="H167" t="n">
         <v>154.6749999999999</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="L167" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>154</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>161</v>
+      </c>
+      <c r="C168" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>161</v>
+      </c>
+      <c r="E168" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>8</v>
+      </c>
+      <c r="G168" t="n">
+        <v>156.6333333333333</v>
+      </c>
+      <c r="H168" t="n">
+        <v>154.61</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>154</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>161</v>
+      </c>
+      <c r="C169" t="n">
+        <v>161</v>
+      </c>
+      <c r="D169" t="n">
+        <v>161</v>
+      </c>
+      <c r="E169" t="n">
+        <v>161</v>
+      </c>
+      <c r="F169" t="n">
+        <v>485.4696</v>
+      </c>
+      <c r="G169" t="n">
+        <v>157.0933333333333</v>
+      </c>
+      <c r="H169" t="n">
+        <v>154.6616666666666</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>154</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>161</v>
+      </c>
+      <c r="C170" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3891.1459</v>
+      </c>
+      <c r="G170" t="n">
+        <v>157.5533333333333</v>
+      </c>
+      <c r="H170" t="n">
+        <v>154.735</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>154</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G171" t="n">
+        <v>158.28</v>
+      </c>
+      <c r="H171" t="n">
+        <v>154.8266666666666</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>154</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="C172" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4</v>
+      </c>
+      <c r="G172" t="n">
+        <v>159.0466666666667</v>
+      </c>
+      <c r="H172" t="n">
+        <v>154.9549999999999</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>154</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>166</v>
+      </c>
+      <c r="E173" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>20621.83494457831</v>
+      </c>
+      <c r="G173" t="n">
+        <v>159.1266666666666</v>
+      </c>
+      <c r="H173" t="n">
+        <v>154.9699999999999</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>154</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="C174" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>166.6</v>
+      </c>
+      <c r="E174" t="n">
+        <v>157</v>
+      </c>
+      <c r="F174" t="n">
+        <v>10709.7056</v>
+      </c>
+      <c r="G174" t="n">
+        <v>159.46</v>
+      </c>
+      <c r="H174" t="n">
+        <v>155.0333333333333</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>154</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>708.4136</v>
+      </c>
+      <c r="G175" t="n">
+        <v>160.14</v>
+      </c>
+      <c r="H175" t="n">
+        <v>155.2283333333333</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>154</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>164.6756</v>
+      </c>
+      <c r="G176" t="n">
+        <v>160.44</v>
+      </c>
+      <c r="H176" t="n">
+        <v>155.3816666666666</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>154</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="D177" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="E177" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>7807.1184</v>
+      </c>
+      <c r="G177" t="n">
+        <v>160.66</v>
+      </c>
+      <c r="H177" t="n">
+        <v>155.5333333333332</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>154</v>
+      </c>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1.025070377479207</v>
+      <c r="N177" t="n">
+        <v>1.055389610389611</v>
       </c>
     </row>
   </sheetData>

--- a/BackTest/2020-01-23 BackTest ABT.xlsx
+++ b/BackTest/2020-01-23 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>160</v>
+        <v>153.3</v>
       </c>
       <c r="C2" t="n">
-        <v>159</v>
+        <v>153.3</v>
       </c>
       <c r="D2" t="n">
-        <v>160</v>
+        <v>153.3</v>
       </c>
       <c r="E2" t="n">
-        <v>159</v>
+        <v>153.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1029.6007</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>145211.589</v>
+        <v>96524.04120000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>161</v>
+        <v>154.8</v>
       </c>
       <c r="C3" t="n">
-        <v>161</v>
+        <v>154.8</v>
       </c>
       <c r="D3" t="n">
-        <v>161</v>
+        <v>154.8</v>
       </c>
       <c r="E3" t="n">
-        <v>161</v>
+        <v>154.8</v>
       </c>
       <c r="F3" t="n">
-        <v>3.128</v>
+        <v>3.259</v>
       </c>
       <c r="G3" t="n">
-        <v>145214.717</v>
+        <v>96527.30020000003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>160.9</v>
+        <v>154.8</v>
       </c>
       <c r="C4" t="n">
-        <v>160.1</v>
+        <v>154.8</v>
       </c>
       <c r="D4" t="n">
-        <v>160.9</v>
+        <v>154.8</v>
       </c>
       <c r="E4" t="n">
-        <v>160.1</v>
+        <v>154.8</v>
       </c>
       <c r="F4" t="n">
-        <v>1859.473</v>
+        <v>105.2242</v>
       </c>
       <c r="G4" t="n">
-        <v>143355.244</v>
+        <v>96527.30020000003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>161.2</v>
+        <v>153.3</v>
       </c>
       <c r="C5" t="n">
-        <v>161.1</v>
+        <v>153.3</v>
       </c>
       <c r="D5" t="n">
-        <v>162</v>
+        <v>153.3</v>
       </c>
       <c r="E5" t="n">
-        <v>161.1</v>
+        <v>153.3</v>
       </c>
       <c r="F5" t="n">
-        <v>6345.1283</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>149700.3723</v>
+        <v>96524.00020000002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>162.9</v>
+        <v>153.3</v>
       </c>
       <c r="C6" t="n">
-        <v>162.2</v>
+        <v>153.3</v>
       </c>
       <c r="D6" t="n">
-        <v>162.9</v>
+        <v>153.3</v>
       </c>
       <c r="E6" t="n">
-        <v>162.2</v>
+        <v>153.3</v>
       </c>
       <c r="F6" t="n">
-        <v>3897.729</v>
+        <v>1500</v>
       </c>
       <c r="G6" t="n">
-        <v>153598.1013</v>
+        <v>96524.00020000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>162.1</v>
+        <v>153.3</v>
       </c>
       <c r="C7" t="n">
-        <v>162.1</v>
+        <v>154</v>
       </c>
       <c r="D7" t="n">
-        <v>162.1</v>
+        <v>154</v>
       </c>
       <c r="E7" t="n">
-        <v>162.1</v>
+        <v>153.2</v>
       </c>
       <c r="F7" t="n">
-        <v>804</v>
+        <v>2479.6202</v>
       </c>
       <c r="G7" t="n">
-        <v>152794.1013</v>
+        <v>99003.62040000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>161.2</v>
+        <v>154</v>
       </c>
       <c r="C8" t="n">
-        <v>162.1</v>
+        <v>154</v>
       </c>
       <c r="D8" t="n">
-        <v>162.1</v>
+        <v>154</v>
       </c>
       <c r="E8" t="n">
-        <v>161.2</v>
+        <v>153</v>
       </c>
       <c r="F8" t="n">
-        <v>803.9996</v>
+        <v>4347.6101</v>
       </c>
       <c r="G8" t="n">
-        <v>152794.1013</v>
+        <v>99003.62040000003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C9" t="n">
-        <v>161.1</v>
+        <v>153</v>
       </c>
       <c r="D9" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E9" t="n">
-        <v>161.1</v>
+        <v>153</v>
       </c>
       <c r="F9" t="n">
-        <v>6743.9021</v>
+        <v>105.2242</v>
       </c>
       <c r="G9" t="n">
-        <v>146050.1992</v>
+        <v>98898.39620000003</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>161.1</v>
+        <v>154.9</v>
       </c>
       <c r="C10" t="n">
-        <v>160.2</v>
+        <v>154.9</v>
       </c>
       <c r="D10" t="n">
-        <v>161.1</v>
+        <v>154.9</v>
       </c>
       <c r="E10" t="n">
-        <v>160.2</v>
+        <v>154.9</v>
       </c>
       <c r="F10" t="n">
-        <v>2576.7128</v>
+        <v>224.4445</v>
       </c>
       <c r="G10" t="n">
-        <v>143473.4864</v>
+        <v>99122.84070000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>160.1</v>
+        <v>154.9</v>
       </c>
       <c r="C11" t="n">
-        <v>159.3</v>
+        <v>154.9</v>
       </c>
       <c r="D11" t="n">
-        <v>160.1</v>
+        <v>154.9</v>
       </c>
       <c r="E11" t="n">
-        <v>159.3</v>
+        <v>154.9</v>
       </c>
       <c r="F11" t="n">
-        <v>9388.2438</v>
+        <v>2970.2376</v>
       </c>
       <c r="G11" t="n">
-        <v>134085.2426</v>
+        <v>99122.84070000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C12" t="n">
-        <v>160</v>
+        <v>155.9</v>
       </c>
       <c r="D12" t="n">
-        <v>160</v>
+        <v>155.9</v>
       </c>
       <c r="E12" t="n">
-        <v>160</v>
+        <v>153.1</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>3450</v>
       </c>
       <c r="G12" t="n">
-        <v>134092.2426</v>
+        <v>102572.8407</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,133 +827,157 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>161.6</v>
+        <v>154</v>
       </c>
       <c r="C13" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D13" t="n">
-        <v>161.6</v>
+        <v>154</v>
       </c>
       <c r="E13" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F13" t="n">
-        <v>547.8452</v>
+        <v>535.1581</v>
       </c>
       <c r="G13" t="n">
-        <v>134092.2426</v>
+        <v>102037.6826</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>155.9</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>159.4</v>
+        <v>153.1</v>
       </c>
       <c r="C14" t="n">
-        <v>160</v>
+        <v>153.1</v>
       </c>
       <c r="D14" t="n">
-        <v>160</v>
+        <v>153.1</v>
       </c>
       <c r="E14" t="n">
-        <v>159.3</v>
+        <v>153.1</v>
       </c>
       <c r="F14" t="n">
-        <v>2150.7699</v>
+        <v>1500</v>
       </c>
       <c r="G14" t="n">
-        <v>134092.2426</v>
+        <v>100537.6826</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>154</v>
+      </c>
+      <c r="K14" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C15" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D15" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E15" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F15" t="n">
-        <v>19.3557</v>
+        <v>998.921</v>
       </c>
       <c r="G15" t="n">
-        <v>134092.2426</v>
+        <v>99538.76160000003</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159.9</v>
+        <v>152.2</v>
       </c>
       <c r="C16" t="n">
-        <v>159.2</v>
+        <v>152.2</v>
       </c>
       <c r="D16" t="n">
-        <v>159.9</v>
+        <v>152.2</v>
       </c>
       <c r="E16" t="n">
-        <v>159.2</v>
+        <v>152.2</v>
       </c>
       <c r="F16" t="n">
-        <v>4605.3036</v>
+        <v>1500</v>
       </c>
       <c r="G16" t="n">
-        <v>129486.939</v>
+        <v>98038.76160000003</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,168 +991,197 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>159.1</v>
+        <v>156</v>
       </c>
       <c r="C17" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D17" t="n">
-        <v>159.1</v>
+        <v>156</v>
       </c>
       <c r="E17" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F17" t="n">
-        <v>8785.688700000001</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>120701.2503</v>
+        <v>98048.76160000003</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>152.2</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>159.1</v>
+        <v>152.3</v>
       </c>
       <c r="C18" t="n">
-        <v>158.9</v>
+        <v>152.3</v>
       </c>
       <c r="D18" t="n">
-        <v>159.9</v>
+        <v>152.3</v>
       </c>
       <c r="E18" t="n">
-        <v>158</v>
+        <v>152.3</v>
       </c>
       <c r="F18" t="n">
-        <v>17396.9081</v>
+        <v>1500</v>
       </c>
       <c r="G18" t="n">
-        <v>103304.3422</v>
+        <v>96548.76160000003</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>156</v>
+      </c>
+      <c r="K18" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>158.9</v>
+        <v>153.1</v>
       </c>
       <c r="C19" t="n">
-        <v>150.1</v>
+        <v>153.1</v>
       </c>
       <c r="D19" t="n">
-        <v>158.9</v>
+        <v>153.1</v>
       </c>
       <c r="E19" t="n">
-        <v>150.1</v>
+        <v>153.1</v>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>1370.1263</v>
       </c>
       <c r="G19" t="n">
-        <v>103254.3422</v>
+        <v>97918.88790000003</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>157.3</v>
+        <v>154</v>
       </c>
       <c r="C20" t="n">
-        <v>157.3</v>
+        <v>155.9</v>
       </c>
       <c r="D20" t="n">
-        <v>157.3</v>
+        <v>155.9</v>
       </c>
       <c r="E20" t="n">
-        <v>157.3</v>
+        <v>154</v>
       </c>
       <c r="F20" t="n">
-        <v>19.3557</v>
+        <v>702.558</v>
       </c>
       <c r="G20" t="n">
-        <v>103273.6979</v>
+        <v>98621.44590000004</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>153.1</v>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>157.1</v>
+        <v>155.9</v>
       </c>
       <c r="C21" t="n">
-        <v>156.4</v>
+        <v>155.9</v>
       </c>
       <c r="D21" t="n">
-        <v>157.1</v>
+        <v>155.9</v>
       </c>
       <c r="E21" t="n">
-        <v>156.4</v>
+        <v>154</v>
       </c>
       <c r="F21" t="n">
-        <v>2995.3328</v>
+        <v>1524.08</v>
       </c>
       <c r="G21" t="n">
-        <v>100278.3651</v>
+        <v>98621.44590000004</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1190,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>156.3</v>
+        <v>156</v>
       </c>
       <c r="C22" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D22" t="n">
-        <v>156.3</v>
+        <v>156</v>
       </c>
       <c r="E22" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F22" t="n">
-        <v>6321.4242</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="G22" t="n">
-        <v>93956.9409</v>
+        <v>98659.90743846157</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1232,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>156.3</v>
+        <v>154.1</v>
       </c>
       <c r="C23" t="n">
-        <v>158.7</v>
+        <v>154.1</v>
       </c>
       <c r="D23" t="n">
-        <v>158.7</v>
+        <v>154.1</v>
       </c>
       <c r="E23" t="n">
-        <v>156.3</v>
+        <v>154.1</v>
       </c>
       <c r="F23" t="n">
-        <v>1500</v>
+        <v>505.332</v>
       </c>
       <c r="G23" t="n">
-        <v>95456.9409</v>
+        <v>98154.57543846157</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1279,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>157.4</v>
+        <v>154.1</v>
       </c>
       <c r="C24" t="n">
-        <v>157.4</v>
+        <v>155</v>
       </c>
       <c r="D24" t="n">
-        <v>157.4</v>
+        <v>155</v>
       </c>
       <c r="E24" t="n">
-        <v>157.4</v>
+        <v>151</v>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>8453.808800000001</v>
       </c>
       <c r="G24" t="n">
-        <v>95256.9409</v>
+        <v>106608.3842384616</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1315,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>158.5</v>
+        <v>155</v>
       </c>
       <c r="C25" t="n">
-        <v>158.5</v>
+        <v>155</v>
       </c>
       <c r="D25" t="n">
-        <v>158.5</v>
+        <v>155</v>
       </c>
       <c r="E25" t="n">
-        <v>158.5</v>
+        <v>155</v>
       </c>
       <c r="F25" t="n">
-        <v>3.182</v>
+        <v>1663</v>
       </c>
       <c r="G25" t="n">
-        <v>95260.1229</v>
+        <v>106608.3842384616</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1351,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>160.7</v>
+        <v>153</v>
       </c>
       <c r="C26" t="n">
-        <v>160.7</v>
+        <v>153</v>
       </c>
       <c r="D26" t="n">
-        <v>160.7</v>
+        <v>153</v>
       </c>
       <c r="E26" t="n">
-        <v>160.7</v>
+        <v>153</v>
       </c>
       <c r="F26" t="n">
-        <v>3.334</v>
+        <v>1575.4606</v>
       </c>
       <c r="G26" t="n">
-        <v>95263.4569</v>
+        <v>105032.9236384616</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1387,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>166.9</v>
+        <v>151.1</v>
       </c>
       <c r="C27" t="n">
-        <v>166.9</v>
+        <v>147</v>
       </c>
       <c r="D27" t="n">
-        <v>166.9</v>
+        <v>151.1</v>
       </c>
       <c r="E27" t="n">
-        <v>166.9</v>
+        <v>147</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2970.2376</v>
       </c>
       <c r="G27" t="n">
-        <v>95266.4569</v>
+        <v>102062.6860384616</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,34 +1423,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>161.2</v>
+        <v>152</v>
       </c>
       <c r="C28" t="n">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D28" t="n">
-        <v>161.3</v>
+        <v>152</v>
       </c>
       <c r="E28" t="n">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F28" t="n">
-        <v>2156.4606</v>
+        <v>5337.1564</v>
       </c>
       <c r="G28" t="n">
-        <v>93109.9963</v>
+        <v>102062.6860384616</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,28 +1459,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>159</v>
+        <v>148.1</v>
       </c>
       <c r="C29" t="n">
-        <v>158</v>
+        <v>148.1</v>
       </c>
       <c r="D29" t="n">
-        <v>159</v>
+        <v>148.1</v>
       </c>
       <c r="E29" t="n">
-        <v>158</v>
+        <v>148.1</v>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>1083.9945</v>
       </c>
       <c r="G29" t="n">
-        <v>92859.9963</v>
+        <v>103146.6805384616</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1495,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>158</v>
+        <v>148.1</v>
       </c>
       <c r="C30" t="n">
-        <v>158</v>
+        <v>148.1</v>
       </c>
       <c r="D30" t="n">
-        <v>158</v>
+        <v>148.1</v>
       </c>
       <c r="E30" t="n">
-        <v>158</v>
+        <v>148.1</v>
       </c>
       <c r="F30" t="n">
-        <v>17</v>
+        <v>576.6618999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>92859.9963</v>
+        <v>103146.6805384616</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,98 +1531,113 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>159.9</v>
+        <v>148.1</v>
       </c>
       <c r="C31" t="n">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D31" t="n">
-        <v>159.9</v>
+        <v>148.1</v>
       </c>
       <c r="E31" t="n">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F31" t="n">
-        <v>20.208</v>
+        <v>3026.8479</v>
       </c>
       <c r="G31" t="n">
-        <v>92859.9963</v>
+        <v>100119.8326384616</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>148.1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>157.2</v>
+        <v>152</v>
       </c>
       <c r="C32" t="n">
-        <v>157.2</v>
+        <v>153.4</v>
       </c>
       <c r="D32" t="n">
-        <v>157.2</v>
+        <v>153.4</v>
       </c>
       <c r="E32" t="n">
-        <v>157.2</v>
+        <v>152</v>
       </c>
       <c r="F32" t="n">
-        <v>17</v>
+        <v>1978.207</v>
       </c>
       <c r="G32" t="n">
-        <v>92842.9963</v>
+        <v>102098.0396384616</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>148</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>160.4</v>
+        <v>153.4</v>
       </c>
       <c r="C33" t="n">
-        <v>157.2</v>
+        <v>153.4</v>
       </c>
       <c r="D33" t="n">
-        <v>160.4</v>
+        <v>153.4</v>
       </c>
       <c r="E33" t="n">
-        <v>157.2</v>
+        <v>153.4</v>
       </c>
       <c r="F33" t="n">
-        <v>6591.9064</v>
+        <v>511.1113</v>
       </c>
       <c r="G33" t="n">
-        <v>92842.9963</v>
+        <v>102098.0396384616</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,32 +1647,37 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>157.2</v>
+        <v>153.4</v>
       </c>
       <c r="C34" t="n">
-        <v>157.2</v>
+        <v>153.4</v>
       </c>
       <c r="D34" t="n">
-        <v>157.2</v>
+        <v>153.4</v>
       </c>
       <c r="E34" t="n">
-        <v>157.2</v>
+        <v>153.4</v>
       </c>
       <c r="F34" t="n">
-        <v>2087.8834</v>
+        <v>4082.2381</v>
       </c>
       <c r="G34" t="n">
-        <v>92842.9963</v>
+        <v>102098.0396384616</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,32 +1687,37 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>156.1</v>
+        <v>155</v>
       </c>
       <c r="C35" t="n">
-        <v>156.1</v>
+        <v>155</v>
       </c>
       <c r="D35" t="n">
-        <v>156.1</v>
+        <v>155</v>
       </c>
       <c r="E35" t="n">
-        <v>156.1</v>
+        <v>155</v>
       </c>
       <c r="F35" t="n">
-        <v>1500</v>
+        <v>3.252</v>
       </c>
       <c r="G35" t="n">
-        <v>91342.9963</v>
+        <v>102101.2916384616</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,32 +1727,37 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>156.1</v>
+        <v>152.1</v>
       </c>
       <c r="C36" t="n">
-        <v>156.1</v>
+        <v>156.8</v>
       </c>
       <c r="D36" t="n">
-        <v>156.1</v>
+        <v>156.8</v>
       </c>
       <c r="E36" t="n">
-        <v>156.1</v>
+        <v>151.3</v>
       </c>
       <c r="F36" t="n">
-        <v>1500</v>
+        <v>28170.2101</v>
       </c>
       <c r="G36" t="n">
-        <v>91342.9963</v>
+        <v>130271.5017384616</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,32 +1767,37 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>156.1</v>
+        <v>156.8</v>
       </c>
       <c r="C37" t="n">
-        <v>156.1</v>
+        <v>158</v>
       </c>
       <c r="D37" t="n">
-        <v>156.1</v>
+        <v>158</v>
       </c>
       <c r="E37" t="n">
-        <v>156</v>
+        <v>156.8</v>
       </c>
       <c r="F37" t="n">
-        <v>3490.8102</v>
+        <v>2615</v>
       </c>
       <c r="G37" t="n">
-        <v>91342.9963</v>
+        <v>132886.5017384615</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,32 +1807,37 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>156.2</v>
+        <v>153.3</v>
       </c>
       <c r="C38" t="n">
-        <v>158</v>
+        <v>153.3</v>
       </c>
       <c r="D38" t="n">
-        <v>158</v>
+        <v>153.3</v>
       </c>
       <c r="E38" t="n">
-        <v>156.2</v>
+        <v>153.3</v>
       </c>
       <c r="F38" t="n">
-        <v>1489.6043</v>
+        <v>179.228</v>
       </c>
       <c r="G38" t="n">
-        <v>92832.60060000001</v>
+        <v>132707.2737384615</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,32 +1847,37 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C39" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D39" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E39" t="n">
-        <v>154.6</v>
+        <v>154</v>
       </c>
       <c r="F39" t="n">
-        <v>4830.8326</v>
+        <v>468.2404</v>
       </c>
       <c r="G39" t="n">
-        <v>88001.76800000001</v>
+        <v>133175.5141384616</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,32 +1887,37 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>156.9</v>
+        <v>154.1</v>
       </c>
       <c r="C40" t="n">
-        <v>156.9</v>
+        <v>154.1</v>
       </c>
       <c r="D40" t="n">
-        <v>156.9</v>
+        <v>154.1</v>
       </c>
       <c r="E40" t="n">
-        <v>156.9</v>
+        <v>154.1</v>
       </c>
       <c r="F40" t="n">
-        <v>1627.4248</v>
+        <v>517</v>
       </c>
       <c r="G40" t="n">
-        <v>86374.34320000002</v>
+        <v>133692.5141384616</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,32 +1927,37 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>151.1</v>
+        <v>153</v>
       </c>
       <c r="C41" t="n">
-        <v>151.1</v>
+        <v>153</v>
       </c>
       <c r="D41" t="n">
-        <v>151.1</v>
+        <v>153</v>
       </c>
       <c r="E41" t="n">
-        <v>151.1</v>
+        <v>153</v>
       </c>
       <c r="F41" t="n">
-        <v>3.4</v>
+        <v>468.24</v>
       </c>
       <c r="G41" t="n">
-        <v>86370.94320000002</v>
+        <v>133224.2741384616</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,32 +1967,37 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C42" t="n">
-        <v>153</v>
+        <v>153.5</v>
       </c>
       <c r="D42" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E42" t="n">
-        <v>153</v>
+        <v>153.5</v>
       </c>
       <c r="F42" t="n">
-        <v>5057.494</v>
+        <v>2492.3185</v>
       </c>
       <c r="G42" t="n">
-        <v>91428.43720000003</v>
+        <v>135716.5926384616</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,32 +2007,37 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>154</v>
+        <v>153.3</v>
       </c>
       <c r="C43" t="n">
-        <v>154</v>
+        <v>153.1</v>
       </c>
       <c r="D43" t="n">
-        <v>154</v>
+        <v>153.3</v>
       </c>
       <c r="E43" t="n">
-        <v>154</v>
+        <v>153.1</v>
       </c>
       <c r="F43" t="n">
-        <v>5098.904</v>
+        <v>517</v>
       </c>
       <c r="G43" t="n">
-        <v>96527.34120000002</v>
+        <v>135199.5926384616</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,32 +2047,37 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>153.3</v>
+        <v>147.1</v>
       </c>
       <c r="C44" t="n">
-        <v>153.3</v>
+        <v>147.1</v>
       </c>
       <c r="D44" t="n">
-        <v>153.3</v>
+        <v>147.1</v>
       </c>
       <c r="E44" t="n">
-        <v>153.3</v>
+        <v>147.1</v>
       </c>
       <c r="F44" t="n">
-        <v>3.3</v>
+        <v>19.7842</v>
       </c>
       <c r="G44" t="n">
-        <v>96524.04120000002</v>
+        <v>135179.8084384616</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,32 +2087,37 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>154.8</v>
+        <v>155.9</v>
       </c>
       <c r="C45" t="n">
-        <v>154.8</v>
+        <v>155.9</v>
       </c>
       <c r="D45" t="n">
-        <v>154.8</v>
+        <v>155.9</v>
       </c>
       <c r="E45" t="n">
-        <v>154.8</v>
+        <v>155.9</v>
       </c>
       <c r="F45" t="n">
-        <v>3.259</v>
+        <v>13979.9393</v>
       </c>
       <c r="G45" t="n">
-        <v>96527.30020000003</v>
+        <v>149159.7477384616</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,32 +2127,37 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>154.8</v>
+        <v>154.9</v>
       </c>
       <c r="C46" t="n">
-        <v>154.8</v>
+        <v>155</v>
       </c>
       <c r="D46" t="n">
-        <v>154.8</v>
+        <v>155</v>
       </c>
       <c r="E46" t="n">
-        <v>154.8</v>
+        <v>154.9</v>
       </c>
       <c r="F46" t="n">
-        <v>105.2242</v>
+        <v>2000</v>
       </c>
       <c r="G46" t="n">
-        <v>96527.30020000003</v>
+        <v>147159.7477384616</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,32 +2167,37 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>153.3</v>
+        <v>155</v>
       </c>
       <c r="C47" t="n">
-        <v>153.3</v>
+        <v>155</v>
       </c>
       <c r="D47" t="n">
-        <v>153.3</v>
+        <v>155</v>
       </c>
       <c r="E47" t="n">
-        <v>153.3</v>
+        <v>155</v>
       </c>
       <c r="F47" t="n">
-        <v>3.3</v>
+        <v>500</v>
       </c>
       <c r="G47" t="n">
-        <v>96524.00020000002</v>
+        <v>147159.7477384616</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,32 +2207,37 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>153.3</v>
+        <v>155.1</v>
       </c>
       <c r="C48" t="n">
-        <v>153.3</v>
+        <v>155.1</v>
       </c>
       <c r="D48" t="n">
-        <v>153.3</v>
+        <v>155.1</v>
       </c>
       <c r="E48" t="n">
-        <v>153.3</v>
+        <v>155.1</v>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>154.1648</v>
       </c>
       <c r="G48" t="n">
-        <v>96524.00020000002</v>
+        <v>147313.9125384616</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,83 +2247,85 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>153.3</v>
+        <v>157</v>
       </c>
       <c r="C49" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D49" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E49" t="n">
-        <v>153.2</v>
+        <v>157</v>
       </c>
       <c r="F49" t="n">
-        <v>2479.6202</v>
+        <v>3.321</v>
       </c>
       <c r="G49" t="n">
-        <v>99003.62040000003</v>
+        <v>147317.2335384616</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>153.3</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C50" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D50" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E50" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F50" t="n">
-        <v>4347.6101</v>
+        <v>4.152</v>
       </c>
       <c r="G50" t="n">
-        <v>99003.62040000003</v>
+        <v>147317.2335384616</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>154</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2154,38 +2335,37 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>153</v>
+        <v>156.8</v>
       </c>
       <c r="C51" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D51" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E51" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F51" t="n">
-        <v>105.2242</v>
+        <v>750</v>
       </c>
       <c r="G51" t="n">
-        <v>98898.39620000003</v>
+        <v>148067.2335384616</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>154</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2195,28 +2375,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>154.9</v>
+        <v>158</v>
       </c>
       <c r="C52" t="n">
-        <v>154.9</v>
+        <v>158</v>
       </c>
       <c r="D52" t="n">
-        <v>154.9</v>
+        <v>158</v>
       </c>
       <c r="E52" t="n">
-        <v>154.9</v>
+        <v>158</v>
       </c>
       <c r="F52" t="n">
-        <v>224.4445</v>
+        <v>1019.0541</v>
       </c>
       <c r="G52" t="n">
-        <v>99122.84070000003</v>
+        <v>148067.2335384616</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2234,28 +2415,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>154.9</v>
+        <v>158</v>
       </c>
       <c r="C53" t="n">
-        <v>154.9</v>
+        <v>158</v>
       </c>
       <c r="D53" t="n">
-        <v>154.9</v>
+        <v>158</v>
       </c>
       <c r="E53" t="n">
-        <v>154.9</v>
+        <v>158</v>
       </c>
       <c r="F53" t="n">
-        <v>2970.2376</v>
+        <v>1028.0174</v>
       </c>
       <c r="G53" t="n">
-        <v>99122.84070000003</v>
+        <v>148067.2335384616</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2273,28 +2455,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C54" t="n">
-        <v>155.9</v>
+        <v>158</v>
       </c>
       <c r="D54" t="n">
-        <v>155.9</v>
+        <v>158</v>
       </c>
       <c r="E54" t="n">
-        <v>153.1</v>
+        <v>157</v>
       </c>
       <c r="F54" t="n">
-        <v>3450</v>
+        <v>1303.0596</v>
       </c>
       <c r="G54" t="n">
-        <v>102572.8407</v>
+        <v>148067.2335384616</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2312,28 +2495,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C55" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D55" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E55" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F55" t="n">
-        <v>535.1581</v>
+        <v>250</v>
       </c>
       <c r="G55" t="n">
-        <v>102037.6826</v>
+        <v>147817.2335384616</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2351,38 +2535,37 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>153.1</v>
+        <v>157</v>
       </c>
       <c r="C56" t="n">
-        <v>153.1</v>
+        <v>157</v>
       </c>
       <c r="D56" t="n">
-        <v>153.1</v>
+        <v>157</v>
       </c>
       <c r="E56" t="n">
-        <v>153.1</v>
+        <v>157</v>
       </c>
       <c r="F56" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
-        <v>100537.6826</v>
+        <v>147817.2335384616</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>154</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2392,38 +2575,37 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C57" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D57" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E57" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F57" t="n">
-        <v>998.921</v>
+        <v>328.239</v>
       </c>
       <c r="G57" t="n">
-        <v>99538.76160000003</v>
+        <v>148145.4725384616</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>153.1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2433,38 +2615,37 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>152.2</v>
+        <v>158</v>
       </c>
       <c r="C58" t="n">
-        <v>152.2</v>
+        <v>159</v>
       </c>
       <c r="D58" t="n">
-        <v>152.2</v>
+        <v>159</v>
       </c>
       <c r="E58" t="n">
-        <v>152.2</v>
+        <v>158</v>
       </c>
       <c r="F58" t="n">
-        <v>1500</v>
+        <v>513.8171</v>
       </c>
       <c r="G58" t="n">
-        <v>98038.76160000003</v>
+        <v>148659.2896384615</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>153</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2474,38 +2655,37 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C59" t="n">
-        <v>156</v>
+        <v>159.1</v>
       </c>
       <c r="D59" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E59" t="n">
-        <v>156</v>
+        <v>159.1</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>750</v>
       </c>
       <c r="G59" t="n">
-        <v>98048.76160000003</v>
+        <v>149409.2896384615</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>152.2</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -2515,28 +2695,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>152.3</v>
+        <v>162.9</v>
       </c>
       <c r="C60" t="n">
-        <v>152.3</v>
+        <v>159</v>
       </c>
       <c r="D60" t="n">
-        <v>152.3</v>
+        <v>162.9</v>
       </c>
       <c r="E60" t="n">
-        <v>152.3</v>
+        <v>159</v>
       </c>
       <c r="F60" t="n">
-        <v>1500</v>
+        <v>16045.773</v>
       </c>
       <c r="G60" t="n">
-        <v>96548.76160000003</v>
+        <v>133363.5166384616</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2554,28 +2735,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>153.1</v>
+        <v>162.9</v>
       </c>
       <c r="C61" t="n">
-        <v>153.1</v>
+        <v>162.9</v>
       </c>
       <c r="D61" t="n">
-        <v>153.1</v>
+        <v>162.9</v>
       </c>
       <c r="E61" t="n">
-        <v>153.1</v>
+        <v>162.9</v>
       </c>
       <c r="F61" t="n">
-        <v>1370.1263</v>
+        <v>181.345</v>
       </c>
       <c r="G61" t="n">
-        <v>97918.88790000003</v>
+        <v>133544.8616384616</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2593,28 +2775,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C62" t="n">
-        <v>155.9</v>
+        <v>162</v>
       </c>
       <c r="D62" t="n">
-        <v>155.9</v>
+        <v>162</v>
       </c>
       <c r="E62" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F62" t="n">
-        <v>702.558</v>
+        <v>2300.9392</v>
       </c>
       <c r="G62" t="n">
-        <v>98621.44590000004</v>
+        <v>131243.9224384616</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2632,28 +2815,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>155.9</v>
+        <v>162</v>
       </c>
       <c r="C63" t="n">
-        <v>155.9</v>
+        <v>162.9</v>
       </c>
       <c r="D63" t="n">
-        <v>155.9</v>
+        <v>162.9</v>
       </c>
       <c r="E63" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F63" t="n">
-        <v>1524.08</v>
+        <v>1344.0238</v>
       </c>
       <c r="G63" t="n">
-        <v>98621.44590000004</v>
+        <v>132587.9462384616</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2671,28 +2855,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C64" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D64" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E64" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F64" t="n">
-        <v>38.46153846153846</v>
+        <v>4262.5119</v>
       </c>
       <c r="G64" t="n">
-        <v>98659.90743846157</v>
+        <v>128325.4343384616</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2710,28 +2895,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>154.1</v>
+        <v>160</v>
       </c>
       <c r="C65" t="n">
-        <v>154.1</v>
+        <v>160</v>
       </c>
       <c r="D65" t="n">
-        <v>154.1</v>
+        <v>160</v>
       </c>
       <c r="E65" t="n">
-        <v>154.1</v>
+        <v>160</v>
       </c>
       <c r="F65" t="n">
-        <v>505.332</v>
+        <v>360.9067</v>
       </c>
       <c r="G65" t="n">
-        <v>98154.57543846157</v>
+        <v>128686.3410384616</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2749,28 +2935,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>154.1</v>
+        <v>161</v>
       </c>
       <c r="C66" t="n">
-        <v>155</v>
+        <v>161.9</v>
       </c>
       <c r="D66" t="n">
-        <v>155</v>
+        <v>161.9</v>
       </c>
       <c r="E66" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F66" t="n">
-        <v>8453.808800000001</v>
+        <v>1718.3994</v>
       </c>
       <c r="G66" t="n">
-        <v>106608.3842384616</v>
+        <v>130404.7404384616</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2788,28 +2975,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C67" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D67" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E67" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F67" t="n">
-        <v>1663</v>
+        <v>3.181</v>
       </c>
       <c r="G67" t="n">
-        <v>106608.3842384616</v>
+        <v>130407.9214384616</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2827,38 +3015,37 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C68" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D68" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E68" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F68" t="n">
-        <v>1575.4606</v>
+        <v>133.5313</v>
       </c>
       <c r="G68" t="n">
-        <v>105032.9236384616</v>
+        <v>130407.9214384616</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>155</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -2868,781 +3055,715 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>151.1</v>
+        <v>163.9</v>
       </c>
       <c r="C69" t="n">
-        <v>147</v>
+        <v>163.1</v>
       </c>
       <c r="D69" t="n">
-        <v>151.1</v>
+        <v>163.9</v>
       </c>
       <c r="E69" t="n">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="F69" t="n">
-        <v>2970.2376</v>
+        <v>18223.9614</v>
       </c>
       <c r="G69" t="n">
-        <v>102062.6860384616</v>
+        <v>148631.8828384615</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>152</v>
+        <v>162.2</v>
       </c>
       <c r="C70" t="n">
-        <v>147</v>
+        <v>162.1</v>
       </c>
       <c r="D70" t="n">
-        <v>152</v>
+        <v>167.8</v>
       </c>
       <c r="E70" t="n">
-        <v>147</v>
+        <v>162.1</v>
       </c>
       <c r="F70" t="n">
-        <v>5337.1564</v>
+        <v>17686.54921515151</v>
       </c>
       <c r="G70" t="n">
-        <v>102062.6860384616</v>
+        <v>130945.33362331</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>147</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>148.1</v>
+        <v>164.9</v>
       </c>
       <c r="C71" t="n">
-        <v>148.1</v>
+        <v>163.1</v>
       </c>
       <c r="D71" t="n">
-        <v>148.1</v>
+        <v>167.8</v>
       </c>
       <c r="E71" t="n">
-        <v>148.1</v>
+        <v>163.1</v>
       </c>
       <c r="F71" t="n">
-        <v>1083.9945</v>
+        <v>2568.077115256257</v>
       </c>
       <c r="G71" t="n">
-        <v>103146.6805384616</v>
+        <v>133513.4107385663</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>147</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>148.1</v>
+        <v>163.1</v>
       </c>
       <c r="C72" t="n">
-        <v>148.1</v>
+        <v>163.1</v>
       </c>
       <c r="D72" t="n">
-        <v>148.1</v>
+        <v>163.1</v>
       </c>
       <c r="E72" t="n">
-        <v>148.1</v>
+        <v>163.1</v>
       </c>
       <c r="F72" t="n">
-        <v>576.6618999999999</v>
+        <v>154.4332</v>
       </c>
       <c r="G72" t="n">
-        <v>103146.6805384616</v>
+        <v>133513.4107385663</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>148.1</v>
+        <v>165.6</v>
       </c>
       <c r="C73" t="n">
-        <v>148</v>
+        <v>164.6</v>
       </c>
       <c r="D73" t="n">
-        <v>148.1</v>
+        <v>165.6</v>
       </c>
       <c r="E73" t="n">
-        <v>148</v>
+        <v>164.6</v>
       </c>
       <c r="F73" t="n">
-        <v>3026.8479</v>
+        <v>580.8295000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>100119.8326384616</v>
+        <v>134094.2402385663</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>148.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>152</v>
+        <v>164.5</v>
       </c>
       <c r="C74" t="n">
-        <v>153.4</v>
+        <v>163.1</v>
       </c>
       <c r="D74" t="n">
-        <v>153.4</v>
+        <v>165</v>
       </c>
       <c r="E74" t="n">
-        <v>152</v>
+        <v>163.1</v>
       </c>
       <c r="F74" t="n">
-        <v>1978.207</v>
+        <v>9759.2937</v>
       </c>
       <c r="G74" t="n">
-        <v>102098.0396384616</v>
+        <v>124334.9465385663</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>148</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>153.4</v>
+        <v>164</v>
       </c>
       <c r="C75" t="n">
-        <v>153.4</v>
+        <v>163.1</v>
       </c>
       <c r="D75" t="n">
-        <v>153.4</v>
+        <v>164</v>
       </c>
       <c r="E75" t="n">
-        <v>153.4</v>
+        <v>163.1</v>
       </c>
       <c r="F75" t="n">
-        <v>511.1113</v>
+        <v>302.8728</v>
       </c>
       <c r="G75" t="n">
-        <v>102098.0396384616</v>
+        <v>124334.9465385663</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>153.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>153.4</v>
+        <v>162.3</v>
       </c>
       <c r="C76" t="n">
-        <v>153.4</v>
+        <v>162.3</v>
       </c>
       <c r="D76" t="n">
-        <v>153.4</v>
+        <v>162.3</v>
       </c>
       <c r="E76" t="n">
-        <v>153.4</v>
+        <v>162.3</v>
       </c>
       <c r="F76" t="n">
-        <v>4082.2381</v>
+        <v>283.0708</v>
       </c>
       <c r="G76" t="n">
-        <v>102098.0396384616</v>
+        <v>124051.8757385663</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>155</v>
+        <v>162.3</v>
       </c>
       <c r="C77" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D77" t="n">
-        <v>155</v>
+        <v>162.3</v>
       </c>
       <c r="E77" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F77" t="n">
-        <v>3.252</v>
+        <v>24836.4732</v>
       </c>
       <c r="G77" t="n">
-        <v>102101.2916384616</v>
+        <v>99215.4025385663</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>153.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>152.1</v>
+        <v>163.9</v>
       </c>
       <c r="C78" t="n">
-        <v>156.8</v>
+        <v>163.9</v>
       </c>
       <c r="D78" t="n">
-        <v>156.8</v>
+        <v>163.9</v>
       </c>
       <c r="E78" t="n">
-        <v>151.3</v>
+        <v>163.9</v>
       </c>
       <c r="F78" t="n">
-        <v>28170.2101</v>
+        <v>183.6997</v>
       </c>
       <c r="G78" t="n">
-        <v>130271.5017384616</v>
+        <v>99399.10223856629</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>156.8</v>
+        <v>163.9</v>
       </c>
       <c r="C79" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D79" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E79" t="n">
-        <v>156.8</v>
+        <v>162</v>
       </c>
       <c r="F79" t="n">
-        <v>2615</v>
+        <v>3462.5554</v>
       </c>
       <c r="G79" t="n">
-        <v>132886.5017384615</v>
+        <v>95936.5468385663</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>153.3</v>
+        <v>162</v>
       </c>
       <c r="C80" t="n">
-        <v>153.3</v>
+        <v>161</v>
       </c>
       <c r="D80" t="n">
-        <v>153.3</v>
+        <v>162</v>
       </c>
       <c r="E80" t="n">
-        <v>153.3</v>
+        <v>161</v>
       </c>
       <c r="F80" t="n">
-        <v>179.228</v>
+        <v>1515.1515</v>
       </c>
       <c r="G80" t="n">
-        <v>132707.2737384615</v>
+        <v>94421.3953385663</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>154</v>
+        <v>161.8</v>
       </c>
       <c r="C81" t="n">
-        <v>154</v>
+        <v>161.8</v>
       </c>
       <c r="D81" t="n">
-        <v>154</v>
+        <v>161.8</v>
       </c>
       <c r="E81" t="n">
-        <v>154</v>
+        <v>161.8</v>
       </c>
       <c r="F81" t="n">
-        <v>468.2404</v>
+        <v>3.129</v>
       </c>
       <c r="G81" t="n">
-        <v>133175.5141384616</v>
+        <v>94424.52433856631</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>154.1</v>
+        <v>161.8</v>
       </c>
       <c r="C82" t="n">
-        <v>154.1</v>
+        <v>161.8</v>
       </c>
       <c r="D82" t="n">
-        <v>154.1</v>
+        <v>161.8</v>
       </c>
       <c r="E82" t="n">
-        <v>154.1</v>
+        <v>161.8</v>
       </c>
       <c r="F82" t="n">
-        <v>517</v>
+        <v>1585.1925</v>
       </c>
       <c r="G82" t="n">
-        <v>133692.5141384616</v>
+        <v>94424.52433856631</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>153</v>
+        <v>161.8</v>
       </c>
       <c r="C83" t="n">
-        <v>153</v>
+        <v>161.2</v>
       </c>
       <c r="D83" t="n">
-        <v>153</v>
+        <v>161.8</v>
       </c>
       <c r="E83" t="n">
-        <v>153</v>
+        <v>161.2</v>
       </c>
       <c r="F83" t="n">
-        <v>468.24</v>
+        <v>7913.7639</v>
       </c>
       <c r="G83" t="n">
-        <v>133224.2741384616</v>
+        <v>86510.7604385663</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C84" t="n">
-        <v>153.5</v>
+        <v>163</v>
       </c>
       <c r="D84" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E84" t="n">
-        <v>153.5</v>
+        <v>163</v>
       </c>
       <c r="F84" t="n">
-        <v>2492.3185</v>
+        <v>1713.5026</v>
       </c>
       <c r="G84" t="n">
-        <v>135716.5926384616</v>
+        <v>88224.26303856631</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>153.3</v>
+        <v>162</v>
       </c>
       <c r="C85" t="n">
-        <v>153.1</v>
+        <v>162</v>
       </c>
       <c r="D85" t="n">
-        <v>153.3</v>
+        <v>162</v>
       </c>
       <c r="E85" t="n">
-        <v>153.1</v>
+        <v>162</v>
       </c>
       <c r="F85" t="n">
-        <v>517</v>
+        <v>495.8653</v>
       </c>
       <c r="G85" t="n">
-        <v>135199.5926384616</v>
+        <v>87728.3977385663</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>147.1</v>
+        <v>161</v>
       </c>
       <c r="C86" t="n">
-        <v>147.1</v>
+        <v>161</v>
       </c>
       <c r="D86" t="n">
-        <v>147.1</v>
+        <v>161</v>
       </c>
       <c r="E86" t="n">
-        <v>147.1</v>
+        <v>161</v>
       </c>
       <c r="F86" t="n">
-        <v>19.7842</v>
+        <v>5706.0917</v>
       </c>
       <c r="G86" t="n">
-        <v>135179.8084384616</v>
+        <v>82022.3060385663</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>155.9</v>
+        <v>150.8</v>
       </c>
       <c r="C87" t="n">
-        <v>155.9</v>
+        <v>150.8</v>
       </c>
       <c r="D87" t="n">
-        <v>155.9</v>
+        <v>150.8</v>
       </c>
       <c r="E87" t="n">
-        <v>155.9</v>
+        <v>150.8</v>
       </c>
       <c r="F87" t="n">
-        <v>13979.9393</v>
+        <v>206.7203</v>
       </c>
       <c r="G87" t="n">
-        <v>149159.7477384616</v>
+        <v>81815.5857385663</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>154.9</v>
+        <v>161</v>
       </c>
       <c r="C88" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D88" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E88" t="n">
-        <v>154.9</v>
+        <v>161</v>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>489.817</v>
       </c>
       <c r="G88" t="n">
-        <v>147159.7477384616</v>
+        <v>82305.40273856629</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3652,36 +3773,33 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>155</v>
+        <v>156.8</v>
       </c>
       <c r="C89" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D89" t="n">
-        <v>155</v>
+        <v>167.3</v>
       </c>
       <c r="E89" t="n">
-        <v>155</v>
+        <v>156.7</v>
       </c>
       <c r="F89" t="n">
-        <v>500</v>
+        <v>35781.7314</v>
       </c>
       <c r="G89" t="n">
-        <v>147159.7477384616</v>
+        <v>46523.6713385663</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3691,36 +3809,33 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>155.1</v>
+        <v>158.2</v>
       </c>
       <c r="C90" t="n">
-        <v>155.1</v>
+        <v>158.9</v>
       </c>
       <c r="D90" t="n">
-        <v>155.1</v>
+        <v>161</v>
       </c>
       <c r="E90" t="n">
-        <v>155.1</v>
+        <v>155.6</v>
       </c>
       <c r="F90" t="n">
-        <v>154.1648</v>
+        <v>5485.2874</v>
       </c>
       <c r="G90" t="n">
-        <v>147313.9125384616</v>
+        <v>52008.9587385663</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3730,36 +3845,33 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C91" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D91" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E91" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F91" t="n">
-        <v>3.321</v>
+        <v>444</v>
       </c>
       <c r="G91" t="n">
-        <v>147317.2335384616</v>
+        <v>51564.9587385663</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3769,36 +3881,33 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>157</v>
+        <v>158.9</v>
       </c>
       <c r="C92" t="n">
-        <v>157</v>
+        <v>156.8</v>
       </c>
       <c r="D92" t="n">
-        <v>157</v>
+        <v>159.2</v>
       </c>
       <c r="E92" t="n">
-        <v>157</v>
+        <v>156.8</v>
       </c>
       <c r="F92" t="n">
-        <v>4.152</v>
+        <v>4371.0897</v>
       </c>
       <c r="G92" t="n">
-        <v>147317.2335384616</v>
+        <v>47193.86903856629</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3808,36 +3917,33 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>156.8</v>
+        <v>157.2</v>
       </c>
       <c r="C93" t="n">
-        <v>158</v>
+        <v>157.2</v>
       </c>
       <c r="D93" t="n">
-        <v>158</v>
+        <v>157.2</v>
       </c>
       <c r="E93" t="n">
-        <v>156</v>
+        <v>157.2</v>
       </c>
       <c r="F93" t="n">
-        <v>750</v>
+        <v>1713.5026</v>
       </c>
       <c r="G93" t="n">
-        <v>148067.2335384616</v>
+        <v>48907.37163856629</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3847,14 +3953,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3873,10 +3976,10 @@
         <v>158</v>
       </c>
       <c r="F94" t="n">
-        <v>1019.0541</v>
+        <v>2131</v>
       </c>
       <c r="G94" t="n">
-        <v>148067.2335384616</v>
+        <v>51038.37163856629</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3886,21 +3989,18 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>158</v>
+        <v>157.2</v>
       </c>
       <c r="C95" t="n">
         <v>158</v>
@@ -3909,13 +4009,13 @@
         <v>158</v>
       </c>
       <c r="E95" t="n">
-        <v>158</v>
+        <v>157.2</v>
       </c>
       <c r="F95" t="n">
-        <v>1028.0174</v>
+        <v>748.2258</v>
       </c>
       <c r="G95" t="n">
-        <v>148067.2335384616</v>
+        <v>51038.37163856629</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3925,36 +4025,33 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C96" t="n">
-        <v>158</v>
+        <v>157.9</v>
       </c>
       <c r="D96" t="n">
-        <v>158</v>
+        <v>157.9</v>
       </c>
       <c r="E96" t="n">
         <v>157</v>
       </c>
       <c r="F96" t="n">
-        <v>1303.0596</v>
+        <v>500</v>
       </c>
       <c r="G96" t="n">
-        <v>148067.2335384616</v>
+        <v>50538.37163856629</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3964,36 +4061,33 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>158</v>
+        <v>156.5</v>
       </c>
       <c r="C97" t="n">
-        <v>157</v>
+        <v>156.5</v>
       </c>
       <c r="D97" t="n">
-        <v>158</v>
+        <v>156.5</v>
       </c>
       <c r="E97" t="n">
-        <v>157</v>
+        <v>156.5</v>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G97" t="n">
-        <v>147817.2335384616</v>
+        <v>50278.37163856629</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4003,36 +4097,33 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>157</v>
+        <v>155.5</v>
       </c>
       <c r="C98" t="n">
-        <v>157</v>
+        <v>156.4</v>
       </c>
       <c r="D98" t="n">
-        <v>157</v>
+        <v>156.4</v>
       </c>
       <c r="E98" t="n">
-        <v>157</v>
+        <v>155.5</v>
       </c>
       <c r="F98" t="n">
-        <v>100</v>
+        <v>2815.713</v>
       </c>
       <c r="G98" t="n">
-        <v>147817.2335384616</v>
+        <v>47462.65863856629</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4042,36 +4133,33 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>159</v>
+        <v>156.2</v>
       </c>
       <c r="C99" t="n">
-        <v>158</v>
+        <v>156.2</v>
       </c>
       <c r="D99" t="n">
-        <v>159</v>
+        <v>156.2</v>
       </c>
       <c r="E99" t="n">
-        <v>158</v>
+        <v>156.2</v>
       </c>
       <c r="F99" t="n">
-        <v>328.239</v>
+        <v>269.0983</v>
       </c>
       <c r="G99" t="n">
-        <v>148145.4725384616</v>
+        <v>47193.56033856629</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4081,36 +4169,33 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>158</v>
+        <v>156.2</v>
       </c>
       <c r="C100" t="n">
-        <v>159</v>
+        <v>156.2</v>
       </c>
       <c r="D100" t="n">
-        <v>159</v>
+        <v>156.2</v>
       </c>
       <c r="E100" t="n">
-        <v>158</v>
+        <v>156.2</v>
       </c>
       <c r="F100" t="n">
-        <v>513.8171</v>
+        <v>537.921</v>
       </c>
       <c r="G100" t="n">
-        <v>148659.2896384615</v>
+        <v>47193.56033856629</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4120,36 +4205,33 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>160</v>
+        <v>156.2</v>
       </c>
       <c r="C101" t="n">
-        <v>159.1</v>
+        <v>156.3</v>
       </c>
       <c r="D101" t="n">
-        <v>160</v>
+        <v>156.3</v>
       </c>
       <c r="E101" t="n">
-        <v>159.1</v>
+        <v>155.1</v>
       </c>
       <c r="F101" t="n">
-        <v>750</v>
+        <v>9389.397300000001</v>
       </c>
       <c r="G101" t="n">
-        <v>149409.2896384615</v>
+        <v>56582.95763856629</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4159,36 +4241,33 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>162.9</v>
+        <v>154.4</v>
       </c>
       <c r="C102" t="n">
-        <v>159</v>
+        <v>154.4</v>
       </c>
       <c r="D102" t="n">
-        <v>162.9</v>
+        <v>154.4</v>
       </c>
       <c r="E102" t="n">
-        <v>159</v>
+        <v>154.4</v>
       </c>
       <c r="F102" t="n">
-        <v>16045.773</v>
+        <v>4</v>
       </c>
       <c r="G102" t="n">
-        <v>133363.5166384616</v>
+        <v>56578.95763856629</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4198,75 +4277,73 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>162.9</v>
+        <v>154.1</v>
       </c>
       <c r="C103" t="n">
-        <v>162.9</v>
+        <v>154.1</v>
       </c>
       <c r="D103" t="n">
-        <v>162.9</v>
+        <v>154.1</v>
       </c>
       <c r="E103" t="n">
-        <v>162.9</v>
+        <v>154.1</v>
       </c>
       <c r="F103" t="n">
-        <v>181.345</v>
+        <v>2035.4724</v>
       </c>
       <c r="G103" t="n">
-        <v>133544.8616384616</v>
+        <v>54543.4852385663</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="K103" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>160</v>
+        <v>154.4</v>
       </c>
       <c r="C104" t="n">
-        <v>162</v>
+        <v>154.2</v>
       </c>
       <c r="D104" t="n">
-        <v>162</v>
+        <v>154.4</v>
       </c>
       <c r="E104" t="n">
-        <v>160</v>
+        <v>154.2</v>
       </c>
       <c r="F104" t="n">
-        <v>2300.9392</v>
+        <v>1233.9504</v>
       </c>
       <c r="G104" t="n">
-        <v>131243.9224384616</v>
+        <v>55777.4356385663</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4275,37 +4352,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C105" t="n">
-        <v>162.9</v>
+        <v>154</v>
       </c>
       <c r="D105" t="n">
-        <v>162.9</v>
+        <v>154</v>
       </c>
       <c r="E105" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F105" t="n">
-        <v>1344.0238</v>
+        <v>131.8913</v>
       </c>
       <c r="G105" t="n">
-        <v>132587.9462384616</v>
+        <v>55645.54433856629</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4314,7 +4394,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4323,28 +4405,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>162</v>
+        <v>153.9</v>
       </c>
       <c r="C106" t="n">
-        <v>159</v>
+        <v>153.9</v>
       </c>
       <c r="D106" t="n">
-        <v>162</v>
+        <v>153.9</v>
       </c>
       <c r="E106" t="n">
-        <v>159</v>
+        <v>153.9</v>
       </c>
       <c r="F106" t="n">
-        <v>4262.5119</v>
+        <v>750</v>
       </c>
       <c r="G106" t="n">
-        <v>128325.4343384616</v>
+        <v>54895.54433856629</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4353,7 +4436,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4362,28 +4447,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C107" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D107" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E107" t="n">
-        <v>160</v>
+        <v>152.5</v>
       </c>
       <c r="F107" t="n">
-        <v>360.9067</v>
+        <v>260</v>
       </c>
       <c r="G107" t="n">
-        <v>128686.3410384616</v>
+        <v>55155.54433856629</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4392,7 +4478,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4401,28 +4489,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>161</v>
+        <v>152.5</v>
       </c>
       <c r="C108" t="n">
-        <v>161.9</v>
+        <v>153</v>
       </c>
       <c r="D108" t="n">
-        <v>161.9</v>
+        <v>153</v>
       </c>
       <c r="E108" t="n">
-        <v>161</v>
+        <v>152.5</v>
       </c>
       <c r="F108" t="n">
-        <v>1718.3994</v>
+        <v>519.0983</v>
       </c>
       <c r="G108" t="n">
-        <v>130404.7404384616</v>
+        <v>54636.4460385663</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4431,7 +4520,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4440,37 +4531,42 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>162</v>
+        <v>155.9</v>
       </c>
       <c r="C109" t="n">
-        <v>162</v>
+        <v>155.9</v>
       </c>
       <c r="D109" t="n">
-        <v>162</v>
+        <v>155.9</v>
       </c>
       <c r="E109" t="n">
-        <v>162</v>
+        <v>155.9</v>
       </c>
       <c r="F109" t="n">
-        <v>3.181</v>
+        <v>3.218</v>
       </c>
       <c r="G109" t="n">
-        <v>130407.9214384616</v>
+        <v>54639.6640385663</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>153</v>
+      </c>
+      <c r="K109" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4479,28 +4575,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C110" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D110" t="n">
-        <v>162</v>
+        <v>155.4</v>
       </c>
       <c r="E110" t="n">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F110" t="n">
-        <v>133.5313</v>
+        <v>19842.3413</v>
       </c>
       <c r="G110" t="n">
-        <v>130407.9214384616</v>
+        <v>34797.3227385663</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4509,7 +4606,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4518,28 +4617,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>163.9</v>
+        <v>152.4</v>
       </c>
       <c r="C111" t="n">
-        <v>163.1</v>
+        <v>156.4</v>
       </c>
       <c r="D111" t="n">
-        <v>163.9</v>
+        <v>156.4</v>
       </c>
       <c r="E111" t="n">
-        <v>162</v>
+        <v>152.3</v>
       </c>
       <c r="F111" t="n">
-        <v>18223.9614</v>
+        <v>3542</v>
       </c>
       <c r="G111" t="n">
-        <v>148631.8828384615</v>
+        <v>38339.3227385663</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4548,7 +4648,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4557,28 +4659,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>162.2</v>
+        <v>151.5</v>
       </c>
       <c r="C112" t="n">
-        <v>162.1</v>
+        <v>153.4</v>
       </c>
       <c r="D112" t="n">
-        <v>167.8</v>
+        <v>165.6</v>
       </c>
       <c r="E112" t="n">
-        <v>162.1</v>
+        <v>151.2</v>
       </c>
       <c r="F112" t="n">
-        <v>17686.54921515151</v>
+        <v>13669.1312</v>
       </c>
       <c r="G112" t="n">
-        <v>130945.33362331</v>
+        <v>24670.1915385663</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4587,7 +4690,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4596,100 +4701,113 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>164.9</v>
+        <v>153.4</v>
       </c>
       <c r="C113" t="n">
-        <v>163.1</v>
+        <v>153.4</v>
       </c>
       <c r="D113" t="n">
-        <v>167.8</v>
+        <v>153.4</v>
       </c>
       <c r="E113" t="n">
-        <v>163.1</v>
+        <v>153.4</v>
       </c>
       <c r="F113" t="n">
-        <v>2568.077115256257</v>
+        <v>1961.9949</v>
       </c>
       <c r="G113" t="n">
-        <v>133513.4107385663</v>
+        <v>24670.1915385663</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>163.1</v>
+        <v>151.5</v>
       </c>
       <c r="C114" t="n">
-        <v>163.1</v>
+        <v>151.5</v>
       </c>
       <c r="D114" t="n">
-        <v>163.1</v>
+        <v>151.5</v>
       </c>
       <c r="E114" t="n">
-        <v>163.1</v>
+        <v>151.5</v>
       </c>
       <c r="F114" t="n">
-        <v>154.4332</v>
+        <v>191.0293</v>
       </c>
       <c r="G114" t="n">
-        <v>133513.4107385663</v>
+        <v>24479.1622385663</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>165.6</v>
+        <v>152</v>
       </c>
       <c r="C115" t="n">
-        <v>164.6</v>
+        <v>153.2</v>
       </c>
       <c r="D115" t="n">
-        <v>165.6</v>
+        <v>153.2</v>
       </c>
       <c r="E115" t="n">
-        <v>164.6</v>
+        <v>152</v>
       </c>
       <c r="F115" t="n">
-        <v>580.8295000000001</v>
+        <v>1089.021</v>
       </c>
       <c r="G115" t="n">
-        <v>134094.2402385663</v>
+        <v>25568.1832385663</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4698,138 +4816,166 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>164.5</v>
+        <v>152.5</v>
       </c>
       <c r="C116" t="n">
-        <v>163.1</v>
+        <v>152.5</v>
       </c>
       <c r="D116" t="n">
-        <v>165</v>
+        <v>152.5</v>
       </c>
       <c r="E116" t="n">
-        <v>163.1</v>
+        <v>152.5</v>
       </c>
       <c r="F116" t="n">
-        <v>9759.2937</v>
+        <v>1500</v>
       </c>
       <c r="G116" t="n">
-        <v>124334.9465385663</v>
+        <v>24068.1832385663</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C117" t="n">
-        <v>163.1</v>
+        <v>152.9</v>
       </c>
       <c r="D117" t="n">
-        <v>164</v>
+        <v>152.9</v>
       </c>
       <c r="E117" t="n">
-        <v>163.1</v>
+        <v>150</v>
       </c>
       <c r="F117" t="n">
-        <v>302.8728</v>
+        <v>875.1136</v>
       </c>
       <c r="G117" t="n">
-        <v>124334.9465385663</v>
+        <v>24943.2968385663</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>162.3</v>
+        <v>149.1</v>
       </c>
       <c r="C118" t="n">
-        <v>162.3</v>
+        <v>153</v>
       </c>
       <c r="D118" t="n">
-        <v>162.3</v>
+        <v>153</v>
       </c>
       <c r="E118" t="n">
-        <v>162.3</v>
+        <v>149.1</v>
       </c>
       <c r="F118" t="n">
-        <v>283.0708</v>
+        <v>12126.875</v>
       </c>
       <c r="G118" t="n">
-        <v>124051.8757385663</v>
+        <v>37070.1718385663</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>162.3</v>
+        <v>153</v>
       </c>
       <c r="C119" t="n">
-        <v>162</v>
+        <v>153.2</v>
       </c>
       <c r="D119" t="n">
-        <v>162.3</v>
+        <v>154</v>
       </c>
       <c r="E119" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F119" t="n">
-        <v>24836.4732</v>
+        <v>1600.5061</v>
       </c>
       <c r="G119" t="n">
-        <v>99215.4025385663</v>
+        <v>38670.6779385663</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4838,383 +4984,480 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>163.9</v>
+        <v>155.9</v>
       </c>
       <c r="C120" t="n">
-        <v>163.9</v>
+        <v>152.4</v>
       </c>
       <c r="D120" t="n">
-        <v>163.9</v>
+        <v>156</v>
       </c>
       <c r="E120" t="n">
-        <v>163.9</v>
+        <v>152.4</v>
       </c>
       <c r="F120" t="n">
-        <v>183.6997</v>
+        <v>3835.5666</v>
       </c>
       <c r="G120" t="n">
-        <v>99399.10223856629</v>
+        <v>34835.1113385663</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>153.2</v>
+      </c>
+      <c r="K120" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>163.9</v>
+        <v>150.4</v>
       </c>
       <c r="C121" t="n">
-        <v>162</v>
+        <v>153.9</v>
       </c>
       <c r="D121" t="n">
-        <v>164</v>
+        <v>153.9</v>
       </c>
       <c r="E121" t="n">
-        <v>162</v>
+        <v>150.4</v>
       </c>
       <c r="F121" t="n">
-        <v>3462.5554</v>
+        <v>2217.42</v>
       </c>
       <c r="G121" t="n">
-        <v>95936.5468385663</v>
+        <v>37052.5313385663</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="K121" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C122" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D122" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E122" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F122" t="n">
-        <v>1515.1515</v>
+        <v>500</v>
       </c>
       <c r="G122" t="n">
-        <v>94421.3953385663</v>
+        <v>36552.5313385663</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="K122" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>161.8</v>
+        <v>152.8</v>
       </c>
       <c r="C123" t="n">
-        <v>161.8</v>
+        <v>152.8</v>
       </c>
       <c r="D123" t="n">
-        <v>161.8</v>
+        <v>152.8</v>
       </c>
       <c r="E123" t="n">
-        <v>161.8</v>
+        <v>152.8</v>
       </c>
       <c r="F123" t="n">
-        <v>3.129</v>
+        <v>1830.0024</v>
       </c>
       <c r="G123" t="n">
-        <v>94424.52433856631</v>
+        <v>34722.5289385663</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>153</v>
+      </c>
+      <c r="K123" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>161.8</v>
+        <v>152.6</v>
       </c>
       <c r="C124" t="n">
-        <v>161.8</v>
+        <v>152.6</v>
       </c>
       <c r="D124" t="n">
-        <v>161.8</v>
+        <v>152.6</v>
       </c>
       <c r="E124" t="n">
-        <v>161.8</v>
+        <v>152.6</v>
       </c>
       <c r="F124" t="n">
-        <v>1585.1925</v>
+        <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>94424.52433856631</v>
+        <v>34622.5289385663</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="K124" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>161.8</v>
+        <v>151.8</v>
       </c>
       <c r="C125" t="n">
-        <v>161.2</v>
+        <v>151.8</v>
       </c>
       <c r="D125" t="n">
-        <v>161.8</v>
+        <v>151.8</v>
       </c>
       <c r="E125" t="n">
-        <v>161.2</v>
+        <v>151.8</v>
       </c>
       <c r="F125" t="n">
-        <v>7913.7639</v>
+        <v>86.16370000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>86510.7604385663</v>
+        <v>34536.3652385663</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>152.6</v>
+      </c>
+      <c r="K125" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>163</v>
+        <v>151.8</v>
       </c>
       <c r="C126" t="n">
-        <v>163</v>
+        <v>152.6</v>
       </c>
       <c r="D126" t="n">
-        <v>163</v>
+        <v>152.6</v>
       </c>
       <c r="E126" t="n">
-        <v>163</v>
+        <v>151.4</v>
       </c>
       <c r="F126" t="n">
-        <v>1713.5026</v>
+        <v>86.2319</v>
       </c>
       <c r="G126" t="n">
-        <v>88224.26303856631</v>
+        <v>34622.5971385663</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="K126" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>162</v>
+        <v>150.4</v>
       </c>
       <c r="C127" t="n">
-        <v>162</v>
+        <v>150.4</v>
       </c>
       <c r="D127" t="n">
-        <v>162</v>
+        <v>150.4</v>
       </c>
       <c r="E127" t="n">
-        <v>162</v>
+        <v>150.4</v>
       </c>
       <c r="F127" t="n">
-        <v>495.8653</v>
+        <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>87728.3977385663</v>
+        <v>34612.5971385663</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>152.6</v>
+      </c>
+      <c r="K127" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>161</v>
+        <v>152.7</v>
       </c>
       <c r="C128" t="n">
-        <v>161</v>
+        <v>152.7</v>
       </c>
       <c r="D128" t="n">
-        <v>161</v>
+        <v>152.7</v>
       </c>
       <c r="E128" t="n">
-        <v>161</v>
+        <v>152.7</v>
       </c>
       <c r="F128" t="n">
-        <v>5706.0917</v>
+        <v>23</v>
       </c>
       <c r="G128" t="n">
-        <v>82022.3060385663</v>
+        <v>34635.5971385663</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>150.4</v>
+      </c>
+      <c r="K128" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>150.8</v>
+        <v>152.7</v>
       </c>
       <c r="C129" t="n">
-        <v>150.8</v>
+        <v>154.9</v>
       </c>
       <c r="D129" t="n">
-        <v>150.8</v>
+        <v>155</v>
       </c>
       <c r="E129" t="n">
-        <v>150.8</v>
+        <v>152.5</v>
       </c>
       <c r="F129" t="n">
-        <v>206.7203</v>
+        <v>3502.5166</v>
       </c>
       <c r="G129" t="n">
-        <v>81815.5857385663</v>
+        <v>38138.1137385663</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="K129" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>161</v>
+        <v>154.9</v>
       </c>
       <c r="C130" t="n">
-        <v>161</v>
+        <v>138.5</v>
       </c>
       <c r="D130" t="n">
-        <v>161</v>
+        <v>154.9</v>
       </c>
       <c r="E130" t="n">
-        <v>161</v>
+        <v>138.5</v>
       </c>
       <c r="F130" t="n">
-        <v>489.817</v>
+        <v>13629.2756</v>
       </c>
       <c r="G130" t="n">
-        <v>82305.40273856629</v>
+        <v>24508.8381385663</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5223,33 +5466,40 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>156.8</v>
+        <v>154</v>
       </c>
       <c r="C131" t="n">
-        <v>157</v>
+        <v>158.9</v>
       </c>
       <c r="D131" t="n">
-        <v>167.3</v>
+        <v>160</v>
       </c>
       <c r="E131" t="n">
-        <v>156.7</v>
+        <v>152</v>
       </c>
       <c r="F131" t="n">
-        <v>35781.7314</v>
+        <v>3882.7835</v>
       </c>
       <c r="G131" t="n">
-        <v>46523.6713385663</v>
+        <v>28391.6216385663</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5258,103 +5508,124 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>158.2</v>
+        <v>156.3</v>
       </c>
       <c r="C132" t="n">
-        <v>158.9</v>
+        <v>156.3</v>
       </c>
       <c r="D132" t="n">
-        <v>161</v>
+        <v>156.3</v>
       </c>
       <c r="E132" t="n">
-        <v>155.6</v>
+        <v>156.3</v>
       </c>
       <c r="F132" t="n">
-        <v>5485.2874</v>
+        <v>501</v>
       </c>
       <c r="G132" t="n">
-        <v>52008.9587385663</v>
+        <v>27890.6216385663</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>158</v>
+        <v>156.3</v>
       </c>
       <c r="C133" t="n">
-        <v>158</v>
+        <v>156.3</v>
       </c>
       <c r="D133" t="n">
-        <v>158</v>
+        <v>156.3</v>
       </c>
       <c r="E133" t="n">
-        <v>158</v>
+        <v>156.3</v>
       </c>
       <c r="F133" t="n">
-        <v>444</v>
+        <v>638.4471</v>
       </c>
       <c r="G133" t="n">
-        <v>51564.9587385663</v>
+        <v>27890.6216385663</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>158.9</v>
+        <v>156.3</v>
       </c>
       <c r="C134" t="n">
-        <v>156.8</v>
+        <v>154.2</v>
       </c>
       <c r="D134" t="n">
-        <v>159.2</v>
+        <v>156.3</v>
       </c>
       <c r="E134" t="n">
-        <v>156.8</v>
+        <v>154.2</v>
       </c>
       <c r="F134" t="n">
-        <v>4371.0897</v>
+        <v>8</v>
       </c>
       <c r="G134" t="n">
-        <v>47193.86903856629</v>
+        <v>27882.6216385663</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5363,33 +5634,40 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>157.2</v>
+        <v>154.3</v>
       </c>
       <c r="C135" t="n">
-        <v>157.2</v>
+        <v>153.3</v>
       </c>
       <c r="D135" t="n">
-        <v>157.2</v>
+        <v>154.3</v>
       </c>
       <c r="E135" t="n">
-        <v>157.2</v>
+        <v>153.3</v>
       </c>
       <c r="F135" t="n">
-        <v>1713.5026</v>
+        <v>2108.8986</v>
       </c>
       <c r="G135" t="n">
-        <v>48907.37163856629</v>
+        <v>25773.7230385663</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5398,33 +5676,40 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>158</v>
+        <v>152.8</v>
       </c>
       <c r="C136" t="n">
-        <v>158</v>
+        <v>156.3</v>
       </c>
       <c r="D136" t="n">
-        <v>158</v>
+        <v>156.3</v>
       </c>
       <c r="E136" t="n">
-        <v>158</v>
+        <v>152.8</v>
       </c>
       <c r="F136" t="n">
-        <v>2131</v>
+        <v>4476.7002</v>
       </c>
       <c r="G136" t="n">
-        <v>51038.37163856629</v>
+        <v>30250.4232385663</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5433,33 +5718,40 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>157.2</v>
+        <v>158.5</v>
       </c>
       <c r="C137" t="n">
-        <v>158</v>
+        <v>158.5</v>
       </c>
       <c r="D137" t="n">
-        <v>158</v>
+        <v>158.5</v>
       </c>
       <c r="E137" t="n">
-        <v>157.2</v>
+        <v>158.5</v>
       </c>
       <c r="F137" t="n">
-        <v>748.2258</v>
+        <v>5</v>
       </c>
       <c r="G137" t="n">
-        <v>51038.37163856629</v>
+        <v>30255.4232385663</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5468,33 +5760,40 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>157</v>
+        <v>154.2</v>
       </c>
       <c r="C138" t="n">
-        <v>157.9</v>
+        <v>154.2</v>
       </c>
       <c r="D138" t="n">
-        <v>157.9</v>
+        <v>154.2</v>
       </c>
       <c r="E138" t="n">
-        <v>157</v>
+        <v>154.2</v>
       </c>
       <c r="F138" t="n">
-        <v>500</v>
+        <v>106.5785</v>
       </c>
       <c r="G138" t="n">
-        <v>50538.37163856629</v>
+        <v>30148.8447385663</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5503,33 +5802,40 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>156.5</v>
+        <v>155</v>
       </c>
       <c r="C139" t="n">
-        <v>156.5</v>
+        <v>154.5</v>
       </c>
       <c r="D139" t="n">
-        <v>156.5</v>
+        <v>155</v>
       </c>
       <c r="E139" t="n">
-        <v>156.5</v>
+        <v>154.5</v>
       </c>
       <c r="F139" t="n">
-        <v>260</v>
+        <v>2021.886</v>
       </c>
       <c r="G139" t="n">
-        <v>50278.37163856629</v>
+        <v>32170.7307385663</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5538,278 +5844,348 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>155.5</v>
+        <v>154.1</v>
       </c>
       <c r="C140" t="n">
-        <v>156.4</v>
+        <v>152.5</v>
       </c>
       <c r="D140" t="n">
-        <v>156.4</v>
+        <v>154.2</v>
       </c>
       <c r="E140" t="n">
-        <v>155.5</v>
+        <v>152.5</v>
       </c>
       <c r="F140" t="n">
-        <v>2815.713</v>
+        <v>16700.6396</v>
       </c>
       <c r="G140" t="n">
-        <v>47462.65863856629</v>
+        <v>15470.0911385663</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="K140" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>156.2</v>
+        <v>153.1</v>
       </c>
       <c r="C141" t="n">
-        <v>156.2</v>
+        <v>154.1</v>
       </c>
       <c r="D141" t="n">
-        <v>156.2</v>
+        <v>154.1</v>
       </c>
       <c r="E141" t="n">
-        <v>156.2</v>
+        <v>153.1</v>
       </c>
       <c r="F141" t="n">
-        <v>269.0983</v>
+        <v>1240.245</v>
       </c>
       <c r="G141" t="n">
-        <v>47193.56033856629</v>
+        <v>16710.3361385663</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="K141" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>156.2</v>
+        <v>154</v>
       </c>
       <c r="C142" t="n">
-        <v>156.2</v>
+        <v>154</v>
       </c>
       <c r="D142" t="n">
-        <v>156.2</v>
+        <v>154</v>
       </c>
       <c r="E142" t="n">
-        <v>156.2</v>
+        <v>154</v>
       </c>
       <c r="F142" t="n">
-        <v>537.921</v>
+        <v>639.5231</v>
       </c>
       <c r="G142" t="n">
-        <v>47193.56033856629</v>
+        <v>16070.8130385663</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>156.2</v>
+        <v>151</v>
       </c>
       <c r="C143" t="n">
-        <v>156.3</v>
+        <v>151</v>
       </c>
       <c r="D143" t="n">
-        <v>156.3</v>
+        <v>151</v>
       </c>
       <c r="E143" t="n">
-        <v>155.1</v>
+        <v>151</v>
       </c>
       <c r="F143" t="n">
-        <v>9389.397300000001</v>
+        <v>661.372</v>
       </c>
       <c r="G143" t="n">
-        <v>56582.95763856629</v>
+        <v>15409.4410385663</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>154</v>
+      </c>
+      <c r="K143" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>151</v>
+      </c>
+      <c r="C144" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>151</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4652.181</v>
+      </c>
+      <c r="G144" t="n">
+        <v>20061.6220385663</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>151</v>
+      </c>
+      <c r="K144" t="n">
         <v>154.4</v>
       </c>
-      <c r="C144" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="D144" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="E144" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="F144" t="n">
-        <v>4</v>
-      </c>
-      <c r="G144" t="n">
-        <v>56578.95763856629</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>154.1</v>
+        <v>155.9</v>
       </c>
       <c r="C145" t="n">
-        <v>154.1</v>
+        <v>155.9</v>
       </c>
       <c r="D145" t="n">
-        <v>154.1</v>
+        <v>155.9</v>
       </c>
       <c r="E145" t="n">
-        <v>154.1</v>
+        <v>155.9</v>
       </c>
       <c r="F145" t="n">
-        <v>2035.4724</v>
+        <v>24</v>
       </c>
       <c r="G145" t="n">
-        <v>54543.4852385663</v>
+        <v>20085.6220385663</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="K145" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>999.8132000000001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>19085.8088385663</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="K146" t="n">
         <v>154.4</v>
       </c>
-      <c r="C146" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="D146" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="E146" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1233.9504</v>
-      </c>
-      <c r="G146" t="n">
-        <v>55777.4356385663</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>154</v>
+        <v>155.1</v>
       </c>
       <c r="C147" t="n">
-        <v>154</v>
+        <v>155.9</v>
       </c>
       <c r="D147" t="n">
-        <v>154</v>
+        <v>155.9</v>
       </c>
       <c r="E147" t="n">
-        <v>154</v>
+        <v>153.1</v>
       </c>
       <c r="F147" t="n">
-        <v>131.8913</v>
+        <v>1170.5341</v>
       </c>
       <c r="G147" t="n">
-        <v>55645.54433856629</v>
+        <v>20256.3429385663</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5818,33 +6194,40 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>153.9</v>
+        <v>163.9</v>
       </c>
       <c r="C148" t="n">
-        <v>153.9</v>
+        <v>158.8</v>
       </c>
       <c r="D148" t="n">
-        <v>153.9</v>
+        <v>163.9</v>
       </c>
       <c r="E148" t="n">
-        <v>153.9</v>
+        <v>158.7</v>
       </c>
       <c r="F148" t="n">
-        <v>750</v>
+        <v>4038.39057461867</v>
       </c>
       <c r="G148" t="n">
-        <v>54895.54433856629</v>
+        <v>24294.73351318497</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5853,33 +6236,40 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C149" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D149" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E149" t="n">
-        <v>152.5</v>
+        <v>160</v>
       </c>
       <c r="F149" t="n">
-        <v>260</v>
+        <v>25.2079</v>
       </c>
       <c r="G149" t="n">
-        <v>55155.54433856629</v>
+        <v>24319.94141318497</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5888,74 +6278,82 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>152.5</v>
+        <v>157.1</v>
       </c>
       <c r="C150" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D150" t="n">
-        <v>153</v>
+        <v>157.1</v>
       </c>
       <c r="E150" t="n">
-        <v>152.5</v>
+        <v>157</v>
       </c>
       <c r="F150" t="n">
-        <v>519.0983</v>
+        <v>1995.5305</v>
       </c>
       <c r="G150" t="n">
-        <v>54636.4460385663</v>
+        <v>22324.41091318497</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>154</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>155.9</v>
+        <v>164</v>
       </c>
       <c r="C151" t="n">
-        <v>155.9</v>
+        <v>164</v>
       </c>
       <c r="D151" t="n">
-        <v>155.9</v>
+        <v>164</v>
       </c>
       <c r="E151" t="n">
-        <v>155.9</v>
+        <v>164</v>
       </c>
       <c r="F151" t="n">
-        <v>3.218</v>
+        <v>4</v>
       </c>
       <c r="G151" t="n">
-        <v>54639.6640385663</v>
+        <v>22328.41091318497</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5964,7 +6362,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5973,39 +6373,40 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C152" t="n">
-        <v>154</v>
+        <v>157.2</v>
       </c>
       <c r="D152" t="n">
-        <v>155.4</v>
+        <v>164</v>
       </c>
       <c r="E152" t="n">
-        <v>152</v>
+        <v>157.2</v>
       </c>
       <c r="F152" t="n">
-        <v>19842.3413</v>
+        <v>8</v>
       </c>
       <c r="G152" t="n">
-        <v>34797.3227385663</v>
+        <v>22320.41091318497</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6014,28 +6415,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>152.4</v>
+        <v>159</v>
       </c>
       <c r="C153" t="n">
-        <v>156.4</v>
+        <v>159</v>
       </c>
       <c r="D153" t="n">
-        <v>156.4</v>
+        <v>159</v>
       </c>
       <c r="E153" t="n">
-        <v>152.3</v>
+        <v>159</v>
       </c>
       <c r="F153" t="n">
-        <v>3542</v>
+        <v>11.7382</v>
       </c>
       <c r="G153" t="n">
-        <v>38339.3227385663</v>
+        <v>22332.14911318497</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6044,7 +6446,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6053,28 +6457,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>151.5</v>
+        <v>161</v>
       </c>
       <c r="C154" t="n">
-        <v>153.4</v>
+        <v>161</v>
       </c>
       <c r="D154" t="n">
-        <v>165.6</v>
+        <v>161</v>
       </c>
       <c r="E154" t="n">
-        <v>151.2</v>
+        <v>161</v>
       </c>
       <c r="F154" t="n">
-        <v>13669.1312</v>
+        <v>5.7287</v>
       </c>
       <c r="G154" t="n">
-        <v>24670.1915385663</v>
+        <v>22337.87781318497</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6083,7 +6488,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6092,28 +6499,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>153.4</v>
+        <v>161</v>
       </c>
       <c r="C155" t="n">
-        <v>153.4</v>
+        <v>154.1</v>
       </c>
       <c r="D155" t="n">
-        <v>153.4</v>
+        <v>161</v>
       </c>
       <c r="E155" t="n">
-        <v>153.4</v>
+        <v>154.1</v>
       </c>
       <c r="F155" t="n">
-        <v>1961.9949</v>
+        <v>8</v>
       </c>
       <c r="G155" t="n">
-        <v>24670.1915385663</v>
+        <v>22329.87781318497</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6122,7 +6530,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6131,28 +6541,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>151.5</v>
+        <v>161</v>
       </c>
       <c r="C156" t="n">
-        <v>151.5</v>
+        <v>161</v>
       </c>
       <c r="D156" t="n">
-        <v>151.5</v>
+        <v>161</v>
       </c>
       <c r="E156" t="n">
-        <v>151.5</v>
+        <v>161</v>
       </c>
       <c r="F156" t="n">
-        <v>191.0293</v>
+        <v>485.4696</v>
       </c>
       <c r="G156" t="n">
-        <v>24479.1622385663</v>
+        <v>22815.34741318497</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6161,7 +6572,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6170,28 +6583,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C157" t="n">
-        <v>153.2</v>
+        <v>160.9</v>
       </c>
       <c r="D157" t="n">
-        <v>153.2</v>
+        <v>161.9</v>
       </c>
       <c r="E157" t="n">
-        <v>152</v>
+        <v>157.2</v>
       </c>
       <c r="F157" t="n">
-        <v>1089.021</v>
+        <v>3891.1459</v>
       </c>
       <c r="G157" t="n">
-        <v>25568.1832385663</v>
+        <v>18924.20151318497</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6200,7 +6614,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6209,39 +6625,40 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>152.5</v>
+        <v>161.9</v>
       </c>
       <c r="C158" t="n">
-        <v>152.5</v>
+        <v>161.9</v>
       </c>
       <c r="D158" t="n">
-        <v>152.5</v>
+        <v>161.9</v>
       </c>
       <c r="E158" t="n">
-        <v>152.5</v>
+        <v>161.9</v>
       </c>
       <c r="F158" t="n">
-        <v>1500</v>
+        <v>2250</v>
       </c>
       <c r="G158" t="n">
-        <v>24068.1832385663</v>
+        <v>21174.20151318497</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>153.2</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6250,28 +6667,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>150</v>
+        <v>163.9</v>
       </c>
       <c r="C159" t="n">
-        <v>152.9</v>
+        <v>163.9</v>
       </c>
       <c r="D159" t="n">
-        <v>152.9</v>
+        <v>163.9</v>
       </c>
       <c r="E159" t="n">
-        <v>150</v>
+        <v>163.9</v>
       </c>
       <c r="F159" t="n">
-        <v>875.1136</v>
+        <v>4</v>
       </c>
       <c r="G159" t="n">
-        <v>24943.2968385663</v>
+        <v>21178.20151318497</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6280,7 +6698,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6289,39 +6709,40 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>149.1</v>
+        <v>163.9</v>
       </c>
       <c r="C160" t="n">
-        <v>153</v>
+        <v>157.1</v>
       </c>
       <c r="D160" t="n">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E160" t="n">
-        <v>149.1</v>
+        <v>157.1</v>
       </c>
       <c r="F160" t="n">
-        <v>12126.875</v>
+        <v>20621.83494457831</v>
       </c>
       <c r="G160" t="n">
-        <v>37070.1718385663</v>
+        <v>556.3665686066597</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6330,28 +6751,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>153</v>
+        <v>165.9</v>
       </c>
       <c r="C161" t="n">
-        <v>153.2</v>
+        <v>160.1</v>
       </c>
       <c r="D161" t="n">
-        <v>154</v>
+        <v>166.6</v>
       </c>
       <c r="E161" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F161" t="n">
-        <v>1600.5061</v>
+        <v>10709.7056</v>
       </c>
       <c r="G161" t="n">
-        <v>38670.6779385663</v>
+        <v>11266.07216860666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6360,7 +6782,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6369,39 +6793,40 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>155.9</v>
+        <v>166.1</v>
       </c>
       <c r="C162" t="n">
-        <v>152.4</v>
+        <v>166.1</v>
       </c>
       <c r="D162" t="n">
-        <v>156</v>
+        <v>166.1</v>
       </c>
       <c r="E162" t="n">
-        <v>152.4</v>
+        <v>166.1</v>
       </c>
       <c r="F162" t="n">
-        <v>3835.5666</v>
+        <v>708.4136</v>
       </c>
       <c r="G162" t="n">
-        <v>34835.1113385663</v>
+        <v>11974.48576860666</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>153.2</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6410,39 +6835,40 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>150.4</v>
+        <v>163.3</v>
       </c>
       <c r="C163" t="n">
-        <v>153.9</v>
+        <v>163.3</v>
       </c>
       <c r="D163" t="n">
-        <v>153.9</v>
+        <v>163.3</v>
       </c>
       <c r="E163" t="n">
-        <v>150.4</v>
+        <v>163.3</v>
       </c>
       <c r="F163" t="n">
-        <v>2217.42</v>
+        <v>164.6756</v>
       </c>
       <c r="G163" t="n">
-        <v>37052.5313385663</v>
+        <v>11809.81016860666</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6451,28 +6877,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>153</v>
+        <v>160.1</v>
       </c>
       <c r="C164" t="n">
-        <v>153</v>
+        <v>163.3</v>
       </c>
       <c r="D164" t="n">
-        <v>153</v>
+        <v>163.3</v>
       </c>
       <c r="E164" t="n">
-        <v>153</v>
+        <v>160.1</v>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>7807.1184</v>
       </c>
       <c r="G164" t="n">
-        <v>36552.5313385663</v>
+        <v>11809.81016860666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6481,7 +6908,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>154.4</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6490,1654 +6919,7 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="C165" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="D165" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="E165" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1830.0024</v>
-      </c>
-      <c r="G165" t="n">
-        <v>34722.5289385663</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>152.6</v>
-      </c>
-      <c r="C166" t="n">
-        <v>152.6</v>
-      </c>
-      <c r="D166" t="n">
-        <v>152.6</v>
-      </c>
-      <c r="E166" t="n">
-        <v>152.6</v>
-      </c>
-      <c r="F166" t="n">
-        <v>100</v>
-      </c>
-      <c r="G166" t="n">
-        <v>34622.5289385663</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>151.8</v>
-      </c>
-      <c r="C167" t="n">
-        <v>151.8</v>
-      </c>
-      <c r="D167" t="n">
-        <v>151.8</v>
-      </c>
-      <c r="E167" t="n">
-        <v>151.8</v>
-      </c>
-      <c r="F167" t="n">
-        <v>86.16370000000001</v>
-      </c>
-      <c r="G167" t="n">
-        <v>34536.3652385663</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>151.8</v>
-      </c>
-      <c r="C168" t="n">
-        <v>152.6</v>
-      </c>
-      <c r="D168" t="n">
-        <v>152.6</v>
-      </c>
-      <c r="E168" t="n">
-        <v>151.4</v>
-      </c>
-      <c r="F168" t="n">
-        <v>86.2319</v>
-      </c>
-      <c r="G168" t="n">
-        <v>34622.5971385663</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>150.4</v>
-      </c>
-      <c r="C169" t="n">
-        <v>150.4</v>
-      </c>
-      <c r="D169" t="n">
-        <v>150.4</v>
-      </c>
-      <c r="E169" t="n">
-        <v>150.4</v>
-      </c>
-      <c r="F169" t="n">
-        <v>10</v>
-      </c>
-      <c r="G169" t="n">
-        <v>34612.5971385663</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="C170" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="D170" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="E170" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="F170" t="n">
-        <v>23</v>
-      </c>
-      <c r="G170" t="n">
-        <v>34635.5971385663</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="C171" t="n">
-        <v>154.9</v>
-      </c>
-      <c r="D171" t="n">
-        <v>155</v>
-      </c>
-      <c r="E171" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="F171" t="n">
-        <v>3502.5166</v>
-      </c>
-      <c r="G171" t="n">
-        <v>38138.1137385663</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>154.9</v>
-      </c>
-      <c r="C172" t="n">
-        <v>138.5</v>
-      </c>
-      <c r="D172" t="n">
-        <v>154.9</v>
-      </c>
-      <c r="E172" t="n">
-        <v>138.5</v>
-      </c>
-      <c r="F172" t="n">
-        <v>13629.2756</v>
-      </c>
-      <c r="G172" t="n">
-        <v>24508.8381385663</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>154</v>
-      </c>
-      <c r="C173" t="n">
-        <v>158.9</v>
-      </c>
-      <c r="D173" t="n">
-        <v>160</v>
-      </c>
-      <c r="E173" t="n">
-        <v>152</v>
-      </c>
-      <c r="F173" t="n">
-        <v>3882.7835</v>
-      </c>
-      <c r="G173" t="n">
-        <v>28391.6216385663</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="C174" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="D174" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="E174" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="F174" t="n">
-        <v>501</v>
-      </c>
-      <c r="G174" t="n">
-        <v>27890.6216385663</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="C175" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="D175" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="F175" t="n">
-        <v>638.4471</v>
-      </c>
-      <c r="G175" t="n">
-        <v>27890.6216385663</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="C176" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="D176" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="E176" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="F176" t="n">
-        <v>8</v>
-      </c>
-      <c r="G176" t="n">
-        <v>27882.6216385663</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>154.3</v>
-      </c>
-      <c r="C177" t="n">
-        <v>153.3</v>
-      </c>
-      <c r="D177" t="n">
-        <v>154.3</v>
-      </c>
-      <c r="E177" t="n">
-        <v>153.3</v>
-      </c>
-      <c r="F177" t="n">
-        <v>2108.8986</v>
-      </c>
-      <c r="G177" t="n">
-        <v>25773.7230385663</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="C178" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="D178" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="E178" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="F178" t="n">
-        <v>4476.7002</v>
-      </c>
-      <c r="G178" t="n">
-        <v>30250.4232385663</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="C179" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="D179" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="E179" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="F179" t="n">
-        <v>5</v>
-      </c>
-      <c r="G179" t="n">
-        <v>30255.4232385663</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="C180" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="D180" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="E180" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="F180" t="n">
-        <v>106.5785</v>
-      </c>
-      <c r="G180" t="n">
-        <v>30148.8447385663</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>155</v>
-      </c>
-      <c r="C181" t="n">
-        <v>154.5</v>
-      </c>
-      <c r="D181" t="n">
-        <v>155</v>
-      </c>
-      <c r="E181" t="n">
-        <v>154.5</v>
-      </c>
-      <c r="F181" t="n">
-        <v>2021.886</v>
-      </c>
-      <c r="G181" t="n">
-        <v>32170.7307385663</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>154.1</v>
-      </c>
-      <c r="C182" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="D182" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="E182" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="F182" t="n">
-        <v>16700.6396</v>
-      </c>
-      <c r="G182" t="n">
-        <v>15470.0911385663</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="C183" t="n">
-        <v>154.1</v>
-      </c>
-      <c r="D183" t="n">
-        <v>154.1</v>
-      </c>
-      <c r="E183" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1240.245</v>
-      </c>
-      <c r="G183" t="n">
-        <v>16710.3361385663</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>154</v>
-      </c>
-      <c r="C184" t="n">
-        <v>154</v>
-      </c>
-      <c r="D184" t="n">
-        <v>154</v>
-      </c>
-      <c r="E184" t="n">
-        <v>154</v>
-      </c>
-      <c r="F184" t="n">
-        <v>639.5231</v>
-      </c>
-      <c r="G184" t="n">
-        <v>16070.8130385663</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>151</v>
-      </c>
-      <c r="C185" t="n">
-        <v>151</v>
-      </c>
-      <c r="D185" t="n">
-        <v>151</v>
-      </c>
-      <c r="E185" t="n">
-        <v>151</v>
-      </c>
-      <c r="F185" t="n">
-        <v>661.372</v>
-      </c>
-      <c r="G185" t="n">
-        <v>15409.4410385663</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>151</v>
-      </c>
-      <c r="C186" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="D186" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="E186" t="n">
-        <v>151</v>
-      </c>
-      <c r="F186" t="n">
-        <v>4652.181</v>
-      </c>
-      <c r="G186" t="n">
-        <v>20061.6220385663</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>151</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="C187" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="D187" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="E187" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="F187" t="n">
-        <v>24</v>
-      </c>
-      <c r="G187" t="n">
-        <v>20085.6220385663</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="C188" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="D188" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="E188" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="F188" t="n">
-        <v>999.8132000000001</v>
-      </c>
-      <c r="G188" t="n">
-        <v>19085.8088385663</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="C189" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="D189" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="E189" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1170.5341</v>
-      </c>
-      <c r="G189" t="n">
-        <v>20256.3429385663</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="C190" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="D190" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="E190" t="n">
-        <v>158.7</v>
-      </c>
-      <c r="F190" t="n">
-        <v>4038.39057461867</v>
-      </c>
-      <c r="G190" t="n">
-        <v>24294.73351318497</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>160</v>
-      </c>
-      <c r="C191" t="n">
-        <v>160</v>
-      </c>
-      <c r="D191" t="n">
-        <v>160</v>
-      </c>
-      <c r="E191" t="n">
-        <v>160</v>
-      </c>
-      <c r="F191" t="n">
-        <v>25.2079</v>
-      </c>
-      <c r="G191" t="n">
-        <v>24319.94141318497</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="C192" t="n">
-        <v>157</v>
-      </c>
-      <c r="D192" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="E192" t="n">
-        <v>157</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1995.5305</v>
-      </c>
-      <c r="G192" t="n">
-        <v>22324.41091318497</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>164</v>
-      </c>
-      <c r="C193" t="n">
-        <v>164</v>
-      </c>
-      <c r="D193" t="n">
-        <v>164</v>
-      </c>
-      <c r="E193" t="n">
-        <v>164</v>
-      </c>
-      <c r="F193" t="n">
-        <v>4</v>
-      </c>
-      <c r="G193" t="n">
-        <v>22328.41091318497</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>164</v>
-      </c>
-      <c r="C194" t="n">
-        <v>157.2</v>
-      </c>
-      <c r="D194" t="n">
-        <v>164</v>
-      </c>
-      <c r="E194" t="n">
-        <v>157.2</v>
-      </c>
-      <c r="F194" t="n">
-        <v>8</v>
-      </c>
-      <c r="G194" t="n">
-        <v>22320.41091318497</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>159</v>
-      </c>
-      <c r="C195" t="n">
-        <v>159</v>
-      </c>
-      <c r="D195" t="n">
-        <v>159</v>
-      </c>
-      <c r="E195" t="n">
-        <v>159</v>
-      </c>
-      <c r="F195" t="n">
-        <v>11.7382</v>
-      </c>
-      <c r="G195" t="n">
-        <v>22332.14911318497</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>161</v>
-      </c>
-      <c r="C196" t="n">
-        <v>161</v>
-      </c>
-      <c r="D196" t="n">
-        <v>161</v>
-      </c>
-      <c r="E196" t="n">
-        <v>161</v>
-      </c>
-      <c r="F196" t="n">
-        <v>5.7287</v>
-      </c>
-      <c r="G196" t="n">
-        <v>22337.87781318497</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>161</v>
-      </c>
-      <c r="C197" t="n">
-        <v>154.1</v>
-      </c>
-      <c r="D197" t="n">
-        <v>161</v>
-      </c>
-      <c r="E197" t="n">
-        <v>154.1</v>
-      </c>
-      <c r="F197" t="n">
-        <v>8</v>
-      </c>
-      <c r="G197" t="n">
-        <v>22329.87781318497</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>161</v>
-      </c>
-      <c r="C198" t="n">
-        <v>161</v>
-      </c>
-      <c r="D198" t="n">
-        <v>161</v>
-      </c>
-      <c r="E198" t="n">
-        <v>161</v>
-      </c>
-      <c r="F198" t="n">
-        <v>485.4696</v>
-      </c>
-      <c r="G198" t="n">
-        <v>22815.34741318497</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>161</v>
-      </c>
-      <c r="C199" t="n">
-        <v>160.9</v>
-      </c>
-      <c r="D199" t="n">
-        <v>161.9</v>
-      </c>
-      <c r="E199" t="n">
-        <v>157.2</v>
-      </c>
-      <c r="F199" t="n">
-        <v>3891.1459</v>
-      </c>
-      <c r="G199" t="n">
-        <v>18924.20151318497</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>161.9</v>
-      </c>
-      <c r="C200" t="n">
-        <v>161.9</v>
-      </c>
-      <c r="D200" t="n">
-        <v>161.9</v>
-      </c>
-      <c r="E200" t="n">
-        <v>161.9</v>
-      </c>
-      <c r="F200" t="n">
-        <v>2250</v>
-      </c>
-      <c r="G200" t="n">
-        <v>21174.20151318497</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="C201" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="D201" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="E201" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="F201" t="n">
-        <v>4</v>
-      </c>
-      <c r="G201" t="n">
-        <v>21178.20151318497</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="C202" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="D202" t="n">
-        <v>166</v>
-      </c>
-      <c r="E202" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="F202" t="n">
-        <v>20621.83494457831</v>
-      </c>
-      <c r="G202" t="n">
-        <v>556.3665686066597</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>165.9</v>
-      </c>
-      <c r="C203" t="n">
-        <v>160.1</v>
-      </c>
-      <c r="D203" t="n">
-        <v>166.6</v>
-      </c>
-      <c r="E203" t="n">
-        <v>157</v>
-      </c>
-      <c r="F203" t="n">
-        <v>10709.7056</v>
-      </c>
-      <c r="G203" t="n">
-        <v>11266.07216860666</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="C204" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="D204" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="E204" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="F204" t="n">
-        <v>708.4136</v>
-      </c>
-      <c r="G204" t="n">
-        <v>11974.48576860666</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>163.3</v>
-      </c>
-      <c r="C205" t="n">
-        <v>163.3</v>
-      </c>
-      <c r="D205" t="n">
-        <v>163.3</v>
-      </c>
-      <c r="E205" t="n">
-        <v>163.3</v>
-      </c>
-      <c r="F205" t="n">
-        <v>164.6756</v>
-      </c>
-      <c r="G205" t="n">
-        <v>11809.81016860666</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>160.1</v>
-      </c>
-      <c r="C206" t="n">
-        <v>163.3</v>
-      </c>
-      <c r="D206" t="n">
-        <v>163.3</v>
-      </c>
-      <c r="E206" t="n">
-        <v>160.1</v>
-      </c>
-      <c r="F206" t="n">
-        <v>7807.1184</v>
-      </c>
-      <c r="G206" t="n">
-        <v>11809.81016860666</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
+      <c r="N164" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest ABT.xlsx
+++ b/BackTest/2020-01-23 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N235"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>30987.2009</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>46554.97979999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>156</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>50835.62479999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>157</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,22 +562,21 @@
         <v>47035.74029999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -616,22 +601,21 @@
         <v>70015.49159999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,20 +642,17 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -698,20 +679,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,20 +716,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,20 +753,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -818,20 +790,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,20 +827,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -898,20 +864,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -938,20 +901,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -978,20 +938,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1018,20 +975,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1058,20 +1012,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1098,20 +1049,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1138,20 +1086,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1178,20 +1123,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1216,22 +1158,17 @@
         <v>134313.6627</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1258,20 +1195,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1298,20 +1228,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1338,18 +1261,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L24" t="n">
+        <v>1</v>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1374,18 +1292,15 @@
         <v>131822.7282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1412,16 +1327,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1448,16 +1360,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1484,16 +1393,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1520,16 +1426,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1556,16 +1459,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1592,16 +1492,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1628,16 +1525,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1664,16 +1558,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1700,16 +1591,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1736,16 +1624,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1772,16 +1657,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1808,16 +1690,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1844,16 +1723,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1880,16 +1756,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1916,16 +1789,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1952,16 +1822,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1988,16 +1855,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2024,16 +1888,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2060,16 +1921,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2096,16 +1954,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2132,16 +1987,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2168,16 +2020,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2204,16 +2053,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2240,16 +2086,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2276,16 +2119,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2312,16 +2152,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2348,16 +2185,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2384,16 +2218,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2420,16 +2251,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2456,16 +2284,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2492,16 +2317,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2526,18 +2348,15 @@
         <v>93109.9963</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2562,18 +2381,15 @@
         <v>92859.9963</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2600,16 +2416,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2636,16 +2449,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2672,16 +2482,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2706,18 +2513,15 @@
         <v>92842.9963</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2744,16 +2548,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2778,18 +2579,15 @@
         <v>91342.9963</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2814,18 +2612,15 @@
         <v>91342.9963</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2850,18 +2645,15 @@
         <v>91342.9963</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2888,16 +2680,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2922,18 +2711,15 @@
         <v>88001.76800000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2958,18 +2744,15 @@
         <v>86374.34320000002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2994,18 +2777,15 @@
         <v>86370.94320000002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3030,18 +2810,15 @@
         <v>91428.43720000003</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3066,18 +2843,15 @@
         <v>96527.34120000002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3102,18 +2876,15 @@
         <v>96524.04120000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3140,16 +2911,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3176,16 +2944,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3210,18 +2975,15 @@
         <v>96524.00020000002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3248,16 +3010,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3282,18 +3041,15 @@
         <v>99003.62040000003</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3318,18 +3074,15 @@
         <v>99003.62040000003</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3354,18 +3107,15 @@
         <v>98898.39620000003</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3390,18 +3140,15 @@
         <v>99122.84070000003</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3426,18 +3173,15 @@
         <v>99122.84070000003</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3462,18 +3206,15 @@
         <v>102572.8407</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3498,18 +3239,15 @@
         <v>102037.6826</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3534,18 +3272,15 @@
         <v>100537.6826</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3570,18 +3305,15 @@
         <v>99538.76160000003</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3606,18 +3338,15 @@
         <v>98038.76160000003</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3642,18 +3371,15 @@
         <v>98048.76160000003</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3678,18 +3404,15 @@
         <v>96548.76160000003</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3714,18 +3437,15 @@
         <v>97918.88790000003</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3750,18 +3470,15 @@
         <v>98621.44590000004</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3786,18 +3503,15 @@
         <v>98621.44590000004</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3824,16 +3538,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3860,16 +3571,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3896,16 +3604,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3932,16 +3637,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3968,16 +3670,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4004,16 +3703,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4040,16 +3736,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4074,18 +3767,15 @@
         <v>103146.6805384616</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4110,18 +3800,15 @@
         <v>103146.6805384616</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4146,18 +3833,15 @@
         <v>100119.8326384616</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4184,20 +3868,13 @@
       <c r="H103" t="n">
         <v>1</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>148</v>
-      </c>
-      <c r="K103" t="n">
-        <v>148</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4222,24 +3899,15 @@
         <v>102098.0396384616</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>148</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4264,24 +3932,15 @@
         <v>102098.0396384616</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>148</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4308,16 +3967,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4344,16 +4000,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4380,16 +4033,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4416,16 +4066,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4452,16 +4099,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4488,16 +4132,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4524,16 +4165,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4560,16 +4198,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4596,16 +4231,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4632,16 +4264,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4668,16 +4297,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4704,16 +4330,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4740,16 +4363,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4776,16 +4396,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4812,16 +4429,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4848,16 +4462,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4884,16 +4495,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4920,16 +4528,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4956,16 +4561,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4992,16 +4594,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5028,16 +4627,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5064,16 +4660,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5100,16 +4693,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5136,16 +4726,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5172,16 +4759,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5208,16 +4792,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5242,18 +4823,15 @@
         <v>133544.8616384616</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5280,16 +4858,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5314,18 +4889,15 @@
         <v>132587.9462384616</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5352,16 +4924,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5386,18 +4955,15 @@
         <v>128686.3410384616</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5422,18 +4988,15 @@
         <v>130404.7404384616</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5458,18 +5021,15 @@
         <v>130407.9214384616</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5496,16 +5056,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5530,18 +5087,15 @@
         <v>148631.8828384615</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5568,16 +5122,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5602,18 +5153,15 @@
         <v>133513.4107385663</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5640,16 +5188,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5674,18 +5219,15 @@
         <v>134094.2402385663</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5712,16 +5254,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5746,18 +5285,15 @@
         <v>124334.9465385663</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5782,18 +5318,15 @@
         <v>124051.8757385663</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5818,18 +5351,15 @@
         <v>99215.4025385663</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5854,18 +5384,15 @@
         <v>99399.10223856629</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5890,18 +5417,15 @@
         <v>95936.5468385663</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5928,16 +5452,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5964,16 +5485,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6000,16 +5518,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6036,16 +5551,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6072,16 +5584,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6108,16 +5617,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6144,16 +5650,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6180,16 +5683,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6216,16 +5716,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6252,16 +5749,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6288,16 +5782,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6324,16 +5815,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6360,16 +5848,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6396,16 +5881,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6432,16 +5914,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6468,16 +5947,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6504,16 +5980,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6540,16 +6013,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6576,16 +6046,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6612,16 +6079,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6648,16 +6112,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6684,16 +6145,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6720,16 +6178,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6756,16 +6211,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6792,16 +6244,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6828,16 +6277,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6864,16 +6310,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6900,16 +6343,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6936,16 +6376,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6972,16 +6409,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7008,16 +6442,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7044,16 +6475,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7080,16 +6508,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7116,16 +6541,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7152,16 +6574,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7188,16 +6607,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7224,16 +6640,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7260,16 +6673,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7294,24 +6704,15 @@
         <v>37070.1718385663</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>152.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7338,20 +6739,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7378,20 +6772,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7418,20 +6805,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7458,20 +6838,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7498,20 +6871,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7538,20 +6904,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7578,20 +6937,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7616,24 +6968,15 @@
         <v>34622.5971385663</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>151.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7660,20 +7003,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7700,20 +7036,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7740,20 +7069,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7780,20 +7102,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7820,20 +7135,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7860,20 +7168,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7900,20 +7201,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7940,20 +7234,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7980,20 +7267,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8020,20 +7300,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8060,20 +7333,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8100,20 +7366,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8140,20 +7399,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8180,20 +7432,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8220,20 +7465,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8260,20 +7498,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8300,20 +7531,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8338,24 +7562,15 @@
         <v>20061.6220385663</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8380,24 +7595,15 @@
         <v>20085.6220385663</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>152.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8422,24 +7628,15 @@
         <v>19085.8088385663</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>155.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8466,20 +7663,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8504,24 +7694,15 @@
         <v>24294.73351318497</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>155.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8548,20 +7729,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8588,20 +7762,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8628,20 +7795,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8668,20 +7828,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8708,20 +7861,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8748,20 +7894,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8788,20 +7927,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8828,20 +7960,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8868,20 +7993,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8908,20 +8026,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8948,20 +8059,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8988,20 +8092,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9028,20 +8125,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9068,20 +8158,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9108,20 +8191,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9148,22 +8224,15 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ABT.xlsx
+++ b/BackTest/2020-01-23 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>30987.2009</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>46554.97979999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>156</v>
@@ -523,7 +523,7 @@
         <v>50835.62479999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>157</v>
@@ -562,7 +562,7 @@
         <v>47035.74029999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>160</v>
@@ -601,7 +601,7 @@
         <v>70015.49159999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>159</v>
@@ -1158,16 +1158,18 @@
         <v>134313.6627</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
       <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1197,7 +1199,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,7 +1236,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1263,7 +1273,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1292,11 +1306,15 @@
         <v>131822.7282</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1329,7 +1347,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1362,7 +1384,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1395,7 +1421,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1428,7 +1458,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1461,7 +1495,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1494,7 +1532,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1527,7 +1569,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1560,7 +1606,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1593,7 +1643,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1626,7 +1680,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1659,7 +1717,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1692,7 +1754,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1725,7 +1791,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1754,14 +1824,16 @@
         <v>143473.4864</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1787,7 +1859,7 @@
         <v>134085.2426</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1820,7 +1892,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1853,7 +1925,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1886,7 +1958,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1919,7 +1991,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1952,7 +2024,7 @@
         <v>129486.939</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1985,7 +2057,7 @@
         <v>120701.2503</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2018,7 +2090,7 @@
         <v>103304.3422</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2051,7 +2123,7 @@
         <v>103254.3422</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2084,7 +2156,7 @@
         <v>103273.6979</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2315,7 +2387,7 @@
         <v>95266.4569</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2348,7 +2420,7 @@
         <v>93109.9963</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2381,7 +2453,7 @@
         <v>92859.9963</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2414,7 +2486,7 @@
         <v>92859.9963</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2447,7 +2519,7 @@
         <v>92859.9963</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2480,7 +2552,7 @@
         <v>92842.9963</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2513,7 +2585,7 @@
         <v>92842.9963</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2546,7 +2618,7 @@
         <v>92842.9963</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2579,7 +2651,7 @@
         <v>91342.9963</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2612,7 +2684,7 @@
         <v>91342.9963</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2645,7 +2717,7 @@
         <v>91342.9963</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2678,7 +2750,7 @@
         <v>92832.60060000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2711,7 +2783,7 @@
         <v>88001.76800000001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2744,7 +2816,7 @@
         <v>86374.34320000002</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2777,7 +2849,7 @@
         <v>86370.94320000002</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2810,7 +2882,7 @@
         <v>91428.43720000003</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2843,7 +2915,7 @@
         <v>96527.34120000002</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2876,7 +2948,7 @@
         <v>96524.04120000002</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2975,7 +3047,7 @@
         <v>96524.00020000002</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3041,7 +3113,7 @@
         <v>99003.62040000003</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3074,7 +3146,7 @@
         <v>99003.62040000003</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3107,7 +3179,7 @@
         <v>98898.39620000003</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3140,7 +3212,7 @@
         <v>99122.84070000003</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3173,7 +3245,7 @@
         <v>99122.84070000003</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3206,7 +3278,7 @@
         <v>102572.8407</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3239,7 +3311,7 @@
         <v>102037.6826</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3272,7 +3344,7 @@
         <v>100537.6826</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3305,7 +3377,7 @@
         <v>99538.76160000003</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3338,7 +3410,7 @@
         <v>98038.76160000003</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3371,7 +3443,7 @@
         <v>98048.76160000003</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3404,7 +3476,7 @@
         <v>96548.76160000003</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3437,7 +3509,7 @@
         <v>97918.88790000003</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3470,7 +3542,7 @@
         <v>98621.44590000004</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3503,7 +3575,7 @@
         <v>98621.44590000004</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3767,7 +3839,7 @@
         <v>103146.6805384616</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3800,7 +3872,7 @@
         <v>103146.6805384616</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3833,7 +3905,7 @@
         <v>100119.8326384616</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3866,7 +3938,7 @@
         <v>102098.0396384616</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3899,7 +3971,7 @@
         <v>102098.0396384616</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3932,7 +4004,7 @@
         <v>102098.0396384616</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4823,7 +4895,7 @@
         <v>133544.8616384616</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4889,7 +4961,7 @@
         <v>132587.9462384616</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4955,7 +5027,7 @@
         <v>128686.3410384616</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4988,7 +5060,7 @@
         <v>130404.7404384616</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5021,7 +5093,7 @@
         <v>130407.9214384616</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5087,7 +5159,7 @@
         <v>148631.8828384615</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5153,7 +5225,7 @@
         <v>133513.4107385663</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5186,7 +5258,7 @@
         <v>133513.4107385663</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5219,7 +5291,7 @@
         <v>134094.2402385663</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5252,7 +5324,7 @@
         <v>124334.9465385663</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5285,7 +5357,7 @@
         <v>124334.9465385663</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5318,7 +5390,7 @@
         <v>124051.8757385663</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5351,7 +5423,7 @@
         <v>99215.4025385663</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5384,7 +5456,7 @@
         <v>99399.10223856629</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5417,7 +5489,7 @@
         <v>95936.5468385663</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5450,7 +5522,7 @@
         <v>94421.3953385663</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5483,7 +5555,7 @@
         <v>94424.52433856631</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5516,7 +5588,7 @@
         <v>94424.52433856631</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5549,7 +5621,7 @@
         <v>86510.7604385663</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5582,7 +5654,7 @@
         <v>88224.26303856631</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5615,7 +5687,7 @@
         <v>87728.3977385663</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5648,7 +5720,7 @@
         <v>82022.3060385663</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5681,7 +5753,7 @@
         <v>81815.5857385663</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5714,7 +5786,7 @@
         <v>82305.40273856629</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5747,7 +5819,7 @@
         <v>46523.6713385663</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5780,7 +5852,7 @@
         <v>52008.9587385663</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5813,7 +5885,7 @@
         <v>51564.9587385663</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5846,7 +5918,7 @@
         <v>47193.86903856629</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5879,7 +5951,7 @@
         <v>48907.37163856629</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5945,7 +6017,7 @@
         <v>51038.37163856629</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5978,7 +6050,7 @@
         <v>50538.37163856629</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6011,7 +6083,7 @@
         <v>50278.37163856629</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6044,7 +6116,7 @@
         <v>47462.65863856629</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6077,7 +6149,7 @@
         <v>47193.56033856629</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6110,7 +6182,7 @@
         <v>47193.56033856629</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6143,7 +6215,7 @@
         <v>56582.95763856629</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6176,7 +6248,7 @@
         <v>56578.95763856629</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6209,7 +6281,7 @@
         <v>54543.4852385663</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6242,7 +6314,7 @@
         <v>55777.4356385663</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6275,7 +6347,7 @@
         <v>55645.54433856629</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7562,11 +7634,17 @@
         <v>20061.6220385663</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>151</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7595,11 +7673,17 @@
         <v>20085.6220385663</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>152.4</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7632,7 +7716,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7665,7 +7753,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7698,7 +7790,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7731,7 +7827,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7764,7 +7864,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7797,7 +7901,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7830,7 +7938,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7863,7 +7975,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7896,7 +8012,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7929,7 +8049,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7962,7 +8086,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7995,7 +8123,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8028,7 +8160,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8061,7 +8197,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8094,7 +8234,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8127,7 +8271,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8160,7 +8308,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8345,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8226,13 +8382,17 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
       <c r="M235" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ABT.xlsx
+++ b/BackTest/2020-01-23 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,134 +484,120 @@
         <v>46554.97979999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>157</v>
+      </c>
+      <c r="C4" t="n">
+        <v>160</v>
+      </c>
+      <c r="D4" t="n">
+        <v>160</v>
+      </c>
+      <c r="E4" t="n">
         <v>156</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="F4" t="n">
+        <v>4280.645</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50835.62479999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>159</v>
+      </c>
+      <c r="C5" t="n">
+        <v>159</v>
+      </c>
+      <c r="D5" t="n">
+        <v>159</v>
+      </c>
+      <c r="E5" t="n">
+        <v>159</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3799.8845</v>
+      </c>
+      <c r="G5" t="n">
+        <v>47035.74029999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>160</v>
+      </c>
+      <c r="J5" t="n">
+        <v>160</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>160</v>
+      </c>
+      <c r="C6" t="n">
+        <v>163</v>
+      </c>
+      <c r="D6" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>160</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22979.7513</v>
+      </c>
+      <c r="G6" t="n">
+        <v>70015.49159999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>160</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>157</v>
-      </c>
-      <c r="C4" t="n">
-        <v>160</v>
-      </c>
-      <c r="D4" t="n">
-        <v>160</v>
-      </c>
-      <c r="E4" t="n">
-        <v>156</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4280.645</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50835.62479999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>157</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>159</v>
-      </c>
-      <c r="C5" t="n">
-        <v>159</v>
-      </c>
-      <c r="D5" t="n">
-        <v>159</v>
-      </c>
-      <c r="E5" t="n">
-        <v>159</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3799.8845</v>
-      </c>
-      <c r="G5" t="n">
-        <v>47035.74029999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>160</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>160</v>
-      </c>
-      <c r="C6" t="n">
-        <v>163</v>
-      </c>
-      <c r="D6" t="n">
-        <v>163.9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>160</v>
-      </c>
-      <c r="F6" t="n">
-        <v>22979.7513</v>
-      </c>
-      <c r="G6" t="n">
-        <v>70015.49159999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>159</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -643,7 +629,9 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>160</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -680,7 +668,9 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>160</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -717,7 +707,9 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>160</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -754,7 +746,9 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>160</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -791,7 +785,9 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>160</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -828,7 +824,9 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>160</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -865,7 +863,9 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>160</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -902,7 +902,9 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>160</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -939,7 +941,9 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>160</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -976,7 +980,9 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>160</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1013,7 +1019,9 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>160</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1050,7 +1058,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>160</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1087,7 +1097,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>160</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1124,7 +1136,9 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>160</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1161,7 +1175,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>160</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1198,7 +1214,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>160</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1235,7 +1253,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>160</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1272,7 +1292,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>160</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1309,7 +1331,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>160</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1346,7 +1370,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>160</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1383,7 +1409,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>160</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1420,7 +1448,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>160</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1457,7 +1487,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>160</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1494,7 +1526,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>160</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1531,7 +1565,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>160</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1568,7 +1604,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>160</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1605,7 +1643,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>160</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1639,17 +1679,19 @@
         <v>149700.3723</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>160</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>1.001875</v>
       </c>
       <c r="M34" t="inlineStr"/>
     </row>
@@ -1676,15 +1718,11 @@
         <v>153598.1013</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1713,15 +1751,11 @@
         <v>152794.1013</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1788,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1791,11 +1821,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1824,16 +1850,14 @@
         <v>143473.4864</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
       <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1859,7 +1883,7 @@
         <v>134085.2426</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1892,7 +1916,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1925,7 +1949,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1958,7 +1982,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1991,7 +2015,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2024,7 +2048,7 @@
         <v>129486.939</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2057,7 +2081,7 @@
         <v>120701.2503</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2090,7 +2114,7 @@
         <v>103304.3422</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2123,7 +2147,7 @@
         <v>103254.3422</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2156,7 +2180,7 @@
         <v>103273.6979</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2387,7 +2411,7 @@
         <v>95266.4569</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2420,7 +2444,7 @@
         <v>93109.9963</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2453,7 +2477,7 @@
         <v>92859.9963</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2486,7 +2510,7 @@
         <v>92859.9963</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2519,7 +2543,7 @@
         <v>92859.9963</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2552,7 +2576,7 @@
         <v>92842.9963</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2585,7 +2609,7 @@
         <v>92842.9963</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2618,7 +2642,7 @@
         <v>92842.9963</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2651,7 +2675,7 @@
         <v>91342.9963</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2684,7 +2708,7 @@
         <v>91342.9963</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2717,7 +2741,7 @@
         <v>91342.9963</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2750,7 +2774,7 @@
         <v>92832.60060000001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2783,7 +2807,7 @@
         <v>88001.76800000001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2816,7 +2840,7 @@
         <v>86374.34320000002</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2849,7 +2873,7 @@
         <v>86370.94320000002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3179,7 +3203,7 @@
         <v>98898.39620000003</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3245,7 +3269,7 @@
         <v>99122.84070000003</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -4862,7 +4886,7 @@
         <v>133363.5166384616</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4895,7 +4919,7 @@
         <v>133544.8616384616</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4928,7 +4952,7 @@
         <v>131243.9224384616</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4961,7 +4985,7 @@
         <v>132587.9462384616</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4994,7 +5018,7 @@
         <v>128325.4343384616</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5027,7 +5051,7 @@
         <v>128686.3410384616</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5060,7 +5084,7 @@
         <v>130404.7404384616</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5093,7 +5117,7 @@
         <v>130407.9214384616</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5126,7 +5150,7 @@
         <v>130407.9214384616</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5159,7 +5183,7 @@
         <v>148631.8828384615</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5192,7 +5216,7 @@
         <v>130945.33362331</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5225,7 +5249,7 @@
         <v>133513.4107385663</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5324,7 +5348,7 @@
         <v>124334.9465385663</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5357,7 +5381,7 @@
         <v>124334.9465385663</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5588,7 +5612,7 @@
         <v>94424.52433856631</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5621,7 +5645,7 @@
         <v>86510.7604385663</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5654,7 +5678,7 @@
         <v>88224.26303856631</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5687,7 +5711,7 @@
         <v>87728.3977385663</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5720,7 +5744,7 @@
         <v>82022.3060385663</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5753,7 +5777,7 @@
         <v>81815.5857385663</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5786,7 +5810,7 @@
         <v>82305.40273856629</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5819,7 +5843,7 @@
         <v>46523.6713385663</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5852,7 +5876,7 @@
         <v>52008.9587385663</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5885,7 +5909,7 @@
         <v>51564.9587385663</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5918,7 +5942,7 @@
         <v>47193.86903856629</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5951,7 +5975,7 @@
         <v>48907.37163856629</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6017,7 +6041,7 @@
         <v>51038.37163856629</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6050,7 +6074,7 @@
         <v>50538.37163856629</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6215,7 +6239,7 @@
         <v>56582.95763856629</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6248,7 +6272,7 @@
         <v>56578.95763856629</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6281,7 +6305,7 @@
         <v>54543.4852385663</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6314,7 +6338,7 @@
         <v>55777.4356385663</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6347,7 +6371,7 @@
         <v>55645.54433856629</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7634,17 +7658,11 @@
         <v>20061.6220385663</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7673,17 +7691,11 @@
         <v>20085.6220385663</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>152.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7716,11 +7728,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7753,11 +7761,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7790,11 +7794,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7827,11 +7827,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7864,11 +7860,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7901,11 +7893,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7938,11 +7926,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +7959,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8012,11 +7992,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8045,15 +8021,11 @@
         <v>22329.87781318497</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8086,11 +8058,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8119,15 +8087,11 @@
         <v>18924.20151318497</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8160,11 +8124,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8197,11 +8157,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8234,11 +8190,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8271,11 +8223,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8308,11 +8256,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8345,11 +8289,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8382,17 +8322,13 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
       <c r="M235" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ABT.xlsx
+++ b/BackTest/2020-01-23 BackTest ABT.xlsx
@@ -484,11 +484,17 @@
         <v>46554.97979999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>156</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>50835.62479999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>157</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -555,10 +567,12 @@
       <c r="I5" t="n">
         <v>160</v>
       </c>
-      <c r="J5" t="n">
-        <v>160</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -590,12 +604,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>160</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -629,9 +641,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>160</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -668,9 +678,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>160</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -707,9 +715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>160</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -746,9 +752,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>160</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -785,9 +789,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>160</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -824,9 +826,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>160</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -863,9 +863,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>160</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -902,9 +900,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>160</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -941,9 +937,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>160</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -980,9 +974,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>160</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1019,9 +1011,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>160</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1058,9 +1048,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>160</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1094,20 +1082,16 @@
         <v>151131.9242</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>160</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1133,17 +1117,11 @@
         <v>134307.6627</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>160</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1172,17 +1150,11 @@
         <v>134313.6627</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>160</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1211,17 +1183,11 @@
         <v>134313.6627</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>160</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1250,17 +1216,11 @@
         <v>134305.6627</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>160</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1289,17 +1249,11 @@
         <v>130768.1944</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>160</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1328,17 +1282,11 @@
         <v>131822.7282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>160</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1367,17 +1315,11 @@
         <v>131818.7282</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>160</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1406,17 +1348,11 @@
         <v>133323.1526</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>160</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1445,17 +1381,11 @@
         <v>145934.4161</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>160</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1484,17 +1414,11 @@
         <v>147325.1845</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>160</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1523,17 +1447,11 @@
         <v>146241.1897</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>160</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1562,17 +1480,11 @@
         <v>145211.589</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>160</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1601,17 +1513,11 @@
         <v>145214.717</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>160</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1640,17 +1546,11 @@
         <v>143355.244</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>160</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1682,16 +1582,10 @@
         <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>160</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>1.001875</v>
+        <v>1</v>
       </c>
       <c r="M34" t="inlineStr"/>
     </row>
@@ -1784,7 +1678,7 @@
         <v>152794.1013</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1817,7 +1711,7 @@
         <v>146050.1992</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1850,7 +1744,7 @@
         <v>143473.4864</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1883,7 +1777,7 @@
         <v>134085.2426</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1916,7 +1810,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1949,7 +1843,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1982,7 +1876,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2015,7 +1909,7 @@
         <v>134092.2426</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2114,7 +2008,7 @@
         <v>103304.3422</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2444,7 +2338,7 @@
         <v>93109.9963</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2477,7 +2371,7 @@
         <v>92859.9963</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -4886,7 +4780,7 @@
         <v>133363.5166384616</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4919,7 +4813,7 @@
         <v>133544.8616384616</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4952,7 +4846,7 @@
         <v>131243.9224384616</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4985,7 +4879,7 @@
         <v>132587.9462384616</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5018,7 +4912,7 @@
         <v>128325.4343384616</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5051,7 +4945,7 @@
         <v>128686.3410384616</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5084,7 +4978,7 @@
         <v>130404.7404384616</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5117,7 +5011,7 @@
         <v>130407.9214384616</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5150,7 +5044,7 @@
         <v>130407.9214384616</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5183,7 +5077,7 @@
         <v>148631.8828384615</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5216,7 +5110,7 @@
         <v>130945.33362331</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5249,7 +5143,7 @@
         <v>133513.4107385663</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5282,7 +5176,7 @@
         <v>133513.4107385663</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5447,7 +5341,7 @@
         <v>99215.4025385663</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5480,7 +5374,7 @@
         <v>99399.10223856629</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5513,7 +5407,7 @@
         <v>95936.5468385663</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5546,7 +5440,7 @@
         <v>94421.3953385663</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5579,7 +5473,7 @@
         <v>94424.52433856631</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6107,7 +6001,7 @@
         <v>50278.37163856629</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6140,7 +6034,7 @@
         <v>47462.65863856629</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6173,7 +6067,7 @@
         <v>47193.56033856629</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6206,7 +6100,7 @@
         <v>47193.56033856629</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -8021,7 +7915,7 @@
         <v>22329.87781318497</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8087,7 +7981,7 @@
         <v>18924.20151318497</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>

--- a/BackTest/2020-01-23 BackTest ABT.xlsx
+++ b/BackTest/2020-01-23 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:L235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>32908.9102</v>
       </c>
       <c r="G2" t="n">
-        <v>30987.2009</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>15567.7789</v>
       </c>
       <c r="G3" t="n">
-        <v>46554.97979999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>4280.645</v>
       </c>
       <c r="G4" t="n">
-        <v>50835.62479999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>3799.8845</v>
       </c>
       <c r="G5" t="n">
-        <v>47035.74029999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,22 +563,15 @@
         <v>22979.7513</v>
       </c>
       <c r="G6" t="n">
-        <v>70015.49159999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,22 +593,15 @@
         <v>15827.4801</v>
       </c>
       <c r="G7" t="n">
-        <v>85842.97169999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,22 +623,15 @@
         <v>8543.984899999999</v>
       </c>
       <c r="G8" t="n">
-        <v>77298.9868</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -709,22 +653,15 @@
         <v>1838.776</v>
       </c>
       <c r="G9" t="n">
-        <v>75460.2108</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,22 +683,15 @@
         <v>10415.806</v>
       </c>
       <c r="G10" t="n">
-        <v>85876.0168</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,22 +713,15 @@
         <v>18674.5984</v>
       </c>
       <c r="G11" t="n">
-        <v>104550.6152</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -820,22 +743,15 @@
         <v>35715.8288</v>
       </c>
       <c r="G12" t="n">
-        <v>140266.444</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -857,22 +773,15 @@
         <v>17133.8407</v>
       </c>
       <c r="G13" t="n">
-        <v>157400.2847</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -894,22 +803,15 @@
         <v>5867.2635</v>
       </c>
       <c r="G14" t="n">
-        <v>151533.0212</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -931,22 +833,15 @@
         <v>4715.9947</v>
       </c>
       <c r="G15" t="n">
-        <v>156249.0159</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -968,22 +863,15 @@
         <v>1750</v>
       </c>
       <c r="G16" t="n">
-        <v>157999.0159</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1005,22 +893,15 @@
         <v>5642.0087</v>
       </c>
       <c r="G17" t="n">
-        <v>163641.0246</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1042,22 +923,15 @@
         <v>12519.4463</v>
       </c>
       <c r="G18" t="n">
-        <v>151121.5783</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1079,20 +953,15 @@
         <v>10.3459</v>
       </c>
       <c r="G19" t="n">
-        <v>151131.9242</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K19" t="n">
+        <v>1</v>
       </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1114,18 +983,15 @@
         <v>16824.2615</v>
       </c>
       <c r="G20" t="n">
-        <v>134307.6627</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1147,18 +1013,15 @@
         <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>134313.6627</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1180,18 +1043,15 @@
         <v>14012.0059</v>
       </c>
       <c r="G22" t="n">
-        <v>134313.6627</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1213,18 +1073,15 @@
         <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>134305.6627</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1246,18 +1103,15 @@
         <v>3537.4683</v>
       </c>
       <c r="G24" t="n">
-        <v>130768.1944</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1279,18 +1133,15 @@
         <v>1054.5338</v>
       </c>
       <c r="G25" t="n">
-        <v>131822.7282</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1312,18 +1163,15 @@
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>131818.7282</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1345,18 +1193,15 @@
         <v>1504.4244</v>
       </c>
       <c r="G27" t="n">
-        <v>133323.1526</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1378,18 +1223,15 @@
         <v>12611.2635</v>
       </c>
       <c r="G28" t="n">
-        <v>145934.4161</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1411,18 +1253,15 @@
         <v>1390.7684</v>
       </c>
       <c r="G29" t="n">
-        <v>147325.1845</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1444,18 +1283,15 @@
         <v>1083.9948</v>
       </c>
       <c r="G30" t="n">
-        <v>146241.1897</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,18 +1313,15 @@
         <v>1029.6007</v>
       </c>
       <c r="G31" t="n">
-        <v>145211.589</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1510,18 +1343,15 @@
         <v>3.128</v>
       </c>
       <c r="G32" t="n">
-        <v>145214.717</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1543,18 +1373,15 @@
         <v>1859.473</v>
       </c>
       <c r="G33" t="n">
-        <v>143355.244</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1576,18 +1403,15 @@
         <v>6345.1283</v>
       </c>
       <c r="G34" t="n">
-        <v>149700.3723</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1609,18 +1433,15 @@
         <v>3897.729</v>
       </c>
       <c r="G35" t="n">
-        <v>153598.1013</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1642,18 +1463,15 @@
         <v>804</v>
       </c>
       <c r="G36" t="n">
-        <v>152794.1013</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1675,18 +1493,15 @@
         <v>803.9996</v>
       </c>
       <c r="G37" t="n">
-        <v>152794.1013</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,18 +1523,15 @@
         <v>6743.9021</v>
       </c>
       <c r="G38" t="n">
-        <v>146050.1992</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1741,18 +1553,15 @@
         <v>2576.7128</v>
       </c>
       <c r="G39" t="n">
-        <v>143473.4864</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1774,18 +1583,15 @@
         <v>9388.2438</v>
       </c>
       <c r="G40" t="n">
-        <v>134085.2426</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1807,18 +1613,15 @@
         <v>7</v>
       </c>
       <c r="G41" t="n">
-        <v>134092.2426</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1840,18 +1643,15 @@
         <v>547.8452</v>
       </c>
       <c r="G42" t="n">
-        <v>134092.2426</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1873,18 +1673,15 @@
         <v>2150.7699</v>
       </c>
       <c r="G43" t="n">
-        <v>134092.2426</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1906,18 +1703,15 @@
         <v>19.3557</v>
       </c>
       <c r="G44" t="n">
-        <v>134092.2426</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1939,18 +1733,15 @@
         <v>4605.3036</v>
       </c>
       <c r="G45" t="n">
-        <v>129486.939</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1972,18 +1763,15 @@
         <v>8785.688700000001</v>
       </c>
       <c r="G46" t="n">
-        <v>120701.2503</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2005,18 +1793,15 @@
         <v>17396.9081</v>
       </c>
       <c r="G47" t="n">
-        <v>103304.3422</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2038,18 +1823,15 @@
         <v>50</v>
       </c>
       <c r="G48" t="n">
-        <v>103254.3422</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2071,18 +1853,15 @@
         <v>19.3557</v>
       </c>
       <c r="G49" t="n">
-        <v>103273.6979</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2104,18 +1883,15 @@
         <v>2995.3328</v>
       </c>
       <c r="G50" t="n">
-        <v>100278.3651</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2137,18 +1913,15 @@
         <v>6321.4242</v>
       </c>
       <c r="G51" t="n">
-        <v>93956.9409</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2170,18 +1943,15 @@
         <v>1500</v>
       </c>
       <c r="G52" t="n">
-        <v>95456.9409</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2203,18 +1973,15 @@
         <v>200</v>
       </c>
       <c r="G53" t="n">
-        <v>95256.9409</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2236,18 +2003,15 @@
         <v>3.182</v>
       </c>
       <c r="G54" t="n">
-        <v>95260.1229</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2269,18 +2033,15 @@
         <v>3.334</v>
       </c>
       <c r="G55" t="n">
-        <v>95263.4569</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2302,18 +2063,15 @@
         <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>95266.4569</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2335,18 +2093,15 @@
         <v>2156.4606</v>
       </c>
       <c r="G57" t="n">
-        <v>93109.9963</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2368,18 +2123,15 @@
         <v>250</v>
       </c>
       <c r="G58" t="n">
-        <v>92859.9963</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2401,18 +2153,15 @@
         <v>17</v>
       </c>
       <c r="G59" t="n">
-        <v>92859.9963</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2434,18 +2183,15 @@
         <v>20.208</v>
       </c>
       <c r="G60" t="n">
-        <v>92859.9963</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2467,18 +2213,15 @@
         <v>17</v>
       </c>
       <c r="G61" t="n">
-        <v>92842.9963</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2500,18 +2243,15 @@
         <v>6591.9064</v>
       </c>
       <c r="G62" t="n">
-        <v>92842.9963</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2533,18 +2273,15 @@
         <v>2087.8834</v>
       </c>
       <c r="G63" t="n">
-        <v>92842.9963</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2566,18 +2303,15 @@
         <v>1500</v>
       </c>
       <c r="G64" t="n">
-        <v>91342.9963</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2599,18 +2333,15 @@
         <v>1500</v>
       </c>
       <c r="G65" t="n">
-        <v>91342.9963</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2632,18 +2363,15 @@
         <v>3490.8102</v>
       </c>
       <c r="G66" t="n">
-        <v>91342.9963</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2665,18 +2393,15 @@
         <v>1489.6043</v>
       </c>
       <c r="G67" t="n">
-        <v>92832.60060000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2698,18 +2423,15 @@
         <v>4830.8326</v>
       </c>
       <c r="G68" t="n">
-        <v>88001.76800000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2731,18 +2453,15 @@
         <v>1627.4248</v>
       </c>
       <c r="G69" t="n">
-        <v>86374.34320000002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2764,18 +2483,15 @@
         <v>3.4</v>
       </c>
       <c r="G70" t="n">
-        <v>86370.94320000002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2797,18 +2513,19 @@
         <v>5057.494</v>
       </c>
       <c r="G71" t="n">
-        <v>91428.43720000003</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>151.1</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2830,18 +2547,21 @@
         <v>5098.904</v>
       </c>
       <c r="G72" t="n">
-        <v>96527.34120000002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2863,18 +2583,21 @@
         <v>3.3</v>
       </c>
       <c r="G73" t="n">
-        <v>96524.04120000002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2896,18 +2619,15 @@
         <v>3.259</v>
       </c>
       <c r="G74" t="n">
-        <v>96527.30020000003</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2929,18 +2649,15 @@
         <v>105.2242</v>
       </c>
       <c r="G75" t="n">
-        <v>96527.30020000003</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2962,18 +2679,15 @@
         <v>3.3</v>
       </c>
       <c r="G76" t="n">
-        <v>96524.00020000002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2995,18 +2709,15 @@
         <v>1500</v>
       </c>
       <c r="G77" t="n">
-        <v>96524.00020000002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3028,18 +2739,15 @@
         <v>2479.6202</v>
       </c>
       <c r="G78" t="n">
-        <v>99003.62040000003</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3061,18 +2769,15 @@
         <v>4347.6101</v>
       </c>
       <c r="G79" t="n">
-        <v>99003.62040000003</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3094,18 +2799,19 @@
         <v>105.2242</v>
       </c>
       <c r="G80" t="n">
-        <v>98898.39620000003</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="I80" t="n">
+        <v>154</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3127,18 +2833,23 @@
         <v>224.4445</v>
       </c>
       <c r="G81" t="n">
-        <v>99122.84070000003</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="I81" t="n">
+        <v>154</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3160,18 +2871,23 @@
         <v>2970.2376</v>
       </c>
       <c r="G82" t="n">
-        <v>99122.84070000003</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>154.9</v>
+      </c>
+      <c r="I82" t="n">
+        <v>154</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3193,18 +2909,23 @@
         <v>3450</v>
       </c>
       <c r="G83" t="n">
-        <v>102572.8407</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>154.9</v>
+      </c>
+      <c r="I83" t="n">
+        <v>154</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3226,18 +2947,23 @@
         <v>535.1581</v>
       </c>
       <c r="G84" t="n">
-        <v>102037.6826</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>155.9</v>
+      </c>
+      <c r="I84" t="n">
+        <v>154</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3259,18 +2985,23 @@
         <v>1500</v>
       </c>
       <c r="G85" t="n">
-        <v>100537.6826</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="I85" t="n">
+        <v>154</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3292,18 +3023,23 @@
         <v>998.921</v>
       </c>
       <c r="G86" t="n">
-        <v>99538.76160000003</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>153.1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>154</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3325,18 +3061,23 @@
         <v>1500</v>
       </c>
       <c r="G87" t="n">
-        <v>98038.76160000003</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="I87" t="n">
+        <v>154</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3358,18 +3099,23 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>98048.76160000003</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>152.2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>154</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3391,18 +3137,21 @@
         <v>1500</v>
       </c>
       <c r="G89" t="n">
-        <v>96548.76160000003</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>154</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3424,18 +3173,21 @@
         <v>1370.1263</v>
       </c>
       <c r="G90" t="n">
-        <v>97918.88790000003</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>154</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3457,18 +3209,23 @@
         <v>702.558</v>
       </c>
       <c r="G91" t="n">
-        <v>98621.44590000004</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>153.1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>154</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3490,18 +3247,23 @@
         <v>1524.08</v>
       </c>
       <c r="G92" t="n">
-        <v>98621.44590000004</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>155.9</v>
+      </c>
+      <c r="I92" t="n">
+        <v>154</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3523,18 +3285,23 @@
         <v>38.46153846153846</v>
       </c>
       <c r="G93" t="n">
-        <v>98659.90743846157</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>155.9</v>
+      </c>
+      <c r="I93" t="n">
+        <v>154</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3556,18 +3323,23 @@
         <v>505.332</v>
       </c>
       <c r="G94" t="n">
-        <v>98154.57543846157</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>156</v>
+      </c>
+      <c r="I94" t="n">
+        <v>154</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3589,18 +3361,23 @@
         <v>8453.808800000001</v>
       </c>
       <c r="G95" t="n">
-        <v>106608.3842384616</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>154.1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>154</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3622,18 +3399,23 @@
         <v>1663</v>
       </c>
       <c r="G96" t="n">
-        <v>106608.3842384616</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>155</v>
+      </c>
+      <c r="I96" t="n">
+        <v>154</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3655,18 +3437,21 @@
         <v>1575.4606</v>
       </c>
       <c r="G97" t="n">
-        <v>105032.9236384616</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>154</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3688,18 +3473,21 @@
         <v>2970.2376</v>
       </c>
       <c r="G98" t="n">
-        <v>102062.6860384616</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>154</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3721,18 +3509,21 @@
         <v>5337.1564</v>
       </c>
       <c r="G99" t="n">
-        <v>102062.6860384616</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>154</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3754,18 +3545,23 @@
         <v>1083.9945</v>
       </c>
       <c r="G100" t="n">
-        <v>103146.6805384616</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="I100" t="n">
+        <v>154</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3787,18 +3583,23 @@
         <v>576.6618999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>103146.6805384616</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>148.1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>154</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3820,18 +3621,23 @@
         <v>3026.8479</v>
       </c>
       <c r="G102" t="n">
-        <v>100119.8326384616</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>148.1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>154</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3853,18 +3659,23 @@
         <v>1978.207</v>
       </c>
       <c r="G103" t="n">
-        <v>102098.0396384616</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="I103" t="n">
+        <v>154</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3886,18 +3697,23 @@
         <v>511.1113</v>
       </c>
       <c r="G104" t="n">
-        <v>102098.0396384616</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>153.4</v>
+      </c>
+      <c r="I104" t="n">
+        <v>154</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3919,18 +3735,21 @@
         <v>4082.2381</v>
       </c>
       <c r="G105" t="n">
-        <v>102098.0396384616</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>154</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3952,18 +3771,21 @@
         <v>3.252</v>
       </c>
       <c r="G106" t="n">
-        <v>102101.2916384616</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>154</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3985,18 +3807,21 @@
         <v>28170.2101</v>
       </c>
       <c r="G107" t="n">
-        <v>130271.5017384616</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>154</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4018,18 +3843,23 @@
         <v>2615</v>
       </c>
       <c r="G108" t="n">
-        <v>132886.5017384615</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>156.8</v>
+      </c>
+      <c r="I108" t="n">
+        <v>154</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4051,18 +3881,21 @@
         <v>179.228</v>
       </c>
       <c r="G109" t="n">
-        <v>132707.2737384615</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>154</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4084,18 +3917,21 @@
         <v>468.2404</v>
       </c>
       <c r="G110" t="n">
-        <v>133175.5141384616</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>154</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4117,18 +3953,23 @@
         <v>517</v>
       </c>
       <c r="G111" t="n">
-        <v>133692.5141384616</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="I111" t="n">
+        <v>154</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4150,18 +3991,23 @@
         <v>468.24</v>
       </c>
       <c r="G112" t="n">
-        <v>133224.2741384616</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>154.1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>154</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4183,18 +4029,23 @@
         <v>2492.3185</v>
       </c>
       <c r="G113" t="n">
-        <v>135716.5926384616</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="I113" t="n">
+        <v>154</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4216,18 +4067,21 @@
         <v>517</v>
       </c>
       <c r="G114" t="n">
-        <v>135199.5926384616</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>154</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4249,18 +4103,21 @@
         <v>19.7842</v>
       </c>
       <c r="G115" t="n">
-        <v>135179.8084384616</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>154</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4282,18 +4139,21 @@
         <v>13979.9393</v>
       </c>
       <c r="G116" t="n">
-        <v>149159.7477384616</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>154</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4315,18 +4175,21 @@
         <v>2000</v>
       </c>
       <c r="G117" t="n">
-        <v>147159.7477384616</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>154</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4348,18 +4211,21 @@
         <v>500</v>
       </c>
       <c r="G118" t="n">
-        <v>147159.7477384616</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>154</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4381,18 +4247,21 @@
         <v>154.1648</v>
       </c>
       <c r="G119" t="n">
-        <v>147313.9125384616</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>154</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4414,18 +4283,23 @@
         <v>3.321</v>
       </c>
       <c r="G120" t="n">
-        <v>147317.2335384616</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>155.1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>154</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4447,18 +4321,21 @@
         <v>4.152</v>
       </c>
       <c r="G121" t="n">
-        <v>147317.2335384616</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>154</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4480,18 +4357,21 @@
         <v>750</v>
       </c>
       <c r="G122" t="n">
-        <v>148067.2335384616</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>154</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4513,18 +4393,21 @@
         <v>1019.0541</v>
       </c>
       <c r="G123" t="n">
-        <v>148067.2335384616</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>154</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4546,18 +4429,21 @@
         <v>1028.0174</v>
       </c>
       <c r="G124" t="n">
-        <v>148067.2335384616</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>154</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4579,18 +4465,21 @@
         <v>1303.0596</v>
       </c>
       <c r="G125" t="n">
-        <v>148067.2335384616</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>154</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4612,18 +4501,21 @@
         <v>250</v>
       </c>
       <c r="G126" t="n">
-        <v>147817.2335384616</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>154</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4645,18 +4537,21 @@
         <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>147817.2335384616</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>154</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4678,18 +4573,21 @@
         <v>328.239</v>
       </c>
       <c r="G128" t="n">
-        <v>148145.4725384616</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>154</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4711,18 +4609,21 @@
         <v>513.8171</v>
       </c>
       <c r="G129" t="n">
-        <v>148659.2896384615</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>154</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4744,18 +4645,21 @@
         <v>750</v>
       </c>
       <c r="G130" t="n">
-        <v>149409.2896384615</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>154</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4777,18 +4681,21 @@
         <v>16045.773</v>
       </c>
       <c r="G131" t="n">
-        <v>133363.5166384616</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>154</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4810,18 +4717,21 @@
         <v>181.345</v>
       </c>
       <c r="G132" t="n">
-        <v>133544.8616384616</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>154</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4843,18 +4753,21 @@
         <v>2300.9392</v>
       </c>
       <c r="G133" t="n">
-        <v>131243.9224384616</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>154</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4876,18 +4789,21 @@
         <v>1344.0238</v>
       </c>
       <c r="G134" t="n">
-        <v>132587.9462384616</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>154</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4909,18 +4825,21 @@
         <v>4262.5119</v>
       </c>
       <c r="G135" t="n">
-        <v>128325.4343384616</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>154</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4942,18 +4861,21 @@
         <v>360.9067</v>
       </c>
       <c r="G136" t="n">
-        <v>128686.3410384616</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>154</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4975,18 +4897,21 @@
         <v>1718.3994</v>
       </c>
       <c r="G137" t="n">
-        <v>130404.7404384616</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>154</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5008,18 +4933,21 @@
         <v>3.181</v>
       </c>
       <c r="G138" t="n">
-        <v>130407.9214384616</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>154</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5041,18 +4969,21 @@
         <v>133.5313</v>
       </c>
       <c r="G139" t="n">
-        <v>130407.9214384616</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>154</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5074,18 +5005,21 @@
         <v>18223.9614</v>
       </c>
       <c r="G140" t="n">
-        <v>148631.8828384615</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>154</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5107,18 +5041,21 @@
         <v>17686.54921515151</v>
       </c>
       <c r="G141" t="n">
-        <v>130945.33362331</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>154</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5140,18 +5077,21 @@
         <v>2568.077115256257</v>
       </c>
       <c r="G142" t="n">
-        <v>133513.4107385663</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>154</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5173,18 +5113,21 @@
         <v>154.4332</v>
       </c>
       <c r="G143" t="n">
-        <v>133513.4107385663</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>154</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5206,18 +5149,21 @@
         <v>580.8295000000001</v>
       </c>
       <c r="G144" t="n">
-        <v>134094.2402385663</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>154</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5239,18 +5185,23 @@
         <v>9759.2937</v>
       </c>
       <c r="G145" t="n">
-        <v>124334.9465385663</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>154</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1.054090909090909</v>
+      </c>
       <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>1.129913391072618</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5272,18 +5223,15 @@
         <v>302.8728</v>
       </c>
       <c r="G146" t="n">
-        <v>124334.9465385663</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5305,18 +5253,15 @@
         <v>283.0708</v>
       </c>
       <c r="G147" t="n">
-        <v>124051.8757385663</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5338,18 +5283,15 @@
         <v>24836.4732</v>
       </c>
       <c r="G148" t="n">
-        <v>99215.4025385663</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5371,18 +5313,15 @@
         <v>183.6997</v>
       </c>
       <c r="G149" t="n">
-        <v>99399.10223856629</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5404,18 +5343,15 @@
         <v>3462.5554</v>
       </c>
       <c r="G150" t="n">
-        <v>95936.5468385663</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5437,18 +5373,15 @@
         <v>1515.1515</v>
       </c>
       <c r="G151" t="n">
-        <v>94421.3953385663</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5470,18 +5403,15 @@
         <v>3.129</v>
       </c>
       <c r="G152" t="n">
-        <v>94424.52433856631</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5503,18 +5433,15 @@
         <v>1585.1925</v>
       </c>
       <c r="G153" t="n">
-        <v>94424.52433856631</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5536,18 +5463,15 @@
         <v>7913.7639</v>
       </c>
       <c r="G154" t="n">
-        <v>86510.7604385663</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5569,18 +5493,15 @@
         <v>1713.5026</v>
       </c>
       <c r="G155" t="n">
-        <v>88224.26303856631</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5602,18 +5523,15 @@
         <v>495.8653</v>
       </c>
       <c r="G156" t="n">
-        <v>87728.3977385663</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5635,18 +5553,15 @@
         <v>5706.0917</v>
       </c>
       <c r="G157" t="n">
-        <v>82022.3060385663</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5668,18 +5583,15 @@
         <v>206.7203</v>
       </c>
       <c r="G158" t="n">
-        <v>81815.5857385663</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5701,18 +5613,15 @@
         <v>489.817</v>
       </c>
       <c r="G159" t="n">
-        <v>82305.40273856629</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5734,18 +5643,15 @@
         <v>35781.7314</v>
       </c>
       <c r="G160" t="n">
-        <v>46523.6713385663</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5767,18 +5673,15 @@
         <v>5485.2874</v>
       </c>
       <c r="G161" t="n">
-        <v>52008.9587385663</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5800,18 +5703,15 @@
         <v>444</v>
       </c>
       <c r="G162" t="n">
-        <v>51564.9587385663</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5833,18 +5733,15 @@
         <v>4371.0897</v>
       </c>
       <c r="G163" t="n">
-        <v>47193.86903856629</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5866,18 +5763,15 @@
         <v>1713.5026</v>
       </c>
       <c r="G164" t="n">
-        <v>48907.37163856629</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5899,18 +5793,15 @@
         <v>2131</v>
       </c>
       <c r="G165" t="n">
-        <v>51038.37163856629</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5932,18 +5823,15 @@
         <v>748.2258</v>
       </c>
       <c r="G166" t="n">
-        <v>51038.37163856629</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5965,18 +5853,15 @@
         <v>500</v>
       </c>
       <c r="G167" t="n">
-        <v>50538.37163856629</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5998,18 +5883,15 @@
         <v>260</v>
       </c>
       <c r="G168" t="n">
-        <v>50278.37163856629</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6031,18 +5913,15 @@
         <v>2815.713</v>
       </c>
       <c r="G169" t="n">
-        <v>47462.65863856629</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6064,18 +5943,15 @@
         <v>269.0983</v>
       </c>
       <c r="G170" t="n">
-        <v>47193.56033856629</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6097,18 +5973,19 @@
         <v>537.921</v>
       </c>
       <c r="G171" t="n">
-        <v>47193.56033856629</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>156.2</v>
+      </c>
+      <c r="I171" t="n">
+        <v>156.2</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6130,18 +6007,21 @@
         <v>9389.397300000001</v>
       </c>
       <c r="G172" t="n">
-        <v>56582.95763856629</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6163,18 +6043,21 @@
         <v>4</v>
       </c>
       <c r="G173" t="n">
-        <v>56578.95763856629</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6196,18 +6079,21 @@
         <v>2035.4724</v>
       </c>
       <c r="G174" t="n">
-        <v>54543.4852385663</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6229,18 +6115,21 @@
         <v>1233.9504</v>
       </c>
       <c r="G175" t="n">
-        <v>55777.4356385663</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6262,18 +6151,21 @@
         <v>131.8913</v>
       </c>
       <c r="G176" t="n">
-        <v>55645.54433856629</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6295,18 +6187,21 @@
         <v>750</v>
       </c>
       <c r="G177" t="n">
-        <v>54895.54433856629</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6328,18 +6223,21 @@
         <v>260</v>
       </c>
       <c r="G178" t="n">
-        <v>55155.54433856629</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6361,18 +6259,21 @@
         <v>519.0983</v>
       </c>
       <c r="G179" t="n">
-        <v>54636.4460385663</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6394,18 +6295,23 @@
         <v>3.218</v>
       </c>
       <c r="G180" t="n">
-        <v>54639.6640385663</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="I180" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6427,18 +6333,23 @@
         <v>19842.3413</v>
       </c>
       <c r="G181" t="n">
-        <v>34797.3227385663</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>155.9</v>
+      </c>
+      <c r="I181" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6460,18 +6371,23 @@
         <v>3542</v>
       </c>
       <c r="G182" t="n">
-        <v>38339.3227385663</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="I182" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6493,18 +6409,23 @@
         <v>13669.1312</v>
       </c>
       <c r="G183" t="n">
-        <v>24670.1915385663</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>156.4</v>
+      </c>
+      <c r="I183" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6526,18 +6447,21 @@
         <v>1961.9949</v>
       </c>
       <c r="G184" t="n">
-        <v>24670.1915385663</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6559,18 +6483,21 @@
         <v>191.0293</v>
       </c>
       <c r="G185" t="n">
-        <v>24479.1622385663</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6592,18 +6519,21 @@
         <v>1089.021</v>
       </c>
       <c r="G186" t="n">
-        <v>25568.1832385663</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6625,18 +6555,21 @@
         <v>1500</v>
       </c>
       <c r="G187" t="n">
-        <v>24068.1832385663</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6658,18 +6591,21 @@
         <v>875.1136</v>
       </c>
       <c r="G188" t="n">
-        <v>24943.2968385663</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6691,18 +6627,23 @@
         <v>12126.875</v>
       </c>
       <c r="G189" t="n">
-        <v>37070.1718385663</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>152.9</v>
+      </c>
+      <c r="I189" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6724,18 +6665,21 @@
         <v>1600.5061</v>
       </c>
       <c r="G190" t="n">
-        <v>38670.6779385663</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6757,18 +6701,21 @@
         <v>3835.5666</v>
       </c>
       <c r="G191" t="n">
-        <v>34835.1113385663</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6790,18 +6737,21 @@
         <v>2217.42</v>
       </c>
       <c r="G192" t="n">
-        <v>37052.5313385663</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6823,18 +6773,21 @@
         <v>500</v>
       </c>
       <c r="G193" t="n">
-        <v>36552.5313385663</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6856,18 +6809,21 @@
         <v>1830.0024</v>
       </c>
       <c r="G194" t="n">
-        <v>34722.5289385663</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6889,18 +6845,23 @@
         <v>100</v>
       </c>
       <c r="G195" t="n">
-        <v>34622.5289385663</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>152.8</v>
+      </c>
+      <c r="I195" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6922,18 +6883,23 @@
         <v>86.16370000000001</v>
       </c>
       <c r="G196" t="n">
-        <v>34536.3652385663</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>152.6</v>
+      </c>
+      <c r="I196" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6955,18 +6921,23 @@
         <v>86.2319</v>
       </c>
       <c r="G197" t="n">
-        <v>34622.5971385663</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>151.8</v>
+      </c>
+      <c r="I197" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6988,18 +6959,23 @@
         <v>10</v>
       </c>
       <c r="G198" t="n">
-        <v>34612.5971385663</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>152.6</v>
+      </c>
+      <c r="I198" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7021,18 +6997,23 @@
         <v>23</v>
       </c>
       <c r="G199" t="n">
-        <v>34635.5971385663</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>150.4</v>
+      </c>
+      <c r="I199" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7054,18 +7035,21 @@
         <v>3502.5166</v>
       </c>
       <c r="G200" t="n">
-        <v>38138.1137385663</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7087,18 +7071,21 @@
         <v>13629.2756</v>
       </c>
       <c r="G201" t="n">
-        <v>24508.8381385663</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7120,18 +7107,21 @@
         <v>3882.7835</v>
       </c>
       <c r="G202" t="n">
-        <v>28391.6216385663</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7153,18 +7143,21 @@
         <v>501</v>
       </c>
       <c r="G203" t="n">
-        <v>27890.6216385663</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7186,18 +7179,21 @@
         <v>638.4471</v>
       </c>
       <c r="G204" t="n">
-        <v>27890.6216385663</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7219,18 +7215,21 @@
         <v>8</v>
       </c>
       <c r="G205" t="n">
-        <v>27882.6216385663</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7252,18 +7251,21 @@
         <v>2108.8986</v>
       </c>
       <c r="G206" t="n">
-        <v>25773.7230385663</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7285,18 +7287,21 @@
         <v>4476.7002</v>
       </c>
       <c r="G207" t="n">
-        <v>30250.4232385663</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7318,18 +7323,21 @@
         <v>5</v>
       </c>
       <c r="G208" t="n">
-        <v>30255.4232385663</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7351,18 +7359,21 @@
         <v>106.5785</v>
       </c>
       <c r="G209" t="n">
-        <v>30148.8447385663</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7384,18 +7395,21 @@
         <v>2021.886</v>
       </c>
       <c r="G210" t="n">
-        <v>32170.7307385663</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7417,18 +7431,21 @@
         <v>16700.6396</v>
       </c>
       <c r="G211" t="n">
-        <v>15470.0911385663</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7450,18 +7467,21 @@
         <v>1240.245</v>
       </c>
       <c r="G212" t="n">
-        <v>16710.3361385663</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7483,18 +7503,21 @@
         <v>639.5231</v>
       </c>
       <c r="G213" t="n">
-        <v>16070.8130385663</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7516,18 +7539,21 @@
         <v>661.372</v>
       </c>
       <c r="G214" t="n">
-        <v>15409.4410385663</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7549,18 +7575,21 @@
         <v>4652.181</v>
       </c>
       <c r="G215" t="n">
-        <v>20061.6220385663</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7582,18 +7611,21 @@
         <v>24</v>
       </c>
       <c r="G216" t="n">
-        <v>20085.6220385663</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7615,18 +7647,21 @@
         <v>999.8132000000001</v>
       </c>
       <c r="G217" t="n">
-        <v>19085.8088385663</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7648,18 +7683,21 @@
         <v>1170.5341</v>
       </c>
       <c r="G218" t="n">
-        <v>20256.3429385663</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7681,18 +7719,21 @@
         <v>4038.39057461867</v>
       </c>
       <c r="G219" t="n">
-        <v>24294.73351318497</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7714,18 +7755,21 @@
         <v>25.2079</v>
       </c>
       <c r="G220" t="n">
-        <v>24319.94141318497</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7747,18 +7791,21 @@
         <v>1995.5305</v>
       </c>
       <c r="G221" t="n">
-        <v>22324.41091318497</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7780,18 +7827,21 @@
         <v>4</v>
       </c>
       <c r="G222" t="n">
-        <v>22328.41091318497</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7813,18 +7863,21 @@
         <v>8</v>
       </c>
       <c r="G223" t="n">
-        <v>22320.41091318497</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7846,18 +7899,21 @@
         <v>11.7382</v>
       </c>
       <c r="G224" t="n">
-        <v>22332.14911318497</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7879,18 +7935,21 @@
         <v>5.7287</v>
       </c>
       <c r="G225" t="n">
-        <v>22337.87781318497</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7912,18 +7971,21 @@
         <v>8</v>
       </c>
       <c r="G226" t="n">
-        <v>22329.87781318497</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7945,18 +8007,21 @@
         <v>485.4696</v>
       </c>
       <c r="G227" t="n">
-        <v>22815.34741318497</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7978,18 +8043,21 @@
         <v>3891.1459</v>
       </c>
       <c r="G228" t="n">
-        <v>18924.20151318497</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8011,18 +8079,21 @@
         <v>2250</v>
       </c>
       <c r="G229" t="n">
-        <v>21174.20151318497</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8044,18 +8115,21 @@
         <v>4</v>
       </c>
       <c r="G230" t="n">
-        <v>21178.20151318497</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8077,18 +8151,21 @@
         <v>20621.83494457831</v>
       </c>
       <c r="G231" t="n">
-        <v>556.3665686066597</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8110,18 +8187,21 @@
         <v>10709.7056</v>
       </c>
       <c r="G232" t="n">
-        <v>11266.07216860666</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8143,18 +8223,21 @@
         <v>708.4136</v>
       </c>
       <c r="G233" t="n">
-        <v>11974.48576860666</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8176,18 +8259,21 @@
         <v>164.6756</v>
       </c>
       <c r="G234" t="n">
-        <v>11809.81016860666</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8209,18 +8295,21 @@
         <v>7807.1184</v>
       </c>
       <c r="G235" t="n">
-        <v>11809.81016860666</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
